--- a/Libraries/OpenNeuronCL/PerformanceStats.xlsx
+++ b/Libraries/OpenNeuronCL/PerformanceStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1305" windowWidth="11010" windowHeight="11790"/>
+    <workbookView xWindow="4560" yWindow="1305" windowWidth="11010" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="FastSpiking Phase 1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Time</t>
   </si>
@@ -30,31 +30,7 @@
     <t>Error</t>
   </si>
   <si>
-    <t>OCL 100_100</t>
-  </si>
-  <si>
-    <t>OCL256_256</t>
-  </si>
-  <si>
-    <t>OCL512_512</t>
-  </si>
-  <si>
-    <t>OCL_1024_512</t>
-  </si>
-  <si>
     <t>OCL_Neurons_WorkItems</t>
-  </si>
-  <si>
-    <t>OCL_2048_512</t>
-  </si>
-  <si>
-    <t>OCL_4096_512</t>
-  </si>
-  <si>
-    <t>OCL_8192_256</t>
-  </si>
-  <si>
-    <t>OCL_16384_512</t>
   </si>
   <si>
     <t>Average</t>
@@ -73,6 +49,36 @@
   </si>
   <si>
     <t>% Increase</t>
+  </si>
+  <si>
+    <t>Neural Step</t>
+  </si>
+  <si>
+    <t>Sim time</t>
+  </si>
+  <si>
+    <t>OCL 2^10</t>
+  </si>
+  <si>
+    <t>OCL 2^12</t>
+  </si>
+  <si>
+    <t>OCL 2^14</t>
+  </si>
+  <si>
+    <t>OCL 2^16</t>
+  </si>
+  <si>
+    <t>OCL 2^18</t>
+  </si>
+  <si>
+    <t>OCL 2^20</t>
+  </si>
+  <si>
+    <t>OCL 2^23</t>
+  </si>
+  <si>
+    <t>OCL 2^24</t>
   </si>
 </sst>
 </file>
@@ -108,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12226,11 +12233,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102576896"/>
-        <c:axId val="102578432"/>
+        <c:axId val="100680448"/>
+        <c:axId val="100681984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102576896"/>
+        <c:axId val="100680448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12240,12 +12247,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102578432"/>
+        <c:crossAx val="100681984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102578432"/>
+        <c:axId val="100681984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12256,7 +12263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102576896"/>
+        <c:crossAx val="100680448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12309,10 +12316,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'FastSpiking Phase 1'!$X$14:$AG$14</c:f>
+                <c:f>'FastSpiking Phase 1'!$X$14:$AF$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="9"/>
                   <c:pt idx="0">
                     <c:v>9.9474631418057582E-3</c:v>
                   </c:pt>
@@ -12320,38 +12327,35 @@
                     <c:v>8.5449813137914027E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.7847424542773674E-3</c:v>
+                    <c:v>8.6579300205072126E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.9851950584514359E-3</c:v>
+                    <c:v>2.6587871803512206E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.9185689120012222E-3</c:v>
+                    <c:v>3.4761464345450122E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.513451159568752E-3</c:v>
+                    <c:v>2.1269042504071501E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.7375000000000013E-4</c:v>
+                    <c:v>1.9088539550211792E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.9136938122233933E-3</c:v>
+                    <c:v>1.7411217193522112E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.5406196463508507E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>3.7964362089845378E-3</c:v>
+                    <c:v>1.2135725056213161E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'FastSpiking Phase 1'!$X$14:$AG$14</c:f>
+                <c:f>'FastSpiking Phase 1'!$X$14:$AF$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="9"/>
                   <c:pt idx="0">
                     <c:v>9.9474631418057582E-3</c:v>
                   </c:pt>
@@ -12359,28 +12363,25 @@
                     <c:v>8.5449813137914027E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.7847424542773674E-3</c:v>
+                    <c:v>8.6579300205072126E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.9851950584514359E-3</c:v>
+                    <c:v>2.6587871803512206E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.9185689120012222E-3</c:v>
+                    <c:v>3.4761464345450122E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.513451159568752E-3</c:v>
+                    <c:v>2.1269042504071501E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.7375000000000013E-4</c:v>
+                    <c:v>1.9088539550211792E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.9136938122233933E-3</c:v>
+                    <c:v>1.7411217193522112E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.5406196463508507E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>3.7964362089845378E-3</c:v>
+                    <c:v>1.2135725056213161E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -12398,38 +12399,38 @@
                   <c:v>FSP_100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>OCL 100_100</c:v>
+                  <c:v>OCL 2^10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>OCL256_256</c:v>
+                  <c:v>OCL 2^12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>OCL512_512</c:v>
+                  <c:v>OCL 2^14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>OCL_1024_512</c:v>
+                  <c:v>OCL 2^16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>OCL_2048_512</c:v>
+                  <c:v>OCL 2^18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OCL_4096_512</c:v>
+                  <c:v>OCL 2^20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>OCL_8192_256</c:v>
+                  <c:v>OCL 2^23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>OCL_16384_512</c:v>
+                  <c:v>OCL 2^24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'FastSpiking Phase 1'!$X$13:$AG$13</c:f>
+              <c:f>'FastSpiking Phase 1'!$X$13:$AF$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6.736370500000001E-2</c:v>
                 </c:pt>
@@ -12437,28 +12438,25 @@
                   <c:v>3.5546943999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.760663E-2</c:v>
+                  <c:v>2.7003640000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7827330000000001E-2</c:v>
+                  <c:v>2.8325259999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7897570000000003E-2</c:v>
+                  <c:v>2.951376E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6445139999999999E-2</c:v>
+                  <c:v>2.4075759999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.822305E-2</c:v>
+                  <c:v>2.597932E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7555716666666664E-2</c:v>
+                  <c:v>2.3150120000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7690983333333332E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.6151533333333334E-2</c:v>
+                  <c:v>3.3666739999999994E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12473,11 +12471,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="102623488"/>
-        <c:axId val="102629760"/>
+        <c:axId val="100722944"/>
+        <c:axId val="100729216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102623488"/>
+        <c:axId val="100722944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12510,7 +12508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102629760"/>
+        <c:crossAx val="100729216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12518,7 +12516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102629760"/>
+        <c:axId val="100729216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12529,7 +12527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102623488"/>
+        <c:crossAx val="100722944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12586,7 +12584,7 @@
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
@@ -12900,8 +12898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView tabSelected="1" topLeftCell="U7" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12909,10 +12907,13 @@
     <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.140625" customWidth="1"/>
     <col min="26" max="26" width="13.42578125" customWidth="1"/>
+    <col min="27" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.7109375" customWidth="1"/>
-    <col min="30" max="31" width="15" customWidth="1"/>
-    <col min="32" max="32" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" customWidth="1"/>
+    <col min="31" max="31" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -12929,37 +12930,37 @@
         <v>3</v>
       </c>
       <c r="X1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>4</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -12983,28 +12984,28 @@
         <v>4.0023969999999999E-2</v>
       </c>
       <c r="Z2">
-        <v>2.47041E-2</v>
+        <v>2.5553800000000002E-2</v>
       </c>
       <c r="AA2">
-        <v>2.4629600000000001E-2</v>
+        <v>3.1666699999999999E-2</v>
       </c>
       <c r="AB2">
-        <v>2.7544900000000001E-2</v>
+        <v>3.5593800000000002E-2</v>
       </c>
       <c r="AC2">
-        <v>2.4692499999999999E-2</v>
+        <v>2.40538E-2</v>
       </c>
       <c r="AD2">
-        <v>2.89968E-2</v>
+        <v>2.8556999999999999E-2</v>
       </c>
       <c r="AE2">
-        <v>2.6776299999999999E-2</v>
+        <v>2.4276499999999999E-2</v>
       </c>
       <c r="AF2">
-        <v>2.6374100000000001E-2</v>
+        <v>3.4881599999999999E-2</v>
       </c>
       <c r="AG2">
-        <v>2.28281E-2</v>
+        <v>6.1439599999999999</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -13028,28 +13029,28 @@
         <v>1.764429E-2</v>
       </c>
       <c r="Z3">
-        <v>2.9869900000000001E-2</v>
+        <v>2.7735800000000001E-2</v>
       </c>
       <c r="AA3">
-        <v>3.1960200000000001E-2</v>
+        <v>3.0497099999999999E-2</v>
       </c>
       <c r="AB3">
-        <v>2.4779099999999998E-2</v>
+        <v>3.0673599999999999E-2</v>
       </c>
       <c r="AC3">
-        <v>2.7592999999999999E-2</v>
+        <v>2.43162E-2</v>
       </c>
       <c r="AD3">
-        <v>2.7449299999999999E-2</v>
+        <v>2.5625700000000001E-2</v>
       </c>
       <c r="AE3">
-        <v>2.5118499999999998E-2</v>
+        <v>2.3868400000000001E-2</v>
       </c>
       <c r="AF3">
-        <v>2.7071399999999999E-2</v>
+        <v>3.1811100000000002E-2</v>
       </c>
       <c r="AG3">
-        <v>2.30572E-2</v>
+        <v>6.1433200000000001</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -13073,25 +13074,28 @@
         <v>4.3591709999999999E-2</v>
       </c>
       <c r="Z4">
-        <v>2.43891E-2</v>
+        <v>2.6452E-2</v>
       </c>
       <c r="AA4">
-        <v>2.8483499999999998E-2</v>
+        <v>2.8981699999999999E-2</v>
       </c>
       <c r="AB4">
-        <v>2.76841E-2</v>
+        <v>2.69865E-2</v>
       </c>
       <c r="AC4">
-        <v>2.6224600000000001E-2</v>
+        <v>2.7874400000000001E-2</v>
+      </c>
+      <c r="AD4">
+        <v>2.7539500000000001E-2</v>
       </c>
       <c r="AE4">
-        <v>2.71138E-2</v>
+        <v>2.2632099999999999E-2</v>
       </c>
       <c r="AF4">
-        <v>2.79902E-2</v>
+        <v>3.2640000000000002E-2</v>
       </c>
       <c r="AG4">
-        <v>2.57177E-2</v>
+        <v>6.1372900000000001</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -13115,25 +13119,28 @@
         <v>3.9400369999999997E-2</v>
       </c>
       <c r="Z5">
-        <v>2.8991599999999999E-2</v>
+        <v>2.7638300000000001E-2</v>
       </c>
       <c r="AA5">
-        <v>2.6041100000000001E-2</v>
+        <v>2.5240100000000001E-2</v>
       </c>
       <c r="AB5">
-        <v>2.48548E-2</v>
+        <v>2.5638500000000002E-2</v>
       </c>
       <c r="AC5">
-        <v>2.5333399999999999E-2</v>
+        <v>2.2243300000000001E-2</v>
+      </c>
+      <c r="AD5">
+        <v>2.5050200000000002E-2</v>
       </c>
       <c r="AE5">
-        <v>2.89108E-2</v>
+        <v>2.4959100000000001E-2</v>
       </c>
       <c r="AF5">
-        <v>2.79902E-2</v>
+        <v>3.4500500000000003E-2</v>
       </c>
       <c r="AG5">
-        <v>3.3609E-2</v>
+        <v>6.1533699999999998</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -13157,25 +13164,28 @@
         <v>4.0634099999999999E-2</v>
       </c>
       <c r="Z6">
-        <v>2.8546999999999999E-2</v>
+        <v>2.7638300000000001E-2</v>
       </c>
       <c r="AA6">
-        <v>2.6856499999999998E-2</v>
+        <v>2.5240700000000001E-2</v>
       </c>
       <c r="AB6">
-        <v>2.9156499999999998E-2</v>
+        <v>2.8676400000000001E-2</v>
       </c>
       <c r="AC6">
-        <v>2.4306899999999999E-2</v>
+        <v>2.18911E-2</v>
+      </c>
+      <c r="AD6">
+        <v>2.3124200000000001E-2</v>
       </c>
       <c r="AE6">
-        <v>2.42518E-2</v>
+        <v>2.0014500000000001E-2</v>
       </c>
       <c r="AF6">
-        <v>2.6009600000000001E-2</v>
+        <v>3.4500500000000003E-2</v>
       </c>
       <c r="AG6">
-        <v>2.8070299999999999E-2</v>
+        <v>6.13436</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -13198,27 +13208,6 @@
       <c r="Y7">
         <v>3.6535140000000001E-2</v>
       </c>
-      <c r="Z7">
-        <v>2.7404399999999999E-2</v>
-      </c>
-      <c r="AA7">
-        <v>2.76963E-2</v>
-      </c>
-      <c r="AB7">
-        <v>2.92765E-2</v>
-      </c>
-      <c r="AC7">
-        <v>2.59898E-2</v>
-      </c>
-      <c r="AE7">
-        <v>3.3163100000000001E-2</v>
-      </c>
-      <c r="AF7">
-        <v>3.0710399999999999E-2</v>
-      </c>
-      <c r="AG7">
-        <v>2.3626899999999999E-2</v>
-      </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -13240,18 +13229,6 @@
       <c r="Y8">
         <v>3.9424109999999998E-2</v>
       </c>
-      <c r="Z8">
-        <v>2.7390899999999999E-2</v>
-      </c>
-      <c r="AA8">
-        <v>3.0354300000000001E-2</v>
-      </c>
-      <c r="AB8">
-        <v>2.68142E-2</v>
-      </c>
-      <c r="AC8">
-        <v>2.8063899999999999E-2</v>
-      </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -13273,18 +13250,6 @@
       <c r="Y9">
         <v>3.8635620000000002E-2</v>
       </c>
-      <c r="Z9">
-        <v>2.8489299999999999E-2</v>
-      </c>
-      <c r="AA9">
-        <v>2.7296000000000001E-2</v>
-      </c>
-      <c r="AB9">
-        <v>2.52263E-2</v>
-      </c>
-      <c r="AC9">
-        <v>2.9552999999999999E-2</v>
-      </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -13306,18 +13271,6 @@
       <c r="Y10">
         <v>1.9983440000000002E-2</v>
       </c>
-      <c r="Z10">
-        <v>2.6776999999999999E-2</v>
-      </c>
-      <c r="AA10">
-        <v>2.8030599999999999E-2</v>
-      </c>
-      <c r="AB10">
-        <v>2.8394300000000001E-2</v>
-      </c>
-      <c r="AC10">
-        <v>2.66243E-2</v>
-      </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -13339,18 +13292,6 @@
       <c r="Y11">
         <v>3.9596689999999997E-2</v>
       </c>
-      <c r="Z11">
-        <v>2.9503000000000001E-2</v>
-      </c>
-      <c r="AA11">
-        <v>2.69252E-2</v>
-      </c>
-      <c r="AB11">
-        <v>3.5244999999999999E-2</v>
-      </c>
-      <c r="AC11">
-        <v>2.6069999999999999E-2</v>
-      </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -13382,7 +13323,7 @@
         <v>-4.9999999998107114E-6</v>
       </c>
       <c r="W13" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="X13">
         <f>AVERAGE(X2:X11)</f>
@@ -13394,35 +13335,35 @@
       </c>
       <c r="Z13">
         <f>AVERAGE(Z2:Z11)</f>
-        <v>2.760663E-2</v>
+        <v>2.7003640000000002E-2</v>
       </c>
       <c r="AA13">
         <f t="shared" ref="AA13:AC13" si="1">AVERAGE(AA2:AA11)</f>
-        <v>2.7827330000000001E-2</v>
+        <v>2.8325259999999998E-2</v>
       </c>
       <c r="AB13">
         <f t="shared" si="1"/>
-        <v>2.7897570000000003E-2</v>
+        <v>2.951376E-2</v>
       </c>
       <c r="AC13">
         <f t="shared" si="1"/>
-        <v>2.6445139999999999E-2</v>
+        <v>2.4075759999999995E-2</v>
       </c>
       <c r="AD13">
-        <f t="shared" ref="AD13:AG13" si="2">AVERAGE(AD2:AD11)</f>
-        <v>2.822305E-2</v>
+        <f t="shared" ref="AD13" si="2">AVERAGE(AD2:AD11)</f>
+        <v>2.597932E-2</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="2"/>
-        <v>2.7555716666666664E-2</v>
+        <f>AVERAGE(AE2:AE6)</f>
+        <v>2.3150120000000003E-2</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="2"/>
-        <v>2.7690983333333332E-2</v>
+        <f>AVERAGE(AF2:AF6)</f>
+        <v>3.3666739999999994E-2</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="2"/>
-        <v>2.6151533333333334E-2</v>
+        <f>AVERAGE(AG2:AG6)</f>
+        <v>6.1424599999999998</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
@@ -13440,7 +13381,7 @@
         <v>-1.0000000010279564E-6</v>
       </c>
       <c r="W14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="X14">
         <f>_xlfn.STDEV.P(X2:X11)</f>
@@ -13452,35 +13393,35 @@
       </c>
       <c r="Z14">
         <f>_xlfn.STDEV.P(Z2:Z11)</f>
-        <v>1.7847424542773674E-3</v>
+        <v>8.6579300205072126E-4</v>
       </c>
       <c r="AA14">
         <f t="shared" ref="AA14:AC14" si="3">_xlfn.STDEV.P(AA2:AA11)</f>
-        <v>1.9851950584514359E-3</v>
+        <v>2.6587871803512206E-3</v>
       </c>
       <c r="AB14">
         <f t="shared" si="3"/>
-        <v>2.9185689120012222E-3</v>
+        <v>3.4761464345450122E-3</v>
       </c>
       <c r="AC14">
         <f t="shared" si="3"/>
-        <v>1.513451159568752E-3</v>
+        <v>2.1269042504071501E-3</v>
       </c>
       <c r="AD14">
-        <f t="shared" ref="AD14:AG14" si="4">_xlfn.STDEV.P(AD2:AD11)</f>
-        <v>7.7375000000000013E-4</v>
+        <f t="shared" ref="AD14" si="4">_xlfn.STDEV.P(AD2:AD11)</f>
+        <v>1.9088539550211792E-3</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="4"/>
-        <v>2.9136938122233933E-3</v>
+        <f>_xlfn.STDEV.P(AE2:AE6)</f>
+        <v>1.7411217193522112E-3</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="4"/>
-        <v>1.5406196463508507E-3</v>
+        <f>_xlfn.STDEV.P(AF2:AF6)</f>
+        <v>1.2135725056213161E-3</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="4"/>
-        <v>3.7964362089845378E-3</v>
+        <f>_xlfn.STDEV.P(AG2:AG6)</f>
+        <v>6.5476194147184993E-3</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
@@ -13498,7 +13439,7 @@
         <v>2.0000000002795559E-6</v>
       </c>
       <c r="W15" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="X15">
         <v>100</v>
@@ -13519,15 +13460,12 @@
         <v>1024</v>
       </c>
       <c r="AD15">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="AE15">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="AF15">
-        <v>8192</v>
-      </c>
-      <c r="AG15">
         <v>16384</v>
       </c>
     </row>
@@ -13546,18 +13484,18 @@
         <v>-4.9999999998107114E-6</v>
       </c>
       <c r="W16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="X16">
         <f>((X13-Z13)/X13)*100</f>
-        <v>59.018539731447376</v>
+        <v>59.913665675010009</v>
       </c>
       <c r="Y16">
         <f>((Y13-Z13)/Y13)*100</f>
-        <v>22.337543277981919</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24.033863501740107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -13572,7 +13510,7 @@
         <v>-4.0000000005591119E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3.2000000000000002E-3</v>
       </c>
@@ -13587,7 +13525,7 @@
         <v>-3.0000000000640625E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.3999999999999998E-3</v>
       </c>
@@ -13602,7 +13540,7 @@
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.5999999999999999E-3</v>
       </c>
@@ -13617,7 +13555,7 @@
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3.8E-3</v>
       </c>
@@ -13631,8 +13569,14 @@
         <f t="shared" si="0"/>
         <v>4.0000000000262048E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="W21" t="s">
+        <v>11</v>
+      </c>
+      <c r="X21" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -13646,8 +13590,14 @@
         <f t="shared" si="0"/>
         <v>-2.0000000001019203E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="W22" t="s">
+        <v>12</v>
+      </c>
+      <c r="X22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4.1999999999999997E-3</v>
       </c>
@@ -13662,7 +13612,7 @@
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4.4000000000000003E-3</v>
       </c>
@@ -13677,7 +13627,7 @@
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4.5999999999999999E-3</v>
       </c>
@@ -13692,7 +13642,7 @@
         <v>-3.0000000000640625E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4.7999999999999996E-3</v>
       </c>
@@ -13707,7 +13657,7 @@
         <v>-4.0000000000262048E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -13722,7 +13672,7 @@
         <v>-4.9999999999883471E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5.1999999999999998E-3</v>
       </c>
@@ -13737,7 +13687,7 @@
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5.4000000000000003E-3</v>
       </c>
@@ -13752,7 +13702,7 @@
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5.5999999999999999E-3</v>
       </c>
@@ -13767,7 +13717,7 @@
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5.7999999999999996E-3</v>
       </c>
@@ -13782,7 +13732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6.0000000000000001E-3</v>
       </c>

--- a/Libraries/OpenNeuronCL/PerformanceStats.xlsx
+++ b/Libraries/OpenNeuronCL/PerformanceStats.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="4560" yWindow="1305" windowWidth="11010" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="FastSpiking Phase 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Comparisons" sheetId="2" r:id="rId1"/>
+    <sheet name="FastSpiking Phase 1" sheetId="1" r:id="rId2"/>
+    <sheet name="FastSpiking Single Vm" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Time</t>
   </si>
@@ -79,6 +80,36 @@
   </si>
   <si>
     <t>OCL 2^24</t>
+  </si>
+  <si>
+    <t>Stdev</t>
+  </si>
+  <si>
+    <t>FS1 OCL 2^10</t>
+  </si>
+  <si>
+    <t>FS1 OCL 2^16</t>
+  </si>
+  <si>
+    <t>FS1 OCL 2^20</t>
+  </si>
+  <si>
+    <t>FS1 OCL 2^23</t>
+  </si>
+  <si>
+    <t>FS2 OCL 2^10</t>
+  </si>
+  <si>
+    <t>FS2 OCL 2^16</t>
+  </si>
+  <si>
+    <t>FS2 OCL 2^20</t>
+  </si>
+  <si>
+    <t>FS2 OCL 2^23</t>
+  </si>
+  <si>
+    <t>FS1-FS2 %</t>
   </si>
 </sst>
 </file>
@@ -12233,11 +12264,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100680448"/>
-        <c:axId val="100681984"/>
+        <c:axId val="96023296"/>
+        <c:axId val="96024832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100680448"/>
+        <c:axId val="96023296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12247,12 +12278,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100681984"/>
+        <c:crossAx val="96024832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100681984"/>
+        <c:axId val="96024832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12263,7 +12294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100680448"/>
+        <c:crossAx val="96023296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12471,11 +12502,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="100722944"/>
-        <c:axId val="100729216"/>
+        <c:axId val="96073984"/>
+        <c:axId val="96076160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100722944"/>
+        <c:axId val="96073984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12508,7 +12539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100729216"/>
+        <c:crossAx val="96076160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12516,7 +12547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100729216"/>
+        <c:axId val="96076160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12527,7 +12558,266 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100722944"/>
+        <c:crossAx val="96073984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'FastSpiking Single Vm'!$B$14:$J$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>9.9474631418057582E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.5449813137914027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.153950561505994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0439739774534616E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.2713260025222071E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.3517693807301246E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'FastSpiking Single Vm'!$B$14:$J$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>9.9474631418057582E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.5449813137914027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.153950561505994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0439739774534616E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.2713260025222071E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.3517693807301246E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FastSpiking Single Vm'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>V2_IGF_100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FSP_100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OCL 2^10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCL 2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OCL 2^14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OCL 2^16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OCL 2^18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>OCL 2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>OCL 2^23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OCL 2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FastSpiking Single Vm'!$B$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.736370500000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5546943999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5872959999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7087979999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7595339999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4541420000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="39283328"/>
+        <c:axId val="39293696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="39283328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AnimatLab</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> 100 Neurons Comparison with OPenCL</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39293696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39293696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39283328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12601,6 +12891,43 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12896,10 +13223,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <f>'FastSpiking Phase 1'!X13</f>
+        <v>6.736370500000001E-2</v>
+      </c>
+      <c r="C2">
+        <f>'FastSpiking Phase 1'!X14</f>
+        <v>9.9474631418057582E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <f>'FastSpiking Phase 1'!Y13</f>
+        <v>3.5546943999999997E-2</v>
+      </c>
+      <c r="C3">
+        <f>'FastSpiking Phase 1'!Y14</f>
+        <v>8.5449813137914027E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <f>'FastSpiking Phase 1'!Z13</f>
+        <v>2.7003640000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <f>'FastSpiking Phase 1'!AC13</f>
+        <v>2.4075759999999995E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <f>'FastSpiking Phase 1'!AE13</f>
+        <v>2.3150120000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <f>'FastSpiking Phase 1'!AF13</f>
+        <v>3.3666739999999994E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <f>'FastSpiking Single Vm'!D13</f>
+        <v>1.5872959999999998E-2</v>
+      </c>
+      <c r="O10">
+        <f>((B5-B10)/B5)*100</f>
+        <v>41.219183784112076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <f>'FastSpiking Single Vm'!G13</f>
+        <v>1.7087979999999999E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O13" si="0">((B6-B11)/B6)*100</f>
+        <v>29.024130494738266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <f>'FastSpiking Single Vm'!I13</f>
+        <v>1.7595339999999998E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>23.994605643512884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <f>'FastSpiking Single Vm'!J13</f>
+        <v>3.4541420000000003E-2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>-2.5980537468136502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U7" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28288,19 +28758,361 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>7.2041859999999999E-2</v>
+      </c>
+      <c r="C2">
+        <v>4.0023969999999999E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.6894599999999999E-2</v>
+      </c>
+      <c r="G2">
+        <v>1.66572E-2</v>
+      </c>
+      <c r="I2">
+        <v>1.7504100000000002E-2</v>
+      </c>
+      <c r="J2">
+        <v>3.4194700000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>5.2445930000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>1.764429E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.7364299999999999E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.8242600000000001E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.6397999999999999E-2</v>
+      </c>
+      <c r="J3">
+        <v>3.58686E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>7.4952640000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.3591709999999999E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.47408E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.5493399999999999E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.7299499999999999E-2</v>
+      </c>
+      <c r="J4">
+        <v>3.5006299999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>7.2751430000000006E-2</v>
+      </c>
+      <c r="C5">
+        <v>3.9400369999999997E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.4422600000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.6813100000000001E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.7823599999999998E-2</v>
+      </c>
+      <c r="J5">
+        <v>3.8968000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>7.2371619999999998E-2</v>
+      </c>
+      <c r="C6">
+        <v>4.0634099999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.5942499999999998E-2</v>
+      </c>
+      <c r="G6">
+        <v>1.8233599999999999E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.89515E-2</v>
+      </c>
+      <c r="J6">
+        <v>2.8669500000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>7.2689199999999995E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.6535140000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4.8488759999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.9424109999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7.4415010000000004E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.8635620000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5.6783550000000002E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.9983440000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7.6697050000000003E-2</v>
+      </c>
+      <c r="C11">
+        <v>3.9596689999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(B2:B11)</f>
+        <v>6.736370500000001E-2</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(C2:C11)</f>
+        <v>3.5546943999999997E-2</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(D2:D11)</f>
+        <v>1.5872959999999998E-2</v>
+      </c>
+      <c r="E13" t="e">
+        <f t="shared" ref="E13:H13" si="0">AVERAGE(E2:E11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1.7087979999999999E-2</v>
+      </c>
+      <c r="H13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGE(I2:I6)</f>
+        <v>1.7595339999999998E-2</v>
+      </c>
+      <c r="J13">
+        <f>AVERAGE(J2:J6)</f>
+        <v>3.4541420000000003E-2</v>
+      </c>
+      <c r="K13" t="e">
+        <f>AVERAGE(K2:K6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <f>_xlfn.STDEV.P(B2:B11)</f>
+        <v>9.9474631418057582E-3</v>
+      </c>
+      <c r="C14">
+        <f>_xlfn.STDEV.P(C2:C11)</f>
+        <v>8.5449813137914027E-3</v>
+      </c>
+      <c r="D14">
+        <f>_xlfn.STDEV.P(D2:D11)</f>
+        <v>1.153950561505994E-3</v>
+      </c>
+      <c r="E14" t="e">
+        <f t="shared" ref="E14:H14" si="1">_xlfn.STDEV.P(E2:E11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1.0439739774534616E-3</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14">
+        <f>_xlfn.STDEV.P(I2:I6)</f>
+        <v>8.2713260025222071E-4</v>
+      </c>
+      <c r="J14">
+        <f>_xlfn.STDEV.P(J2:J6)</f>
+        <v>3.3517693807301246E-3</v>
+      </c>
+      <c r="K14" t="e">
+        <f>_xlfn.STDEV.P(K2:K6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>256</v>
+      </c>
+      <c r="F15">
+        <v>512</v>
+      </c>
+      <c r="G15">
+        <v>1024</v>
+      </c>
+      <c r="H15">
+        <v>4096</v>
+      </c>
+      <c r="I15">
+        <v>8192</v>
+      </c>
+      <c r="J15">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <f>((B13-D13)/B13)*100</f>
+        <v>76.436925492741238</v>
+      </c>
+      <c r="C16">
+        <f>((C13-D13)/C13)*100</f>
+        <v>55.346484918647299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Libraries/OpenNeuronCL/PerformanceStats.xlsx
+++ b/Libraries/OpenNeuronCL/PerformanceStats.xlsx
@@ -10,14 +10,15 @@
     <sheet name="Comparisons" sheetId="2" r:id="rId1"/>
     <sheet name="FastSpiking Phase 1" sheetId="1" r:id="rId2"/>
     <sheet name="FastSpiking Single Vm" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="FastSpiking ThreeFry Random Num" sheetId="5" r:id="rId4"/>
+    <sheet name="FastSpiking Philox Random " sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
   <si>
     <t>Time</t>
   </si>
@@ -111,6 +112,18 @@
   <si>
     <t>FS1-FS2 %</t>
   </si>
+  <si>
+    <t>Fast spiking phase 1</t>
+  </si>
+  <si>
+    <t>Fast Spiking Single Vm</t>
+  </si>
+  <si>
+    <t>Fast Spiking Threefry Random</t>
+  </si>
+  <si>
+    <t>Fast Spiking Philox Random</t>
+  </si>
 </sst>
 </file>
 
@@ -12264,11 +12277,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96023296"/>
-        <c:axId val="96024832"/>
+        <c:axId val="103904384"/>
+        <c:axId val="103905920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96023296"/>
+        <c:axId val="103904384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12278,12 +12291,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96024832"/>
+        <c:crossAx val="103905920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96024832"/>
+        <c:axId val="103905920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12294,14 +12307,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96023296"/>
+        <c:crossAx val="103904384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12502,11 +12514,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="96073984"/>
-        <c:axId val="96076160"/>
+        <c:axId val="104307328"/>
+        <c:axId val="104313600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96073984"/>
+        <c:axId val="104307328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12533,13 +12545,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96076160"/>
+        <c:crossAx val="104313600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12547,7 +12558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96076160"/>
+        <c:axId val="104313600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12558,7 +12569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96073984"/>
+        <c:crossAx val="104307328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12761,11 +12772,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="39283328"/>
-        <c:axId val="39293696"/>
+        <c:axId val="104149760"/>
+        <c:axId val="104151680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39283328"/>
+        <c:axId val="104149760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12798,7 +12809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39293696"/>
+        <c:crossAx val="104151680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12806,7 +12817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39293696"/>
+        <c:axId val="104151680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12817,7 +12828,525 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39283328"/>
+        <c:crossAx val="104149760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'FastSpiking ThreeFry Random Num'!$B$14:$J$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>9.9474631418057582E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.5449813137914027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.4757330414407615E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.9347408839813764E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.6261718603320678E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.3044961490980556E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'FastSpiking ThreeFry Random Num'!$B$14:$J$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>9.9474631418057582E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.5449813137914027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.4757330414407615E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.9347408839813764E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.6261718603320678E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.3044961490980556E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FastSpiking ThreeFry Random Num'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>V2_IGF_100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FSP_100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OCL 2^10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCL 2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OCL 2^14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OCL 2^16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OCL 2^18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>OCL 2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>OCL 2^23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OCL 2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FastSpiking ThreeFry Random Num'!$B$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.736370500000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5546943999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4799619999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.425392E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1926639999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6706219999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="41153664"/>
+        <c:axId val="41155584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="41153664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AnimatLab</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> 100 Neurons Comparison with OPenCL</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41155584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="41155584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41153664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'FastSpiking Philox Random '!$B$14:$J$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>9.9474631418057582E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.5449813137914027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.8065069527682426E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.408038093854539E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.1233860110236399E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.3468811069732137E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'FastSpiking Philox Random '!$B$14:$J$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>9.9474631418057582E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.5449813137914027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.8065069527682426E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.408038093854539E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.1233860110236399E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.3468811069732137E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FastSpiking Philox Random '!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>V2_IGF_100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FSP_100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OCL 2^10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCL 2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OCL 2^14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OCL 2^16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OCL 2^18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>OCL 2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>OCL 2^23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OCL 2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FastSpiking Philox Random '!$B$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.736370500000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5546943999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.512374E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.35409E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2524159999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3581599999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="37876096"/>
+        <c:axId val="37878016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="37876096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AnimatLab</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> 100 Neurons Comparison with OPenCL</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="37878016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="37878016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="37876096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12917,6 +13446,80 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13223,10 +13826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13234,18 +13837,18 @@
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -13258,7 +13861,7 @@
         <v>9.9474631418057582E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -13271,92 +13874,216 @@
         <v>8.5449813137914027E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <f>'FastSpiking Phase 1'!Z13</f>
         <v>2.7003640000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f>'FastSpiking Phase 1'!AC13</f>
         <v>2.4075759999999995E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f>'FastSpiking Phase 1'!AE13</f>
         <v>2.3150120000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f>'FastSpiking Phase 1'!AF13</f>
         <v>3.3666739999999994E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <f>'FastSpiking Single Vm'!D13</f>
         <v>1.5872959999999998E-2</v>
       </c>
-      <c r="O10">
-        <f>((B5-B10)/B5)*100</f>
+      <c r="F12">
+        <f>(($B$6-B12)/$B$6)*100</f>
         <v>41.219183784112076</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <f>'FastSpiking Single Vm'!G13</f>
         <v>1.7087979999999999E-2</v>
       </c>
-      <c r="O11">
-        <f t="shared" ref="O11:O13" si="0">((B6-B11)/B6)*100</f>
+      <c r="F13">
+        <f>(($B$7-B13)/$B$7)*100</f>
         <v>29.024130494738266</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <f>'FastSpiking Single Vm'!I13</f>
         <v>1.7595339999999998E-2</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
+      <c r="F14">
+        <f>(($B$8-B14)/$B$8)*100</f>
         <v>23.994605643512884</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <f>'FastSpiking Single Vm'!J13</f>
         <v>3.4541420000000003E-2</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
+      <c r="F15">
+        <f>(($B$9-B15)/$B$9)*100</f>
         <v>-2.5980537468136502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <f>'FastSpiking ThreeFry Random Num'!D13</f>
+        <v>1.4799619999999999E-2</v>
+      </c>
+      <c r="F18">
+        <f>(($B$6-B18)/$B$6)*100</f>
+        <v>45.193981255860329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <f>'FastSpiking ThreeFry Random Num'!G13</f>
+        <v>1.425392E-2</v>
+      </c>
+      <c r="F19">
+        <f>(($B$7-B19)/$B$7)*100</f>
+        <v>40.795555363568987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <f>'FastSpiking ThreeFry Random Num'!I13</f>
+        <v>1.1926639999999999E-2</v>
+      </c>
+      <c r="F20">
+        <f>(($B$8-B20)/$B$8)*100</f>
+        <v>48.481303768619789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <f>'FastSpiking ThreeFry Random Num'!J13</f>
+        <v>2.6706219999999996E-2</v>
+      </c>
+      <c r="F21">
+        <f>(($B$9-B21)/$B$9)*100</f>
+        <v>20.674766847042509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <f>'FastSpiking Philox Random '!D13</f>
+        <v>1.512374E-2</v>
+      </c>
+      <c r="F24">
+        <f>(($B$6-B24)/$B$6)*100</f>
+        <v>43.993698627296176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <f>'FastSpiking Philox Random '!G13</f>
+        <v>1.35409E-2</v>
+      </c>
+      <c r="F25">
+        <f>(($B$7-B25)/$B$7)*100</f>
+        <v>43.757123347300343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <f>'FastSpiking Philox Random '!I13</f>
+        <v>1.2524159999999998E-2</v>
+      </c>
+      <c r="F26">
+        <f>(($B$8-B26)/$B$8)*100</f>
+        <v>45.900237234191458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <f>'FastSpiking Philox Random '!J13</f>
+        <v>2.3581599999999998E-2</v>
+      </c>
+      <c r="F27">
+        <f>(($B$9-B27)/$B$9)*100</f>
+        <v>29.955796135889599</v>
       </c>
     </row>
   </sheetData>
@@ -29114,12 +29841,702 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>7.2041859999999999E-2</v>
+      </c>
+      <c r="C2">
+        <v>4.0023969999999999E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.44926E-2</v>
+      </c>
+      <c r="G2">
+        <v>1.5013500000000001E-2</v>
+      </c>
+      <c r="I2">
+        <v>1.21952E-2</v>
+      </c>
+      <c r="J2">
+        <v>2.27493E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>5.2445930000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>1.764429E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.3081199999999999E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.4817200000000001E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.16223E-2</v>
+      </c>
+      <c r="J3">
+        <v>3.0997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>7.4952640000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.3591709999999999E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.75354E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.34436E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.15934E-2</v>
+      </c>
+      <c r="J4">
+        <v>3.2831199999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>7.2751430000000006E-2</v>
+      </c>
+      <c r="C5">
+        <v>3.9400369999999997E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.4673500000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.37991E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.2133E-2</v>
+      </c>
+      <c r="J5">
+        <v>2.37944E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>7.2371619999999998E-2</v>
+      </c>
+      <c r="C6">
+        <v>4.0634099999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.42154E-2</v>
+      </c>
+      <c r="G6">
+        <v>1.4196200000000001E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.2089300000000001E-2</v>
+      </c>
+      <c r="J6">
+        <v>2.3159200000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>7.2689199999999995E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.6535140000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4.8488759999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.9424109999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7.4415010000000004E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.8635620000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5.6783550000000002E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.9983440000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7.6697050000000003E-2</v>
+      </c>
+      <c r="C11">
+        <v>3.9596689999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(B2:B11)</f>
+        <v>6.736370500000001E-2</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(C2:C11)</f>
+        <v>3.5546943999999997E-2</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(D2:D11)</f>
+        <v>1.4799619999999999E-2</v>
+      </c>
+      <c r="E13" t="e">
+        <f t="shared" ref="E13:H13" si="0">AVERAGE(E2:E11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1.425392E-2</v>
+      </c>
+      <c r="H13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGE(I2:I6)</f>
+        <v>1.1926639999999999E-2</v>
+      </c>
+      <c r="J13">
+        <f>AVERAGE(J2:J6)</f>
+        <v>2.6706219999999996E-2</v>
+      </c>
+      <c r="K13" t="e">
+        <f>AVERAGE(K2:K6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <f>_xlfn.STDEV.P(B2:B11)</f>
+        <v>9.9474631418057582E-3</v>
+      </c>
+      <c r="C14">
+        <f>_xlfn.STDEV.P(C2:C11)</f>
+        <v>8.5449813137914027E-3</v>
+      </c>
+      <c r="D14">
+        <f>_xlfn.STDEV.P(D2:D11)</f>
+        <v>1.4757330414407615E-3</v>
+      </c>
+      <c r="E14" t="e">
+        <f t="shared" ref="E14:H14" si="1">_xlfn.STDEV.P(E2:E11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>5.9347408839813764E-4</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14">
+        <f>_xlfn.STDEV.P(I2:I6)</f>
+        <v>2.6261718603320678E-4</v>
+      </c>
+      <c r="J14">
+        <f>_xlfn.STDEV.P(J2:J6)</f>
+        <v>4.3044961490980556E-3</v>
+      </c>
+      <c r="K14" t="e">
+        <f>_xlfn.STDEV.P(K2:K6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>256</v>
+      </c>
+      <c r="F15">
+        <v>512</v>
+      </c>
+      <c r="G15">
+        <v>1024</v>
+      </c>
+      <c r="H15">
+        <v>4096</v>
+      </c>
+      <c r="I15">
+        <v>8192</v>
+      </c>
+      <c r="J15">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <f>((B13-D13)/B13)*100</f>
+        <v>78.030276096007483</v>
+      </c>
+      <c r="C16">
+        <f>((C13-D13)/C13)*100</f>
+        <v>58.365984991564957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>7.2041859999999999E-2</v>
+      </c>
+      <c r="C2">
+        <v>4.0023969999999999E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.44926E-2</v>
+      </c>
+      <c r="G2">
+        <v>1.40307E-2</v>
+      </c>
+      <c r="I2">
+        <v>1.34699E-2</v>
+      </c>
+      <c r="J2">
+        <v>2.4549499999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>5.2445930000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>1.764429E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.4234699999999999E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.24133E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.2516599999999999E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.3424799999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>7.4952640000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.3591709999999999E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.8427200000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.3573200000000001E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.1624199999999999E-2</v>
+      </c>
+      <c r="J4">
+        <v>2.2770499999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>7.2751430000000006E-2</v>
+      </c>
+      <c r="C5">
+        <v>3.9400369999999997E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.53779E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.31197E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.27963E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>7.2371619999999998E-2</v>
+      </c>
+      <c r="C6">
+        <v>4.0634099999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.30863E-2</v>
+      </c>
+      <c r="G6">
+        <v>1.45676E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.22138E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>7.2689199999999995E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.6535140000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4.8488759999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.9424109999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7.4415010000000004E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.8635620000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5.6783550000000002E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.9983440000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7.6697050000000003E-2</v>
+      </c>
+      <c r="C11">
+        <v>3.9596689999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(B2:B11)</f>
+        <v>6.736370500000001E-2</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(C2:C11)</f>
+        <v>3.5546943999999997E-2</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(D2:D11)</f>
+        <v>1.512374E-2</v>
+      </c>
+      <c r="E13" t="e">
+        <f t="shared" ref="E13:H13" si="0">AVERAGE(E2:E11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1.35409E-2</v>
+      </c>
+      <c r="H13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGE(I2:I6)</f>
+        <v>1.2524159999999998E-2</v>
+      </c>
+      <c r="J13">
+        <f>AVERAGE(J2:J6)</f>
+        <v>2.3581599999999998E-2</v>
+      </c>
+      <c r="K13" t="e">
+        <f>AVERAGE(K2:K6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <f>_xlfn.STDEV.P(B2:B11)</f>
+        <v>9.9474631418057582E-3</v>
+      </c>
+      <c r="C14">
+        <f>_xlfn.STDEV.P(C2:C11)</f>
+        <v>8.5449813137914027E-3</v>
+      </c>
+      <c r="D14">
+        <f>_xlfn.STDEV.P(D2:D11)</f>
+        <v>1.8065069527682426E-3</v>
+      </c>
+      <c r="E14" t="e">
+        <f t="shared" ref="E14:H14" si="1">_xlfn.STDEV.P(E2:E11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>7.408038093854539E-4</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14">
+        <f>_xlfn.STDEV.P(I2:I6)</f>
+        <v>6.1233860110236399E-4</v>
+      </c>
+      <c r="J14">
+        <f>_xlfn.STDEV.P(J2:J6)</f>
+        <v>7.3468811069732137E-4</v>
+      </c>
+      <c r="K14" t="e">
+        <f>_xlfn.STDEV.P(K2:K6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>256</v>
+      </c>
+      <c r="F15">
+        <v>512</v>
+      </c>
+      <c r="G15">
+        <v>1024</v>
+      </c>
+      <c r="H15">
+        <v>4096</v>
+      </c>
+      <c r="I15">
+        <v>8192</v>
+      </c>
+      <c r="J15">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <f>((B13-D13)/B13)*100</f>
+        <v>77.549126788676489</v>
+      </c>
+      <c r="C16">
+        <f>((C13-D13)/C13)*100</f>
+        <v>57.454176651585009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Libraries/OpenNeuronCL/PerformanceStats.xlsx
+++ b/Libraries/OpenNeuronCL/PerformanceStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1305" windowWidth="11010" windowHeight="11760"/>
+    <workbookView xWindow="4560" yWindow="1305" windowWidth="11010" windowHeight="11760" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Comparisons" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="FastSpiking Single Vm" sheetId="4" r:id="rId3"/>
     <sheet name="FastSpiking ThreeFry Random Num" sheetId="5" r:id="rId4"/>
     <sheet name="FastSpiking Philox Random " sheetId="6" r:id="rId5"/>
+    <sheet name="Synapse Iin consolidation" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
   <si>
     <t>Time</t>
   </si>
@@ -124,11 +127,51 @@
   <si>
     <t>Fast Spiking Philox Random</t>
   </si>
+  <si>
+    <t>Atomic float add (10 synapses per neuron)</t>
+  </si>
+  <si>
+    <t>nanoseconds</t>
+  </si>
+  <si>
+    <t>Just setting Iin to value directly</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Summing from neuron</t>
+  </si>
+  <si>
+    <t>Summing from neuron strided</t>
+  </si>
+  <si>
+    <t>Neuron Size</t>
+  </si>
+  <si>
+    <t>Synapse Size</t>
+  </si>
+  <si>
+    <t>Total global Memory</t>
+  </si>
+  <si>
+    <t>Total Neuron Memory</t>
+  </si>
+  <si>
+    <t>Left over memory</t>
+  </si>
+  <si>
+    <t>Numer of synapses</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,9 +201,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12277,11 +12325,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103904384"/>
-        <c:axId val="103905920"/>
+        <c:axId val="52558464"/>
+        <c:axId val="50991488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103904384"/>
+        <c:axId val="52558464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12291,12 +12339,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103905920"/>
+        <c:crossAx val="50991488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103905920"/>
+        <c:axId val="50991488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12307,7 +12355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103904384"/>
+        <c:crossAx val="52558464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12514,11 +12562,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104307328"/>
-        <c:axId val="104313600"/>
+        <c:axId val="51016064"/>
+        <c:axId val="51017984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104307328"/>
+        <c:axId val="51016064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12550,7 +12598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104313600"/>
+        <c:crossAx val="51017984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12558,7 +12606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104313600"/>
+        <c:axId val="51017984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12569,7 +12617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104307328"/>
+        <c:crossAx val="51016064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12772,11 +12820,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104149760"/>
-        <c:axId val="104151680"/>
+        <c:axId val="51050752"/>
+        <c:axId val="52691328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104149760"/>
+        <c:axId val="51050752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12803,13 +12851,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104151680"/>
+        <c:crossAx val="52691328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12817,7 +12864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104151680"/>
+        <c:axId val="52691328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12828,7 +12875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104149760"/>
+        <c:crossAx val="51050752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13031,11 +13078,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41153664"/>
-        <c:axId val="41155584"/>
+        <c:axId val="52748672"/>
+        <c:axId val="52750592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41153664"/>
+        <c:axId val="52748672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13062,13 +13109,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41155584"/>
+        <c:crossAx val="52750592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13076,7 +13122,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41155584"/>
+        <c:axId val="52750592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13087,7 +13133,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41153664"/>
+        <c:crossAx val="52748672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13290,11 +13336,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="37876096"/>
-        <c:axId val="37878016"/>
+        <c:axId val="53186560"/>
+        <c:axId val="53188480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37876096"/>
+        <c:axId val="53186560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13321,13 +13367,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37878016"/>
+        <c:crossAx val="53188480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13335,7 +13380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37878016"/>
+        <c:axId val="53188480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13346,7 +13391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37876096"/>
+        <c:crossAx val="53186560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13828,8 +13873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14095,7 +14140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ1001"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
@@ -14523,19 +14568,19 @@
         <v>5</v>
       </c>
       <c r="X13">
-        <f>AVERAGE(X2:X11)</f>
+        <f t="shared" ref="X13:AD13" si="1">AVERAGE(X2:X11)</f>
         <v>6.736370500000001E-2</v>
       </c>
       <c r="Y13">
-        <f>AVERAGE(Y2:Y11)</f>
+        <f t="shared" si="1"/>
         <v>3.5546943999999997E-2</v>
       </c>
       <c r="Z13">
-        <f>AVERAGE(Z2:Z11)</f>
+        <f t="shared" si="1"/>
         <v>2.7003640000000002E-2</v>
       </c>
       <c r="AA13">
-        <f t="shared" ref="AA13:AC13" si="1">AVERAGE(AA2:AA11)</f>
+        <f t="shared" si="1"/>
         <v>2.8325259999999998E-2</v>
       </c>
       <c r="AB13">
@@ -14547,7 +14592,7 @@
         <v>2.4075759999999995E-2</v>
       </c>
       <c r="AD13">
-        <f t="shared" ref="AD13" si="2">AVERAGE(AD2:AD11)</f>
+        <f t="shared" si="1"/>
         <v>2.597932E-2</v>
       </c>
       <c r="AE13">
@@ -14581,31 +14626,31 @@
         <v>6</v>
       </c>
       <c r="X14">
-        <f>_xlfn.STDEV.P(X2:X11)</f>
+        <f t="shared" ref="X14:AD14" si="2">_xlfn.STDEV.P(X2:X11)</f>
         <v>9.9474631418057582E-3</v>
       </c>
       <c r="Y14">
-        <f>_xlfn.STDEV.P(Y2:Y11)</f>
+        <f t="shared" si="2"/>
         <v>8.5449813137914027E-3</v>
       </c>
       <c r="Z14">
-        <f>_xlfn.STDEV.P(Z2:Z11)</f>
+        <f t="shared" si="2"/>
         <v>8.6579300205072126E-4</v>
       </c>
       <c r="AA14">
-        <f t="shared" ref="AA14:AC14" si="3">_xlfn.STDEV.P(AA2:AA11)</f>
+        <f t="shared" si="2"/>
         <v>2.6587871803512206E-3</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.4761464345450122E-3</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.1269042504071501E-3</v>
       </c>
       <c r="AD14">
-        <f t="shared" ref="AD14" si="4">_xlfn.STDEV.P(AD2:AD11)</f>
+        <f t="shared" si="2"/>
         <v>1.9088539550211792E-3</v>
       </c>
       <c r="AE14">
@@ -15465,7 +15510,7 @@
         <v>18.9467</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="5">C67-B67</f>
+        <f t="shared" ref="D67:D130" si="3">C67-B67</f>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -15480,7 +15525,7 @@
         <v>19.003799999999998</v>
       </c>
       <c r="D68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -15495,7 +15540,7 @@
         <v>19.058599999999998</v>
       </c>
       <c r="D69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000002795559E-5</v>
       </c>
     </row>
@@ -15510,7 +15555,7 @@
         <v>19.1113</v>
       </c>
       <c r="D70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -15525,7 +15570,7 @@
         <v>19.161999999999999</v>
       </c>
       <c r="D71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.9999999998107114E-5</v>
       </c>
     </row>
@@ -15540,7 +15585,7 @@
         <v>19.210599999999999</v>
       </c>
       <c r="D72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15555,7 +15600,7 @@
         <v>19.257400000000001</v>
       </c>
       <c r="D73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.0000000001281251E-5</v>
       </c>
     </row>
@@ -15570,7 +15615,7 @@
         <v>19.302299999999999</v>
       </c>
       <c r="D74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.9999999998107114E-5</v>
       </c>
     </row>
@@ -15585,7 +15630,7 @@
         <v>19.345400000000001</v>
       </c>
       <c r="D75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.0000000003174137E-5</v>
       </c>
     </row>
@@ -15600,7 +15645,7 @@
         <v>19.386900000000001</v>
       </c>
       <c r="D76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.0000000001659828E-5</v>
       </c>
     </row>
@@ -15615,7 +15660,7 @@
         <v>19.4267</v>
       </c>
       <c r="D77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -15630,7 +15675,7 @@
         <v>19.465</v>
       </c>
       <c r="D78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.0000000001281251E-5</v>
       </c>
     </row>
@@ -15645,7 +15690,7 @@
         <v>19.5017</v>
       </c>
       <c r="D79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -15660,7 +15705,7 @@
         <v>19.537099999999999</v>
       </c>
       <c r="D80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.9999999997728537E-5</v>
       </c>
     </row>
@@ -15675,7 +15720,7 @@
         <v>19.571000000000002</v>
       </c>
       <c r="D81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.0000000002795559E-5</v>
       </c>
     </row>
@@ -15690,7 +15735,7 @@
         <v>19.6036</v>
       </c>
       <c r="D82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -15705,7 +15750,7 @@
         <v>19.634899999999998</v>
       </c>
       <c r="D83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000002795559E-5</v>
       </c>
     </row>
@@ -15720,7 +15765,7 @@
         <v>19.664999999999999</v>
       </c>
       <c r="D84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -15735,7 +15780,7 @@
         <v>19.693999999999999</v>
       </c>
       <c r="D85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.9999999997728537E-5</v>
       </c>
     </row>
@@ -15750,7 +15795,7 @@
         <v>19.721699999999998</v>
       </c>
       <c r="D86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-3.0000000002416982E-5</v>
       </c>
     </row>
@@ -15765,7 +15810,7 @@
         <v>19.7484</v>
       </c>
       <c r="D87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -15780,7 +15825,7 @@
         <v>19.774100000000001</v>
       </c>
       <c r="D88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -15795,7 +15840,7 @@
         <v>19.7987</v>
       </c>
       <c r="D89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -15810,7 +15855,7 @@
         <v>19.822399999999998</v>
       </c>
       <c r="D90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15825,7 +15870,7 @@
         <v>19.845199999999998</v>
       </c>
       <c r="D91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -15840,7 +15885,7 @@
         <v>19.867000000000001</v>
       </c>
       <c r="D92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -15855,7 +15900,7 @@
         <v>19.888000000000002</v>
       </c>
       <c r="D93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -15870,7 +15915,7 @@
         <v>19.908200000000001</v>
       </c>
       <c r="D94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -15885,7 +15930,7 @@
         <v>19.927600000000002</v>
       </c>
       <c r="D95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.0000000002795559E-5</v>
       </c>
     </row>
@@ -15900,7 +15945,7 @@
         <v>19.946200000000001</v>
       </c>
       <c r="D96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -15915,7 +15960,7 @@
         <v>19.964099999999998</v>
       </c>
       <c r="D97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15930,7 +15975,7 @@
         <v>19.981300000000001</v>
       </c>
       <c r="D98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15945,7 +15990,7 @@
         <v>19.997800000000002</v>
       </c>
       <c r="D99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -15960,7 +16005,7 @@
         <v>20.0137</v>
       </c>
       <c r="D100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -15975,7 +16020,7 @@
         <v>17.601800000000001</v>
       </c>
       <c r="D101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -15990,7 +16035,7 @@
         <v>15.4411</v>
       </c>
       <c r="D102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.0000000000262048E-5</v>
       </c>
     </row>
@@ -16005,7 +16050,7 @@
         <v>13.5115</v>
       </c>
       <c r="D103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.9999999999883471E-5</v>
       </c>
     </row>
@@ -16020,7 +16065,7 @@
         <v>11.794499999999999</v>
       </c>
       <c r="D104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-1.000000000139778E-5</v>
       </c>
     </row>
@@ -16035,7 +16080,7 @@
         <v>10.273099999999999</v>
       </c>
       <c r="D105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.9999999999504894E-5</v>
       </c>
     </row>
@@ -16050,7 +16095,7 @@
         <v>8.9311299999999996</v>
       </c>
       <c r="D106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.4999999999432134E-5</v>
       </c>
     </row>
@@ -16065,7 +16110,7 @@
         <v>7.7539899999999999</v>
       </c>
       <c r="D107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.699999999971169E-5</v>
       </c>
     </row>
@@ -16080,7 +16125,7 @@
         <v>6.7279299999999997</v>
       </c>
       <c r="D108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.4999999999432134E-5</v>
       </c>
     </row>
@@ -16095,7 +16140,7 @@
         <v>5.8402599999999998</v>
       </c>
       <c r="D109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.0999999999761201E-5</v>
       </c>
     </row>
@@ -16110,7 +16155,7 @@
         <v>5.0792299999999999</v>
       </c>
       <c r="D110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.3000000000040757E-5</v>
       </c>
     </row>
@@ -16125,7 +16170,7 @@
         <v>4.4339500000000003</v>
       </c>
       <c r="D111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.7000000000599869E-5</v>
       </c>
     </row>
@@ -16140,7 +16185,7 @@
         <v>3.8943300000000001</v>
       </c>
       <c r="D112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.3000000000040757E-5</v>
       </c>
     </row>
@@ -16155,7 +16200,7 @@
         <v>3.45105</v>
       </c>
       <c r="D113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.0000000000902673E-6</v>
       </c>
     </row>
@@ -16170,7 +16215,7 @@
         <v>3.0954899999999999</v>
       </c>
       <c r="D114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.9999999999504894E-6</v>
       </c>
     </row>
@@ -16185,7 +16230,7 @@
         <v>2.81968</v>
       </c>
       <c r="D115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.4000000000180535E-5</v>
       </c>
     </row>
@@ -16200,7 +16245,7 @@
         <v>2.6162299999999998</v>
       </c>
       <c r="D116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.3000000000040757E-5</v>
       </c>
     </row>
@@ -16215,7 +16260,7 @@
         <v>2.4783400000000002</v>
       </c>
       <c r="D117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.0000000003698233E-6</v>
       </c>
     </row>
@@ -16230,7 +16275,7 @@
         <v>2.3997299999999999</v>
       </c>
       <c r="D118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.0000000000902673E-6</v>
       </c>
     </row>
@@ -16245,7 +16290,7 @@
         <v>2.3746</v>
       </c>
       <c r="D119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.0000000000902673E-6</v>
       </c>
     </row>
@@ -16260,7 +16305,7 @@
         <v>2.3976000000000002</v>
       </c>
       <c r="D120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.0000000001150227E-6</v>
       </c>
     </row>
@@ -16275,7 +16320,7 @@
         <v>2.4638100000000001</v>
       </c>
       <c r="D121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.0000000000902673E-6</v>
       </c>
     </row>
@@ -16290,7 +16335,7 @@
         <v>2.5686800000000001</v>
       </c>
       <c r="D122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.0000000002548006E-6</v>
       </c>
     </row>
@@ -16305,7 +16350,7 @@
         <v>2.70804</v>
       </c>
       <c r="D123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.0000000001150227E-6</v>
       </c>
     </row>
@@ -16320,7 +16365,7 @@
         <v>2.87805</v>
       </c>
       <c r="D124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.0000000000902673E-6</v>
       </c>
     </row>
@@ -16335,7 +16380,7 @@
         <v>3.07517</v>
       </c>
       <c r="D125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.0000000001150227E-6</v>
       </c>
     </row>
@@ -16350,7 +16395,7 @@
         <v>3.29617</v>
       </c>
       <c r="D126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.0000000000902673E-6</v>
       </c>
     </row>
@@ -16365,7 +16410,7 @@
         <v>3.5380600000000002</v>
       </c>
       <c r="D127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.000000000139778E-6</v>
       </c>
     </row>
@@ -16380,7 +16425,7 @@
         <v>3.79813</v>
       </c>
       <c r="D128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16395,7 +16440,7 @@
         <v>4.0738799999999999</v>
       </c>
       <c r="D129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.9999999995311555E-6</v>
       </c>
     </row>
@@ -16410,7 +16455,7 @@
         <v>4.3630199999999997</v>
       </c>
       <c r="D130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.9999999925159955E-7</v>
       </c>
     </row>
@@ -16425,7 +16470,7 @@
         <v>4.6634700000000002</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="6">C131-B131</f>
+        <f t="shared" ref="D131:D194" si="4">C131-B131</f>
         <v>4.0000000005591119E-6</v>
       </c>
     </row>
@@ -16440,7 +16485,7 @@
         <v>4.9733200000000002</v>
       </c>
       <c r="D132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.0000000002795559E-6</v>
       </c>
     </row>
@@ -16455,7 +16500,7 @@
         <v>5.2908400000000002</v>
       </c>
       <c r="D133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.000000000139778E-6</v>
       </c>
     </row>
@@ -16470,7 +16515,7 @@
         <v>5.6144499999999997</v>
       </c>
       <c r="D134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.000000000139778E-6</v>
       </c>
     </row>
@@ -16485,7 +16530,7 @@
         <v>5.9427199999999996</v>
       </c>
       <c r="D135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.9999999998107114E-6</v>
       </c>
     </row>
@@ -16500,7 +16545,7 @@
         <v>6.2743399999999996</v>
       </c>
       <c r="D136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.9999999998107114E-6</v>
       </c>
     </row>
@@ -16515,7 +16560,7 @@
         <v>6.6081300000000001</v>
       </c>
       <c r="D137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-1.000000000139778E-6</v>
       </c>
     </row>
@@ -16530,7 +16575,7 @@
         <v>6.9430399999999999</v>
       </c>
       <c r="D138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.000000000139778E-6</v>
       </c>
     </row>
@@ -16545,7 +16590,7 @@
         <v>7.2781000000000002</v>
       </c>
       <c r="D139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16560,7 +16605,7 @@
         <v>7.6124499999999999</v>
       </c>
       <c r="D140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16575,7 +16620,7 @@
         <v>7.9453199999999997</v>
       </c>
       <c r="D141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3.9999999996709334E-6</v>
       </c>
     </row>
@@ -16590,7 +16635,7 @@
         <v>8.2760099999999994</v>
       </c>
       <c r="D142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.0000000002795559E-6</v>
       </c>
     </row>
@@ -16605,7 +16650,7 @@
         <v>8.6039100000000008</v>
       </c>
       <c r="D143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.0000000002795559E-6</v>
       </c>
     </row>
@@ -16620,7 +16665,7 @@
         <v>8.9284700000000008</v>
       </c>
       <c r="D144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.0000000010279564E-6</v>
       </c>
     </row>
@@ -16635,7 +16680,7 @@
         <v>9.2492099999999997</v>
       </c>
       <c r="D145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.9999999995311555E-6</v>
       </c>
     </row>
@@ -16650,7 +16695,7 @@
         <v>9.5656999999999996</v>
       </c>
       <c r="D146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-1.0000000010279564E-6</v>
       </c>
     </row>
@@ -16665,7 +16710,7 @@
         <v>9.87758</v>
       </c>
       <c r="D147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.0000000002795559E-6</v>
       </c>
     </row>
@@ -16680,7 +16725,7 @@
         <v>10.1845</v>
       </c>
       <c r="D148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -16695,7 +16740,7 @@
         <v>10.4862</v>
       </c>
       <c r="D149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-4.0000000000262048E-5</v>
       </c>
     </row>
@@ -16710,7 +16755,7 @@
         <v>10.782500000000001</v>
       </c>
       <c r="D150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -16725,7 +16770,7 @@
         <v>11.0731</v>
       </c>
       <c r="D151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-4.0000000000262048E-5</v>
       </c>
     </row>
@@ -16740,7 +16785,7 @@
         <v>11.358000000000001</v>
       </c>
       <c r="D152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.0000000000262048E-5</v>
       </c>
     </row>
@@ -16755,7 +16800,7 @@
         <v>11.636799999999999</v>
       </c>
       <c r="D153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-3.0000000000640625E-5</v>
       </c>
     </row>
@@ -16770,7 +16815,7 @@
         <v>11.909700000000001</v>
       </c>
       <c r="D154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>5.0000000001659828E-5</v>
       </c>
     </row>
@@ -16785,7 +16830,7 @@
         <v>12.176299999999999</v>
       </c>
       <c r="D155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-4.9999999999883471E-5</v>
       </c>
     </row>
@@ -16800,7 +16845,7 @@
         <v>12.4369</v>
       </c>
       <c r="D156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.0000000000262048E-5</v>
       </c>
     </row>
@@ -16815,7 +16860,7 @@
         <v>12.6912</v>
       </c>
       <c r="D157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3.0000000000640625E-5</v>
       </c>
     </row>
@@ -16830,7 +16875,7 @@
         <v>12.9392</v>
       </c>
       <c r="D158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-4.0000000000262048E-5</v>
       </c>
     </row>
@@ -16845,7 +16890,7 @@
         <v>13.181100000000001</v>
       </c>
       <c r="D159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.000000000139778E-5</v>
       </c>
     </row>
@@ -16860,7 +16905,7 @@
         <v>13.416700000000001</v>
       </c>
       <c r="D160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-4.0000000000262048E-5</v>
       </c>
     </row>
@@ -16875,7 +16920,7 @@
         <v>13.6462</v>
       </c>
       <c r="D161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16890,7 +16935,7 @@
         <v>13.8695</v>
       </c>
       <c r="D162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-4.0000000000262048E-5</v>
       </c>
     </row>
@@ -16905,7 +16950,7 @@
         <v>14.0868</v>
       </c>
       <c r="D163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16920,7 +16965,7 @@
         <v>14.2981</v>
       </c>
       <c r="D164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.9999999999883471E-5</v>
       </c>
     </row>
@@ -16935,7 +16980,7 @@
         <v>14.503399999999999</v>
       </c>
       <c r="D165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -16950,7 +16995,7 @@
         <v>14.7028</v>
       </c>
       <c r="D166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-3.0000000000640625E-5</v>
       </c>
     </row>
@@ -16965,7 +17010,7 @@
         <v>14.8965</v>
       </c>
       <c r="D167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-3.0000000000640625E-5</v>
       </c>
     </row>
@@ -16980,7 +17025,7 @@
         <v>15.0845</v>
       </c>
       <c r="D168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-4.9999999999883471E-5</v>
       </c>
     </row>
@@ -16995,7 +17040,7 @@
         <v>15.266999999999999</v>
       </c>
       <c r="D169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -17010,7 +17055,7 @@
         <v>15.444000000000001</v>
       </c>
       <c r="D170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3.0000000000640625E-5</v>
       </c>
     </row>
@@ -17025,7 +17070,7 @@
         <v>15.615600000000001</v>
       </c>
       <c r="D171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.0000000001019203E-5</v>
       </c>
     </row>
@@ -17040,7 +17085,7 @@
         <v>15.7819</v>
       </c>
       <c r="D172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -17055,7 +17100,7 @@
         <v>15.943099999999999</v>
       </c>
       <c r="D173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-4.0000000000262048E-5</v>
       </c>
     </row>
@@ -17070,7 +17115,7 @@
         <v>16.099299999999999</v>
       </c>
       <c r="D174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -17085,7 +17130,7 @@
         <v>16.250599999999999</v>
       </c>
       <c r="D175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -17100,7 +17145,7 @@
         <v>16.396999999999998</v>
       </c>
       <c r="D176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-2.0000000002795559E-5</v>
       </c>
     </row>
@@ -17115,7 +17160,7 @@
         <v>16.538799999999998</v>
       </c>
       <c r="D177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -17130,7 +17175,7 @@
         <v>16.675999999999998</v>
       </c>
       <c r="D178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -17145,7 +17190,7 @@
         <v>16.808700000000002</v>
       </c>
       <c r="D179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -17160,7 +17205,7 @@
         <v>16.937100000000001</v>
       </c>
       <c r="D180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -17175,7 +17220,7 @@
         <v>17.061299999999999</v>
       </c>
       <c r="D181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -17190,7 +17235,7 @@
         <v>17.1813</v>
       </c>
       <c r="D182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -17205,7 +17250,7 @@
         <v>17.2974</v>
       </c>
       <c r="D183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -17220,7 +17265,7 @@
         <v>17.409500000000001</v>
       </c>
       <c r="D184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-4.9999999998107114E-5</v>
       </c>
     </row>
@@ -17235,7 +17280,7 @@
         <v>17.517900000000001</v>
       </c>
       <c r="D185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -17250,7 +17295,7 @@
         <v>17.622599999999998</v>
       </c>
       <c r="D186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-5.0000000001659828E-5</v>
       </c>
     </row>
@@ -17265,7 +17310,7 @@
         <v>17.723800000000001</v>
       </c>
       <c r="D187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -17280,7 +17325,7 @@
         <v>17.8215</v>
       </c>
       <c r="D188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -17295,7 +17340,7 @@
         <v>17.915800000000001</v>
       </c>
       <c r="D189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -17310,7 +17355,7 @@
         <v>18.006900000000002</v>
       </c>
       <c r="D190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -17325,7 +17370,7 @@
         <v>18.094799999999999</v>
       </c>
       <c r="D191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-3.0000000002416982E-5</v>
       </c>
     </row>
@@ -17340,7 +17385,7 @@
         <v>18.1797</v>
       </c>
       <c r="D192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -17355,7 +17400,7 @@
         <v>18.261600000000001</v>
       </c>
       <c r="D193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -17370,7 +17415,7 @@
         <v>18.340599999999998</v>
       </c>
       <c r="D194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-1.0000000003174137E-5</v>
       </c>
     </row>
@@ -17385,7 +17430,7 @@
         <v>18.416899999999998</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="7">C195-B195</f>
+        <f t="shared" ref="D195:D258" si="5">C195-B195</f>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -17400,7 +17445,7 @@
         <v>18.490400000000001</v>
       </c>
       <c r="D196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -17415,7 +17460,7 @@
         <v>18.561399999999999</v>
       </c>
       <c r="D197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -17430,7 +17475,7 @@
         <v>18.629799999999999</v>
       </c>
       <c r="D198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -17445,7 +17490,7 @@
         <v>18.695799999999998</v>
       </c>
       <c r="D199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -17460,7 +17505,7 @@
         <v>18.759399999999999</v>
       </c>
       <c r="D200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17475,7 +17520,7 @@
         <v>18.820699999999999</v>
       </c>
       <c r="D201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-4.0000000002038405E-5</v>
       </c>
     </row>
@@ -17490,7 +17535,7 @@
         <v>18.879899999999999</v>
       </c>
       <c r="D202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -17505,7 +17550,7 @@
         <v>18.936900000000001</v>
       </c>
       <c r="D203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.0000000002795559E-5</v>
       </c>
     </row>
@@ -17520,7 +17565,7 @@
         <v>18.991800000000001</v>
       </c>
       <c r="D204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -17535,7 +17580,7 @@
         <v>19.044799999999999</v>
       </c>
       <c r="D205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -17550,7 +17595,7 @@
         <v>19.095800000000001</v>
       </c>
       <c r="D206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -17565,7 +17610,7 @@
         <v>19.145</v>
       </c>
       <c r="D207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -17580,7 +17625,7 @@
         <v>19.192399999999999</v>
       </c>
       <c r="D208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -17595,7 +17640,7 @@
         <v>19.238</v>
       </c>
       <c r="D209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17610,7 +17655,7 @@
         <v>19.282</v>
       </c>
       <c r="D210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -17625,7 +17670,7 @@
         <v>19.324300000000001</v>
       </c>
       <c r="D211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -17640,7 +17685,7 @@
         <v>19.365100000000002</v>
       </c>
       <c r="D212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -17655,7 +17700,7 @@
         <v>19.404399999999999</v>
       </c>
       <c r="D213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -17670,7 +17715,7 @@
         <v>19.442299999999999</v>
       </c>
       <c r="D214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -17685,7 +17730,7 @@
         <v>19.4787</v>
       </c>
       <c r="D215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -17700,7 +17745,7 @@
         <v>19.5138</v>
       </c>
       <c r="D216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17715,7 +17760,7 @@
         <v>19.547599999999999</v>
       </c>
       <c r="D217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -17730,7 +17775,7 @@
         <v>19.580100000000002</v>
       </c>
       <c r="D218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -17745,7 +17790,7 @@
         <v>19.6114</v>
       </c>
       <c r="D219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-5.0000000001659828E-5</v>
       </c>
     </row>
@@ -17760,7 +17805,7 @@
         <v>19.6416</v>
       </c>
       <c r="D220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17775,7 +17820,7 @@
         <v>19.6706</v>
       </c>
       <c r="D221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -17790,7 +17835,7 @@
         <v>19.698599999999999</v>
       </c>
       <c r="D222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -17805,7 +17850,7 @@
         <v>19.7255</v>
       </c>
       <c r="D223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -17820,7 +17865,7 @@
         <v>19.751300000000001</v>
       </c>
       <c r="D224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-4.9999999998107114E-5</v>
       </c>
     </row>
@@ -17835,7 +17880,7 @@
         <v>19.776299999999999</v>
       </c>
       <c r="D225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -17850,7 +17895,7 @@
         <v>19.8002</v>
       </c>
       <c r="D226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -17865,7 +17910,7 @@
         <v>19.8233</v>
       </c>
       <c r="D227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -17880,7 +17925,7 @@
         <v>19.845500000000001</v>
       </c>
       <c r="D228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -17895,7 +17940,7 @@
         <v>19.866900000000001</v>
       </c>
       <c r="D229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -17910,7 +17955,7 @@
         <v>19.8874</v>
       </c>
       <c r="D230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-5.0000000001659828E-5</v>
       </c>
     </row>
@@ -17925,7 +17970,7 @@
         <v>19.9072</v>
       </c>
       <c r="D231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -17940,7 +17985,7 @@
         <v>19.926300000000001</v>
       </c>
       <c r="D232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.0000000002416982E-5</v>
       </c>
     </row>
@@ -17955,7 +18000,7 @@
         <v>19.944600000000001</v>
       </c>
       <c r="D233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.0000000002795559E-5</v>
       </c>
     </row>
@@ -17970,7 +18015,7 @@
         <v>19.962199999999999</v>
       </c>
       <c r="D234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17985,7 +18030,7 @@
         <v>19.979099999999999</v>
       </c>
       <c r="D235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-5.0000000001659828E-5</v>
       </c>
     </row>
@@ -18000,7 +18045,7 @@
         <v>19.9955</v>
       </c>
       <c r="D236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -18015,7 +18060,7 @@
         <v>20.011099999999999</v>
       </c>
       <c r="D237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-4.0000000002038405E-5</v>
       </c>
     </row>
@@ -18030,7 +18075,7 @@
         <v>17.5991</v>
       </c>
       <c r="D238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.5000000000119371E-4</v>
       </c>
     </row>
@@ -18045,7 +18090,7 @@
         <v>15.4382</v>
       </c>
       <c r="D239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.3999999999979593E-4</v>
       </c>
     </row>
@@ -18060,7 +18105,7 @@
         <v>13.5085</v>
       </c>
       <c r="D240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.5999999999903878E-4</v>
       </c>
     </row>
@@ -18075,7 +18120,7 @@
         <v>11.791399999999999</v>
       </c>
       <c r="D241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.8999999999991246E-4</v>
       </c>
     </row>
@@ -18090,7 +18135,7 @@
         <v>10.2699</v>
       </c>
       <c r="D242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.3000000000017451E-4</v>
       </c>
     </row>
@@ -18105,7 +18150,7 @@
         <v>8.9278999999999993</v>
       </c>
       <c r="D243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.0899999999990371E-4</v>
       </c>
     </row>
@@ -18120,7 +18165,7 @@
         <v>7.7507099999999998</v>
       </c>
       <c r="D244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.0199999999981344E-4</v>
       </c>
     </row>
@@ -18135,7 +18180,7 @@
         <v>6.7246100000000002</v>
       </c>
       <c r="D245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.8899999999977268E-4</v>
       </c>
     </row>
@@ -18150,7 +18195,7 @@
         <v>5.8369200000000001</v>
       </c>
       <c r="D246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.8299999999982219E-4</v>
       </c>
     </row>
@@ -18165,7 +18210,7 @@
         <v>5.0758799999999997</v>
       </c>
       <c r="D247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.7999999999940286E-4</v>
       </c>
     </row>
@@ -18180,7 +18225,7 @@
         <v>4.4305899999999996</v>
       </c>
       <c r="D248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.7099999999992122E-4</v>
       </c>
     </row>
@@ -18195,7 +18240,7 @@
         <v>3.8909799999999999</v>
       </c>
       <c r="D249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.6499999999997073E-4</v>
       </c>
     </row>
@@ -18210,7 +18255,7 @@
         <v>3.4477199999999999</v>
       </c>
       <c r="D250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.5999999999971593E-4</v>
       </c>
     </row>
@@ -18225,7 +18270,7 @@
         <v>3.0921799999999999</v>
       </c>
       <c r="D251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.5199999999992997E-4</v>
       </c>
     </row>
@@ -18240,7 +18285,7 @@
         <v>2.8163900000000002</v>
       </c>
       <c r="D252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.4800000000025904E-4</v>
       </c>
     </row>
@@ -18255,7 +18300,7 @@
         <v>2.6129699999999998</v>
       </c>
       <c r="D253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.3899999999988921E-4</v>
       </c>
     </row>
@@ -18270,7 +18315,7 @@
         <v>2.47512</v>
       </c>
       <c r="D254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.3199999999979894E-4</v>
       </c>
     </row>
@@ -18285,7 +18330,7 @@
         <v>2.39655</v>
       </c>
       <c r="D255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.2400000000001299E-4</v>
       </c>
     </row>
@@ -18300,7 +18345,7 @@
         <v>2.37147</v>
       </c>
       <c r="D256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.2299999999987321E-4</v>
       </c>
     </row>
@@ -18315,7 +18360,7 @@
         <v>2.39452</v>
       </c>
       <c r="D257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.1699999999992272E-4</v>
       </c>
     </row>
@@ -18330,7 +18375,7 @@
         <v>2.4607800000000002</v>
       </c>
       <c r="D258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.1400000000039157E-4</v>
       </c>
     </row>
@@ -18345,7 +18390,7 @@
         <v>2.5657100000000002</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="8">C259-B259</f>
+        <f t="shared" ref="D259:D322" si="6">C259-B259</f>
         <v>1.1300000000025179E-4</v>
       </c>
     </row>
@@ -18360,7 +18405,7 @@
         <v>2.70512</v>
       </c>
       <c r="D260">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.0300000000018628E-4</v>
       </c>
     </row>
@@ -18375,7 +18420,7 @@
         <v>2.8751899999999999</v>
       </c>
       <c r="D261">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.0399999999988196E-4</v>
       </c>
     </row>
@@ -18390,7 +18435,7 @@
         <v>3.0723699999999998</v>
       </c>
       <c r="D262">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>9.7999999999931475E-5</v>
       </c>
     </row>
@@ -18405,7 +18450,7 @@
         <v>3.2934299999999999</v>
       </c>
       <c r="D263">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>9.6999999999791697E-5</v>
       </c>
     </row>
@@ -18420,7 +18465,7 @@
         <v>3.53538</v>
       </c>
       <c r="D264">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8.4999999999890719E-5</v>
       </c>
     </row>
@@ -18435,7 +18480,7 @@
         <v>3.7955199999999998</v>
       </c>
       <c r="D265">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8.999999999970143E-5</v>
       </c>
     </row>
@@ -18450,7 +18495,7 @@
         <v>4.0713200000000001</v>
       </c>
       <c r="D266">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.800000000024454E-5</v>
       </c>
     </row>
@@ -18465,7 +18510,7 @@
         <v>4.3605299999999998</v>
       </c>
       <c r="D267">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8.1999999999915474E-5</v>
       </c>
     </row>
@@ -18480,7 +18525,7 @@
         <v>4.6610399999999998</v>
       </c>
       <c r="D268">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.800000000024454E-5</v>
       </c>
     </row>
@@ -18495,7 +18540,7 @@
         <v>4.9709500000000002</v>
       </c>
       <c r="D269">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.1000000000154273E-5</v>
       </c>
     </row>
@@ -18510,7 +18555,7 @@
         <v>5.2885299999999997</v>
       </c>
       <c r="D270">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6.5999999999455383E-5</v>
       </c>
     </row>
@@ -18525,7 +18570,7 @@
         <v>5.6122100000000001</v>
       </c>
       <c r="D271">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.2000000000294051E-5</v>
       </c>
     </row>
@@ -18540,7 +18585,7 @@
         <v>5.9405299999999999</v>
       </c>
       <c r="D272">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6.2999999999924228E-5</v>
       </c>
     </row>
@@ -18555,7 +18600,7 @@
         <v>6.2722100000000003</v>
       </c>
       <c r="D273">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6.0000000000393072E-5</v>
       </c>
     </row>
@@ -18570,7 +18615,7 @@
         <v>6.6060699999999999</v>
       </c>
       <c r="D274">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6.199999999978445E-5</v>
       </c>
     </row>
@@ -18585,7 +18630,7 @@
         <v>6.9410299999999996</v>
       </c>
       <c r="D275">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.2999999999414626E-5</v>
       </c>
     </row>
@@ -18600,7 +18645,7 @@
         <v>7.2761500000000003</v>
       </c>
       <c r="D276">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.2000000000163027E-5</v>
       </c>
     </row>
@@ -18615,7 +18660,7 @@
         <v>7.6105600000000004</v>
       </c>
       <c r="D277">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.3000000000302805E-5</v>
       </c>
     </row>
@@ -18630,7 +18675,7 @@
         <v>7.9434800000000001</v>
       </c>
       <c r="D278">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.8000000000492093E-5</v>
       </c>
     </row>
@@ -18645,7 +18690,7 @@
         <v>8.2742299999999993</v>
       </c>
       <c r="D279">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.0999999999135071E-5</v>
       </c>
     </row>
@@ -18660,7 +18705,7 @@
         <v>8.6021800000000006</v>
       </c>
       <c r="D280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.500000000007276E-5</v>
       </c>
     </row>
@@ -18675,7 +18720,7 @@
         <v>8.9268000000000001</v>
       </c>
       <c r="D281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.9999999999883471E-5</v>
       </c>
     </row>
@@ -18690,7 +18735,7 @@
         <v>9.2475900000000006</v>
       </c>
       <c r="D282">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.7000000000352316E-5</v>
       </c>
     </row>
@@ -18705,7 +18750,7 @@
         <v>9.5641300000000005</v>
       </c>
       <c r="D283">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.0000000000262048E-5</v>
       </c>
     </row>
@@ -18720,7 +18765,7 @@
         <v>9.8760600000000007</v>
       </c>
       <c r="D284">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.1000000001290005E-5</v>
       </c>
     </row>
@@ -18735,7 +18780,7 @@
         <v>10.183</v>
       </c>
       <c r="D285">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -18750,7 +18795,7 @@
         <v>10.4848</v>
       </c>
       <c r="D286">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -18765,7 +18810,7 @@
         <v>10.7811</v>
       </c>
       <c r="D287">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18780,7 +18825,7 @@
         <v>11.0718</v>
       </c>
       <c r="D288">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -18795,7 +18840,7 @@
         <v>11.3567</v>
       </c>
       <c r="D289">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.0000000000902673E-5</v>
       </c>
     </row>
@@ -18810,7 +18855,7 @@
         <v>11.6356</v>
       </c>
       <c r="D290">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.9999999999883471E-5</v>
       </c>
     </row>
@@ -18825,7 +18870,7 @@
         <v>11.9084</v>
       </c>
       <c r="D291">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -18840,7 +18885,7 @@
         <v>12.1752</v>
       </c>
       <c r="D292">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.9999999999883471E-5</v>
       </c>
     </row>
@@ -18855,7 +18900,7 @@
         <v>12.435700000000001</v>
       </c>
       <c r="D293">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -18870,7 +18915,7 @@
         <v>12.690099999999999</v>
       </c>
       <c r="D294">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.9999999999883471E-5</v>
       </c>
     </row>
@@ -18885,7 +18930,7 @@
         <v>12.9382</v>
       </c>
       <c r="D295">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.0000000000262048E-5</v>
       </c>
     </row>
@@ -18900,7 +18945,7 @@
         <v>13.180099999999999</v>
       </c>
       <c r="D296">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.9999999999883471E-5</v>
       </c>
     </row>
@@ -18915,7 +18960,7 @@
         <v>13.415800000000001</v>
       </c>
       <c r="D297">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.0000000000902673E-5</v>
       </c>
     </row>
@@ -18930,7 +18975,7 @@
         <v>13.645300000000001</v>
       </c>
       <c r="D298">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.0000000000902673E-5</v>
       </c>
     </row>
@@ -18945,7 +18990,7 @@
         <v>13.868600000000001</v>
       </c>
       <c r="D299">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18960,7 +19005,7 @@
         <v>14.085900000000001</v>
       </c>
       <c r="D300">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18975,7 +19020,7 @@
         <v>14.2972</v>
       </c>
       <c r="D301">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -18990,7 +19035,7 @@
         <v>14.5025</v>
       </c>
       <c r="D302">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-3.0000000000640625E-5</v>
       </c>
     </row>
@@ -19005,7 +19050,7 @@
         <v>14.702</v>
       </c>
       <c r="D303">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -19020,7 +19065,7 @@
         <v>14.895799999999999</v>
       </c>
       <c r="D304">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.9999999999504894E-5</v>
       </c>
     </row>
@@ -19035,7 +19080,7 @@
         <v>15.0838</v>
       </c>
       <c r="D305">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -19050,7 +19095,7 @@
         <v>15.266299999999999</v>
       </c>
       <c r="D306">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -19065,7 +19110,7 @@
         <v>15.443300000000001</v>
       </c>
       <c r="D307">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.0000000000262048E-5</v>
       </c>
     </row>
@@ -19080,7 +19125,7 @@
         <v>15.6149</v>
       </c>
       <c r="D308">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -19095,7 +19140,7 @@
         <v>15.7813</v>
       </c>
       <c r="D309">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.0000000000640625E-5</v>
       </c>
     </row>
@@ -19110,7 +19155,7 @@
         <v>15.942500000000001</v>
       </c>
       <c r="D310">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -19125,7 +19170,7 @@
         <v>16.098700000000001</v>
       </c>
       <c r="D311">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -19140,7 +19185,7 @@
         <v>16.25</v>
       </c>
       <c r="D312">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -19155,7 +19200,7 @@
         <v>16.3965</v>
       </c>
       <c r="D313">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.9999999998107114E-5</v>
       </c>
     </row>
@@ -19170,7 +19215,7 @@
         <v>16.5382</v>
       </c>
       <c r="D314">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -19185,7 +19230,7 @@
         <v>16.6755</v>
       </c>
       <c r="D315">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.9999999998107114E-5</v>
       </c>
     </row>
@@ -19200,7 +19245,7 @@
         <v>16.808199999999999</v>
       </c>
       <c r="D316">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -19215,7 +19260,7 @@
         <v>16.936599999999999</v>
       </c>
       <c r="D317">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-2.0000000002795559E-5</v>
       </c>
     </row>
@@ -19230,7 +19275,7 @@
         <v>17.0608</v>
       </c>
       <c r="D318">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -19245,7 +19290,7 @@
         <v>17.180900000000001</v>
       </c>
       <c r="D319">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.0000000002416982E-5</v>
       </c>
     </row>
@@ -19260,7 +19305,7 @@
         <v>17.297000000000001</v>
       </c>
       <c r="D320">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.0000000001659828E-5</v>
       </c>
     </row>
@@ -19275,7 +19320,7 @@
         <v>17.409099999999999</v>
       </c>
       <c r="D321">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-3.0000000002416982E-5</v>
       </c>
     </row>
@@ -19290,7 +19335,7 @@
         <v>17.517499999999998</v>
       </c>
       <c r="D322">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-3.0000000002416982E-5</v>
       </c>
     </row>
@@ -19305,7 +19350,7 @@
         <v>17.622299999999999</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="9">C323-B323</f>
+        <f t="shared" ref="D323:D386" si="7">C323-B323</f>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -19320,7 +19365,7 @@
         <v>17.723400000000002</v>
       </c>
       <c r="D324">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -19335,7 +19380,7 @@
         <v>17.821100000000001</v>
       </c>
       <c r="D325">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -19350,7 +19395,7 @@
         <v>17.915500000000002</v>
       </c>
       <c r="D326">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.0000000002795559E-5</v>
       </c>
     </row>
@@ -19365,7 +19410,7 @@
         <v>18.006599999999999</v>
       </c>
       <c r="D327">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -19380,7 +19425,7 @@
         <v>18.0945</v>
       </c>
       <c r="D328">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19395,7 +19440,7 @@
         <v>18.179400000000001</v>
       </c>
       <c r="D329">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.0000000002795559E-5</v>
       </c>
     </row>
@@ -19410,7 +19455,7 @@
         <v>18.261299999999999</v>
       </c>
       <c r="D330">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -19425,7 +19470,7 @@
         <v>18.340299999999999</v>
       </c>
       <c r="D331">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-3.0000000002416982E-5</v>
       </c>
     </row>
@@ -19440,7 +19485,7 @@
         <v>18.416599999999999</v>
       </c>
       <c r="D332">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -19455,7 +19500,7 @@
         <v>18.490100000000002</v>
       </c>
       <c r="D333">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -19470,7 +19515,7 @@
         <v>18.5611</v>
       </c>
       <c r="D334">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -19485,7 +19530,7 @@
         <v>18.6295</v>
       </c>
       <c r="D335">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -19500,7 +19545,7 @@
         <v>18.695499999999999</v>
       </c>
       <c r="D336">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-3.0000000002416982E-5</v>
       </c>
     </row>
@@ -19515,7 +19560,7 @@
         <v>18.7592</v>
       </c>
       <c r="D337">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -19530,7 +19575,7 @@
         <v>18.820499999999999</v>
       </c>
       <c r="D338">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -19545,7 +19590,7 @@
         <v>18.8797</v>
       </c>
       <c r="D339">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -19560,7 +19605,7 @@
         <v>18.936699999999998</v>
       </c>
       <c r="D340">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -19575,7 +19620,7 @@
         <v>18.991599999999998</v>
       </c>
       <c r="D341">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-3.0000000002416982E-5</v>
       </c>
     </row>
@@ -19590,7 +19635,7 @@
         <v>19.044599999999999</v>
       </c>
       <c r="D342">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -19605,7 +19650,7 @@
         <v>19.095600000000001</v>
       </c>
       <c r="D343">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -19620,7 +19665,7 @@
         <v>19.1448</v>
       </c>
       <c r="D344">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -19635,7 +19680,7 @@
         <v>19.1922</v>
       </c>
       <c r="D345">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -19650,7 +19695,7 @@
         <v>19.2378</v>
       </c>
       <c r="D346">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -19665,7 +19710,7 @@
         <v>19.2818</v>
       </c>
       <c r="D347">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -19680,7 +19725,7 @@
         <v>19.324200000000001</v>
       </c>
       <c r="D348">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.0000000002795559E-5</v>
       </c>
     </row>
@@ -19695,7 +19740,7 @@
         <v>19.364999999999998</v>
       </c>
       <c r="D349">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -19710,7 +19755,7 @@
         <v>19.404299999999999</v>
       </c>
       <c r="D350">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -19725,7 +19770,7 @@
         <v>19.4421</v>
       </c>
       <c r="D351">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -19740,7 +19785,7 @@
         <v>19.4786</v>
       </c>
       <c r="D352">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -19755,7 +19800,7 @@
         <v>19.5137</v>
       </c>
       <c r="D353">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -19770,7 +19815,7 @@
         <v>19.547499999999999</v>
       </c>
       <c r="D354">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -19785,7 +19830,7 @@
         <v>19.579999999999998</v>
       </c>
       <c r="D355">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-1.0000000003174137E-5</v>
       </c>
     </row>
@@ -19800,7 +19845,7 @@
         <v>19.6113</v>
       </c>
       <c r="D356">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -19815,7 +19860,7 @@
         <v>19.641500000000001</v>
       </c>
       <c r="D357">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -19830,7 +19875,7 @@
         <v>19.670500000000001</v>
       </c>
       <c r="D358">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -19845,7 +19890,7 @@
         <v>19.698499999999999</v>
       </c>
       <c r="D359">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -19860,7 +19905,7 @@
         <v>19.7254</v>
       </c>
       <c r="D360">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -19875,7 +19920,7 @@
         <v>19.751300000000001</v>
       </c>
       <c r="D361">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4.0000000002038405E-5</v>
       </c>
     </row>
@@ -19890,7 +19935,7 @@
         <v>19.776199999999999</v>
       </c>
       <c r="D362">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -19905,7 +19950,7 @@
         <v>19.8002</v>
       </c>
       <c r="D363">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -19920,7 +19965,7 @@
         <v>19.8232</v>
       </c>
       <c r="D364">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -19935,7 +19980,7 @@
         <v>19.845400000000001</v>
       </c>
       <c r="D365">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -19950,7 +19995,7 @@
         <v>19.866800000000001</v>
       </c>
       <c r="D366">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -19965,7 +20010,7 @@
         <v>19.8874</v>
       </c>
       <c r="D367">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -19980,7 +20025,7 @@
         <v>19.9072</v>
       </c>
       <c r="D368">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -19995,7 +20040,7 @@
         <v>19.926200000000001</v>
       </c>
       <c r="D369">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -20010,7 +20055,7 @@
         <v>19.944500000000001</v>
       </c>
       <c r="D370">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -20025,7 +20070,7 @@
         <v>19.9621</v>
       </c>
       <c r="D371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-4.0000000002038405E-5</v>
       </c>
     </row>
@@ -20040,7 +20085,7 @@
         <v>19.979099999999999</v>
       </c>
       <c r="D372">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -20055,7 +20100,7 @@
         <v>19.9954</v>
       </c>
       <c r="D373">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -20070,7 +20115,7 @@
         <v>20.011099999999999</v>
       </c>
       <c r="D374">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -20085,7 +20130,7 @@
         <v>17.5991</v>
       </c>
       <c r="D375">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.0999999999892225E-4</v>
       </c>
     </row>
@@ -20100,7 +20145,7 @@
         <v>15.4382</v>
       </c>
       <c r="D376">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999930083E-4</v>
       </c>
     </row>
@@ -20115,7 +20160,7 @@
         <v>13.5084</v>
       </c>
       <c r="D377">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.0999999999915531E-4</v>
       </c>
     </row>
@@ -20130,7 +20175,7 @@
         <v>11.791399999999999</v>
       </c>
       <c r="D378">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.4999999999941735E-4</v>
       </c>
     </row>
@@ -20145,7 +20190,7 @@
         <v>10.2698</v>
       </c>
       <c r="D379">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.8999999999991246E-4</v>
       </c>
     </row>
@@ -20160,7 +20205,7 @@
         <v>8.9278600000000008</v>
       </c>
       <c r="D380">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.1900000000130149E-4</v>
       </c>
     </row>
@@ -20175,7 +20220,7 @@
         <v>7.7506700000000004</v>
       </c>
       <c r="D381">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.1000000000004349E-4</v>
       </c>
     </row>
@@ -20190,7 +20235,7 @@
         <v>6.7245799999999996</v>
       </c>
       <c r="D382">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.049999999993446E-4</v>
       </c>
     </row>
@@ -20205,7 +20250,7 @@
         <v>5.8368900000000004</v>
       </c>
       <c r="D383">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.9700000000000273E-4</v>
       </c>
     </row>
@@ -20220,7 +20265,7 @@
         <v>5.0758400000000004</v>
       </c>
       <c r="D384">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.8300000000071037E-4</v>
       </c>
     </row>
@@ -20235,7 +20280,7 @@
         <v>4.4305599999999998</v>
       </c>
       <c r="D385">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.8199999999968242E-4</v>
       </c>
     </row>
@@ -20250,7 +20295,7 @@
         <v>3.8909500000000001</v>
       </c>
       <c r="D386">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.7400000000034055E-4</v>
       </c>
     </row>
@@ -20265,7 +20310,7 @@
         <v>3.4476900000000001</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="10">C387-B387</f>
+        <f t="shared" ref="D387:D450" si="8">C387-B387</f>
         <v>1.6700000000025028E-4</v>
       </c>
     </row>
@@ -20280,7 +20325,7 @@
         <v>3.0921500000000002</v>
       </c>
       <c r="D388">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.5800000000032455E-4</v>
       </c>
     </row>
@@ -20295,7 +20340,7 @@
         <v>2.81636</v>
       </c>
       <c r="D389">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.5199999999992997E-4</v>
       </c>
     </row>
@@ -20310,7 +20355,7 @@
         <v>2.6129500000000001</v>
       </c>
       <c r="D390">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.5199999999992997E-4</v>
       </c>
     </row>
@@ -20325,7 +20370,7 @@
         <v>2.4750999999999999</v>
       </c>
       <c r="D391">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.4399999999969992E-4</v>
       </c>
     </row>
@@ -20340,7 +20385,7 @@
         <v>2.3965299999999998</v>
       </c>
       <c r="D392">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.3499999999977419E-4</v>
       </c>
     </row>
@@ -20355,7 +20400,7 @@
         <v>2.3714499999999998</v>
       </c>
       <c r="D393">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.3199999999979894E-4</v>
       </c>
     </row>
@@ -20370,7 +20415,7 @@
         <v>2.3944999999999999</v>
       </c>
       <c r="D394">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.2499999999970868E-4</v>
       </c>
     </row>
@@ -20385,7 +20430,7 @@
         <v>2.4607600000000001</v>
       </c>
       <c r="D395">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.2100000000003774E-4</v>
       </c>
     </row>
@@ -20400,7 +20445,7 @@
         <v>2.56569</v>
       </c>
       <c r="D396">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.1999999999989797E-4</v>
       </c>
     </row>
@@ -20415,7 +20460,7 @@
         <v>2.7050999999999998</v>
       </c>
       <c r="D397">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.0799999999999699E-4</v>
       </c>
     </row>
@@ -20430,7 +20475,7 @@
         <v>2.8751699999999998</v>
       </c>
       <c r="D398">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.0799999999999699E-4</v>
       </c>
     </row>
@@ -20445,7 +20490,7 @@
         <v>3.0723500000000001</v>
       </c>
       <c r="D399">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.0100000000035081E-4</v>
       </c>
     </row>
@@ -20460,7 +20505,7 @@
         <v>3.2934100000000002</v>
       </c>
       <c r="D400">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000021103E-4</v>
       </c>
     </row>
@@ -20475,7 +20520,7 @@
         <v>3.5353699999999999</v>
       </c>
       <c r="D401">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9.6999999999791697E-5</v>
       </c>
     </row>
@@ -20490,7 +20535,7 @@
         <v>3.7955000000000001</v>
       </c>
       <c r="D402">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9.1000000000285297E-5</v>
       </c>
     </row>
@@ -20505,7 +20550,7 @@
         <v>4.0713100000000004</v>
       </c>
       <c r="D403">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>8.8000000000754142E-5</v>
       </c>
     </row>
@@ -20520,7 +20565,7 @@
         <v>4.3605099999999997</v>
       </c>
       <c r="D404">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>8.0999999999775696E-5</v>
       </c>
     </row>
@@ -20535,7 +20580,7 @@
         <v>4.6610199999999997</v>
       </c>
       <c r="D405">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>7.7000000000104762E-5</v>
       </c>
     </row>
@@ -20550,7 +20595,7 @@
         <v>4.9709399999999997</v>
       </c>
       <c r="D406">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>7.9999999999635918E-5</v>
       </c>
     </row>
@@ -20565,7 +20610,7 @@
         <v>5.2885200000000001</v>
       </c>
       <c r="D407">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>7.3999999999685429E-5</v>
       </c>
     </row>
@@ -20580,7 +20625,7 @@
         <v>5.61219</v>
       </c>
       <c r="D408">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6.8999999999874717E-5</v>
       </c>
     </row>
@@ -20595,7 +20640,7 @@
         <v>5.9405200000000002</v>
       </c>
       <c r="D409">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6.8999999999874717E-5</v>
       </c>
     </row>
@@ -20610,7 +20655,7 @@
         <v>6.2721999999999998</v>
       </c>
       <c r="D410">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6.5999999999455383E-5</v>
       </c>
     </row>
@@ -20625,7 +20670,7 @@
         <v>6.6060600000000003</v>
       </c>
       <c r="D411">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6.700000000048334E-5</v>
       </c>
     </row>
@@ -20640,7 +20685,7 @@
         <v>6.94102</v>
       </c>
       <c r="D412">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>5.8000000000113516E-5</v>
       </c>
     </row>
@@ -20655,7 +20700,7 @@
         <v>7.2761399999999998</v>
       </c>
       <c r="D413">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>5.6999999999973738E-5</v>
       </c>
     </row>
@@ -20670,7 +20715,7 @@
         <v>7.6105499999999999</v>
       </c>
       <c r="D414">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>5.6999999999973738E-5</v>
       </c>
     </row>
@@ -20685,7 +20730,7 @@
         <v>7.9434699999999996</v>
       </c>
       <c r="D415">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>5.1999999999274849E-5</v>
       </c>
     </row>
@@ -20700,7 +20745,7 @@
         <v>8.2742199999999997</v>
       </c>
       <c r="D416">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>5.4000000000442583E-5</v>
       </c>
     </row>
@@ -20715,7 +20760,7 @@
         <v>8.6021699999999992</v>
       </c>
       <c r="D417">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4.8999999998855515E-5</v>
       </c>
     </row>
@@ -20730,7 +20775,7 @@
         <v>8.9267900000000004</v>
       </c>
       <c r="D418">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>5.3000000001190983E-5</v>
       </c>
     </row>
@@ -20745,7 +20790,7 @@
         <v>9.2475799999999992</v>
       </c>
       <c r="D419">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4.8999999998855515E-5</v>
       </c>
     </row>
@@ -20760,7 +20805,7 @@
         <v>9.5641200000000008</v>
       </c>
       <c r="D420">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4.300000000156956E-5</v>
       </c>
     </row>
@@ -20775,7 +20820,7 @@
         <v>9.8760499999999993</v>
       </c>
       <c r="D421">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4.3999999999044803E-5</v>
       </c>
     </row>
@@ -20790,7 +20835,7 @@
         <v>10.183</v>
       </c>
       <c r="D422">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -20805,7 +20850,7 @@
         <v>10.4848</v>
       </c>
       <c r="D423">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>3.0000000000640625E-5</v>
       </c>
     </row>
@@ -20820,7 +20865,7 @@
         <v>10.7811</v>
       </c>
       <c r="D424">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -20835,7 +20880,7 @@
         <v>11.0718</v>
       </c>
       <c r="D425">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4.0000000000262048E-5</v>
       </c>
     </row>
@@ -20850,7 +20895,7 @@
         <v>11.3567</v>
       </c>
       <c r="D426">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>8.0000000000524096E-5</v>
       </c>
     </row>
@@ -20865,7 +20910,7 @@
         <v>11.6356</v>
       </c>
       <c r="D427">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>5.9999999999504894E-5</v>
       </c>
     </row>
@@ -20880,7 +20925,7 @@
         <v>11.9084</v>
       </c>
       <c r="D428">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20895,7 +20940,7 @@
         <v>12.1752</v>
       </c>
       <c r="D429">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>5.9999999999504894E-5</v>
       </c>
     </row>
@@ -20910,7 +20955,7 @@
         <v>12.435700000000001</v>
       </c>
       <c r="D430">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20925,7 +20970,7 @@
         <v>12.690099999999999</v>
       </c>
       <c r="D431">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>5.9999999999504894E-5</v>
       </c>
     </row>
@@ -20940,7 +20985,7 @@
         <v>12.9382</v>
       </c>
       <c r="D432">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4.0000000000262048E-5</v>
       </c>
     </row>
@@ -20955,7 +21000,7 @@
         <v>13.180099999999999</v>
       </c>
       <c r="D433">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>5.9999999999504894E-5</v>
       </c>
     </row>
@@ -20970,7 +21015,7 @@
         <v>13.415699999999999</v>
       </c>
       <c r="D434">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-2.0000000001019203E-5</v>
       </c>
     </row>
@@ -20985,7 +21030,7 @@
         <v>13.645300000000001</v>
       </c>
       <c r="D435">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>8.0000000000524096E-5</v>
       </c>
     </row>
@@ -21000,7 +21045,7 @@
         <v>13.868600000000001</v>
       </c>
       <c r="D436">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -21015,7 +21060,7 @@
         <v>14.085900000000001</v>
       </c>
       <c r="D437">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.000000000139778E-5</v>
       </c>
     </row>
@@ -21030,7 +21075,7 @@
         <v>14.2972</v>
       </c>
       <c r="D438">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>3.0000000000640625E-5</v>
       </c>
     </row>
@@ -21045,7 +21090,7 @@
         <v>14.5025</v>
       </c>
       <c r="D439">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-2.0000000001019203E-5</v>
       </c>
     </row>
@@ -21060,7 +21105,7 @@
         <v>14.702</v>
       </c>
       <c r="D440">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -21075,7 +21120,7 @@
         <v>14.895799999999999</v>
       </c>
       <c r="D441">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>5.9999999999504894E-5</v>
       </c>
     </row>
@@ -21090,7 +21135,7 @@
         <v>15.0838</v>
       </c>
       <c r="D442">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -21105,7 +21150,7 @@
         <v>15.266299999999999</v>
       </c>
       <c r="D443">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -21120,7 +21165,7 @@
         <v>15.443300000000001</v>
       </c>
       <c r="D444">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4.0000000000262048E-5</v>
       </c>
     </row>
@@ -21135,7 +21180,7 @@
         <v>15.6149</v>
       </c>
       <c r="D445">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -21150,7 +21195,7 @@
         <v>15.7813</v>
       </c>
       <c r="D446">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>3.0000000000640625E-5</v>
       </c>
     </row>
@@ -21165,7 +21210,7 @@
         <v>15.942500000000001</v>
       </c>
       <c r="D447">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -21180,7 +21225,7 @@
         <v>16.098700000000001</v>
       </c>
       <c r="D448">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -21195,7 +21240,7 @@
         <v>16.25</v>
       </c>
       <c r="D449">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -21210,7 +21255,7 @@
         <v>16.3965</v>
       </c>
       <c r="D450">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4.9999999998107114E-5</v>
       </c>
     </row>
@@ -21225,7 +21270,7 @@
         <v>16.5382</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D514" si="11">C451-B451</f>
+        <f t="shared" ref="D451:D514" si="9">C451-B451</f>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -21240,7 +21285,7 @@
         <v>16.6755</v>
       </c>
       <c r="D452">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>6.0000000001281251E-5</v>
       </c>
     </row>
@@ -21255,7 +21300,7 @@
         <v>16.808199999999999</v>
       </c>
       <c r="D453">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21270,7 +21315,7 @@
         <v>16.936599999999999</v>
       </c>
       <c r="D454">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1.0000000003174137E-5</v>
       </c>
     </row>
@@ -21285,7 +21330,7 @@
         <v>17.0608</v>
       </c>
       <c r="D455">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21300,7 +21345,7 @@
         <v>17.180900000000001</v>
       </c>
       <c r="D456">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3.0000000002416982E-5</v>
       </c>
     </row>
@@ -21315,7 +21360,7 @@
         <v>17.297000000000001</v>
       </c>
       <c r="D457">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>6.0000000001281251E-5</v>
       </c>
     </row>
@@ -21330,7 +21375,7 @@
         <v>17.409099999999999</v>
       </c>
       <c r="D458">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000002795559E-5</v>
       </c>
     </row>
@@ -21345,7 +21390,7 @@
         <v>17.517499999999998</v>
       </c>
       <c r="D459">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000002795559E-5</v>
       </c>
     </row>
@@ -21360,7 +21405,7 @@
         <v>17.622299999999999</v>
       </c>
       <c r="D460">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -21375,7 +21420,7 @@
         <v>17.723400000000002</v>
       </c>
       <c r="D461">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -21390,7 +21435,7 @@
         <v>17.821100000000001</v>
       </c>
       <c r="D462">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -21405,7 +21450,7 @@
         <v>17.915500000000002</v>
       </c>
       <c r="D463">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3.0000000002416982E-5</v>
       </c>
     </row>
@@ -21420,7 +21465,7 @@
         <v>18.006599999999999</v>
       </c>
       <c r="D464">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -21435,7 +21480,7 @@
         <v>18.0945</v>
       </c>
       <c r="D465">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21450,7 +21495,7 @@
         <v>18.179400000000001</v>
       </c>
       <c r="D466">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3.0000000002416982E-5</v>
       </c>
     </row>
@@ -21465,7 +21510,7 @@
         <v>18.261299999999999</v>
       </c>
       <c r="D467">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -21480,7 +21525,7 @@
         <v>18.340299999999999</v>
       </c>
       <c r="D468">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -21495,7 +21540,7 @@
         <v>18.416599999999999</v>
       </c>
       <c r="D469">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -21510,7 +21555,7 @@
         <v>18.490100000000002</v>
       </c>
       <c r="D470">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -21525,7 +21570,7 @@
         <v>18.5611</v>
       </c>
       <c r="D471">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -21540,7 +21585,7 @@
         <v>18.6295</v>
       </c>
       <c r="D472">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -21555,7 +21600,7 @@
         <v>18.695499999999999</v>
       </c>
       <c r="D473">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-3.0000000002416982E-5</v>
       </c>
     </row>
@@ -21570,7 +21615,7 @@
         <v>18.7592</v>
       </c>
       <c r="D474">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -21585,7 +21630,7 @@
         <v>18.820499999999999</v>
       </c>
       <c r="D475">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -21600,7 +21645,7 @@
         <v>18.8797</v>
       </c>
       <c r="D476">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -21615,7 +21660,7 @@
         <v>18.936699999999998</v>
       </c>
       <c r="D477">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -21630,7 +21675,7 @@
         <v>18.991599999999998</v>
       </c>
       <c r="D478">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-3.0000000002416982E-5</v>
       </c>
     </row>
@@ -21645,7 +21690,7 @@
         <v>19.044599999999999</v>
       </c>
       <c r="D479">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -21660,7 +21705,7 @@
         <v>19.095600000000001</v>
       </c>
       <c r="D480">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -21675,7 +21720,7 @@
         <v>19.1448</v>
       </c>
       <c r="D481">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -21690,7 +21735,7 @@
         <v>19.1922</v>
       </c>
       <c r="D482">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -21705,7 +21750,7 @@
         <v>19.2378</v>
       </c>
       <c r="D483">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -21720,7 +21765,7 @@
         <v>19.2818</v>
       </c>
       <c r="D484">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -21735,7 +21780,7 @@
         <v>19.324200000000001</v>
       </c>
       <c r="D485">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.0000000002795559E-5</v>
       </c>
     </row>
@@ -21750,7 +21795,7 @@
         <v>19.364999999999998</v>
       </c>
       <c r="D486">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -21765,7 +21810,7 @@
         <v>19.404299999999999</v>
       </c>
       <c r="D487">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -21780,7 +21825,7 @@
         <v>19.4421</v>
       </c>
       <c r="D488">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -21795,7 +21840,7 @@
         <v>19.4786</v>
       </c>
       <c r="D489">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -21810,7 +21855,7 @@
         <v>19.5137</v>
       </c>
       <c r="D490">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -21825,7 +21870,7 @@
         <v>19.547499999999999</v>
       </c>
       <c r="D491">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -21840,7 +21885,7 @@
         <v>19.579999999999998</v>
       </c>
       <c r="D492">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1.0000000003174137E-5</v>
       </c>
     </row>
@@ -21855,7 +21900,7 @@
         <v>19.6113</v>
       </c>
       <c r="D493">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -21870,7 +21915,7 @@
         <v>19.641500000000001</v>
       </c>
       <c r="D494">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -21885,7 +21930,7 @@
         <v>19.670500000000001</v>
       </c>
       <c r="D495">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -21900,7 +21945,7 @@
         <v>19.698499999999999</v>
       </c>
       <c r="D496">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -21915,7 +21960,7 @@
         <v>19.7254</v>
       </c>
       <c r="D497">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -21930,7 +21975,7 @@
         <v>19.751300000000001</v>
       </c>
       <c r="D498">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>4.0000000002038405E-5</v>
       </c>
     </row>
@@ -21945,7 +21990,7 @@
         <v>19.776199999999999</v>
       </c>
       <c r="D499">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -21960,7 +22005,7 @@
         <v>19.8002</v>
       </c>
       <c r="D500">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -21975,7 +22020,7 @@
         <v>19.8232</v>
       </c>
       <c r="D501">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -21990,7 +22035,7 @@
         <v>19.845400000000001</v>
       </c>
       <c r="D502">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -22005,7 +22050,7 @@
         <v>19.866800000000001</v>
       </c>
       <c r="D503">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -22020,7 +22065,7 @@
         <v>19.8874</v>
       </c>
       <c r="D504">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -22035,7 +22080,7 @@
         <v>19.9072</v>
       </c>
       <c r="D505">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -22050,7 +22095,7 @@
         <v>19.926200000000001</v>
       </c>
       <c r="D506">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -22065,7 +22110,7 @@
         <v>19.944500000000001</v>
       </c>
       <c r="D507">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -22080,7 +22125,7 @@
         <v>19.9621</v>
       </c>
       <c r="D508">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-4.0000000002038405E-5</v>
       </c>
     </row>
@@ -22095,7 +22140,7 @@
         <v>19.979099999999999</v>
       </c>
       <c r="D509">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -22110,7 +22155,7 @@
         <v>19.9954</v>
       </c>
       <c r="D510">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -22125,7 +22170,7 @@
         <v>20.011099999999999</v>
       </c>
       <c r="D511">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -22140,7 +22185,7 @@
         <v>17.5991</v>
       </c>
       <c r="D512">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3.0999999999892225E-4</v>
       </c>
     </row>
@@ -22155,7 +22200,7 @@
         <v>15.4382</v>
       </c>
       <c r="D513">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.9999999999930083E-4</v>
       </c>
     </row>
@@ -22170,7 +22215,7 @@
         <v>13.5084</v>
       </c>
       <c r="D514">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.0999999999915531E-4</v>
       </c>
     </row>
@@ -22185,7 +22230,7 @@
         <v>11.791399999999999</v>
       </c>
       <c r="D515">
-        <f t="shared" ref="D515:D578" si="12">C515-B515</f>
+        <f t="shared" ref="D515:D578" si="10">C515-B515</f>
         <v>2.4999999999941735E-4</v>
       </c>
     </row>
@@ -22200,7 +22245,7 @@
         <v>10.2698</v>
       </c>
       <c r="D516">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.8999999999991246E-4</v>
       </c>
     </row>
@@ -22215,7 +22260,7 @@
         <v>8.9278600000000008</v>
       </c>
       <c r="D517">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2.1900000000130149E-4</v>
       </c>
     </row>
@@ -22230,7 +22275,7 @@
         <v>7.7506700000000004</v>
       </c>
       <c r="D518">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2.1000000000004349E-4</v>
       </c>
     </row>
@@ -22245,7 +22290,7 @@
         <v>6.7245799999999996</v>
       </c>
       <c r="D519">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2.049999999993446E-4</v>
       </c>
     </row>
@@ -22260,7 +22305,7 @@
         <v>5.8368900000000004</v>
       </c>
       <c r="D520">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.9700000000000273E-4</v>
       </c>
     </row>
@@ -22275,7 +22320,7 @@
         <v>5.0758400000000004</v>
       </c>
       <c r="D521">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.8300000000071037E-4</v>
       </c>
     </row>
@@ -22290,7 +22335,7 @@
         <v>4.4305599999999998</v>
       </c>
       <c r="D522">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.8199999999968242E-4</v>
       </c>
     </row>
@@ -22305,7 +22350,7 @@
         <v>3.8909500000000001</v>
       </c>
       <c r="D523">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.7400000000034055E-4</v>
       </c>
     </row>
@@ -22320,7 +22365,7 @@
         <v>3.4476900000000001</v>
       </c>
       <c r="D524">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.6700000000025028E-4</v>
       </c>
     </row>
@@ -22335,7 +22380,7 @@
         <v>3.0921500000000002</v>
       </c>
       <c r="D525">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.5800000000032455E-4</v>
       </c>
     </row>
@@ -22350,7 +22395,7 @@
         <v>2.81636</v>
       </c>
       <c r="D526">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.5199999999992997E-4</v>
       </c>
     </row>
@@ -22365,7 +22410,7 @@
         <v>2.6129500000000001</v>
       </c>
       <c r="D527">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.5199999999992997E-4</v>
       </c>
     </row>
@@ -22380,7 +22425,7 @@
         <v>2.4750999999999999</v>
       </c>
       <c r="D528">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.4399999999969992E-4</v>
       </c>
     </row>
@@ -22395,7 +22440,7 @@
         <v>2.3965299999999998</v>
       </c>
       <c r="D529">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.3499999999977419E-4</v>
       </c>
     </row>
@@ -22410,7 +22455,7 @@
         <v>2.3714499999999998</v>
       </c>
       <c r="D530">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.3199999999979894E-4</v>
       </c>
     </row>
@@ -22425,7 +22470,7 @@
         <v>2.3944999999999999</v>
       </c>
       <c r="D531">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.2499999999970868E-4</v>
       </c>
     </row>
@@ -22440,7 +22485,7 @@
         <v>2.4607600000000001</v>
       </c>
       <c r="D532">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.2100000000003774E-4</v>
       </c>
     </row>
@@ -22455,7 +22500,7 @@
         <v>2.56569</v>
       </c>
       <c r="D533">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.1999999999989797E-4</v>
       </c>
     </row>
@@ -22470,7 +22515,7 @@
         <v>2.7050999999999998</v>
       </c>
       <c r="D534">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.0799999999999699E-4</v>
       </c>
     </row>
@@ -22485,7 +22530,7 @@
         <v>2.8751699999999998</v>
       </c>
       <c r="D535">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.0799999999999699E-4</v>
       </c>
     </row>
@@ -22500,7 +22545,7 @@
         <v>3.0723500000000001</v>
       </c>
       <c r="D536">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.0100000000035081E-4</v>
       </c>
     </row>
@@ -22515,7 +22560,7 @@
         <v>3.2934100000000002</v>
       </c>
       <c r="D537">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.0000000000021103E-4</v>
       </c>
     </row>
@@ -22530,7 +22575,7 @@
         <v>3.5353699999999999</v>
       </c>
       <c r="D538">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>9.6999999999791697E-5</v>
       </c>
     </row>
@@ -22545,7 +22590,7 @@
         <v>3.7955000000000001</v>
       </c>
       <c r="D539">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>9.1000000000285297E-5</v>
       </c>
     </row>
@@ -22560,7 +22605,7 @@
         <v>4.0713100000000004</v>
       </c>
       <c r="D540">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>8.8000000000754142E-5</v>
       </c>
     </row>
@@ -22575,7 +22620,7 @@
         <v>4.3605099999999997</v>
       </c>
       <c r="D541">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>8.0999999999775696E-5</v>
       </c>
     </row>
@@ -22590,7 +22635,7 @@
         <v>4.6610199999999997</v>
       </c>
       <c r="D542">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7.7000000000104762E-5</v>
       </c>
     </row>
@@ -22605,7 +22650,7 @@
         <v>4.9709399999999997</v>
       </c>
       <c r="D543">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7.9999999999635918E-5</v>
       </c>
     </row>
@@ -22620,7 +22665,7 @@
         <v>5.2885200000000001</v>
       </c>
       <c r="D544">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7.3999999999685429E-5</v>
       </c>
     </row>
@@ -22635,7 +22680,7 @@
         <v>5.61219</v>
       </c>
       <c r="D545">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6.8999999999874717E-5</v>
       </c>
     </row>
@@ -22650,7 +22695,7 @@
         <v>5.9405200000000002</v>
       </c>
       <c r="D546">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6.8999999999874717E-5</v>
       </c>
     </row>
@@ -22665,7 +22710,7 @@
         <v>6.2721999999999998</v>
       </c>
       <c r="D547">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6.5999999999455383E-5</v>
       </c>
     </row>
@@ -22680,7 +22725,7 @@
         <v>6.6060600000000003</v>
       </c>
       <c r="D548">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6.700000000048334E-5</v>
       </c>
     </row>
@@ -22695,7 +22740,7 @@
         <v>6.94102</v>
       </c>
       <c r="D549">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.8000000000113516E-5</v>
       </c>
     </row>
@@ -22710,7 +22755,7 @@
         <v>7.2761399999999998</v>
       </c>
       <c r="D550">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.6999999999973738E-5</v>
       </c>
     </row>
@@ -22725,7 +22770,7 @@
         <v>7.6105499999999999</v>
       </c>
       <c r="D551">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.6999999999973738E-5</v>
       </c>
     </row>
@@ -22740,7 +22785,7 @@
         <v>7.9434699999999996</v>
       </c>
       <c r="D552">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.1999999999274849E-5</v>
       </c>
     </row>
@@ -22755,7 +22800,7 @@
         <v>8.2742199999999997</v>
       </c>
       <c r="D553">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.4000000000442583E-5</v>
       </c>
     </row>
@@ -22770,7 +22815,7 @@
         <v>8.6021699999999992</v>
       </c>
       <c r="D554">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4.8999999998855515E-5</v>
       </c>
     </row>
@@ -22785,7 +22830,7 @@
         <v>8.9267900000000004</v>
       </c>
       <c r="D555">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.3000000001190983E-5</v>
       </c>
     </row>
@@ -22800,7 +22845,7 @@
         <v>9.2475799999999992</v>
       </c>
       <c r="D556">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4.8999999998855515E-5</v>
       </c>
     </row>
@@ -22815,7 +22860,7 @@
         <v>9.5641200000000008</v>
       </c>
       <c r="D557">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4.300000000156956E-5</v>
       </c>
     </row>
@@ -22830,7 +22875,7 @@
         <v>9.8760499999999993</v>
       </c>
       <c r="D558">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4.3999999999044803E-5</v>
       </c>
     </row>
@@ -22845,7 +22890,7 @@
         <v>10.183</v>
       </c>
       <c r="D559">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -22860,7 +22905,7 @@
         <v>10.4848</v>
       </c>
       <c r="D560">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3.0000000000640625E-5</v>
       </c>
     </row>
@@ -22875,7 +22920,7 @@
         <v>10.7811</v>
       </c>
       <c r="D561">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -22890,7 +22935,7 @@
         <v>11.0718</v>
       </c>
       <c r="D562">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000262048E-5</v>
       </c>
     </row>
@@ -22905,7 +22950,7 @@
         <v>11.3567</v>
       </c>
       <c r="D563">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>8.0000000000524096E-5</v>
       </c>
     </row>
@@ -22920,7 +22965,7 @@
         <v>11.6356</v>
       </c>
       <c r="D564">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.9999999999504894E-5</v>
       </c>
     </row>
@@ -22935,7 +22980,7 @@
         <v>11.9084</v>
       </c>
       <c r="D565">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22950,7 +22995,7 @@
         <v>12.1752</v>
       </c>
       <c r="D566">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.9999999999504894E-5</v>
       </c>
     </row>
@@ -22965,7 +23010,7 @@
         <v>12.435700000000001</v>
       </c>
       <c r="D567">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -22980,7 +23025,7 @@
         <v>12.690099999999999</v>
       </c>
       <c r="D568">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.9999999999504894E-5</v>
       </c>
     </row>
@@ -22995,7 +23040,7 @@
         <v>12.9382</v>
       </c>
       <c r="D569">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000262048E-5</v>
       </c>
     </row>
@@ -23010,7 +23055,7 @@
         <v>13.180099999999999</v>
       </c>
       <c r="D570">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.9999999999504894E-5</v>
       </c>
     </row>
@@ -23025,7 +23070,7 @@
         <v>13.415699999999999</v>
       </c>
       <c r="D571">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-2.0000000001019203E-5</v>
       </c>
     </row>
@@ -23040,7 +23085,7 @@
         <v>13.645300000000001</v>
       </c>
       <c r="D572">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>8.0000000000524096E-5</v>
       </c>
     </row>
@@ -23055,7 +23100,7 @@
         <v>13.868600000000001</v>
       </c>
       <c r="D573">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -23070,7 +23115,7 @@
         <v>14.085900000000001</v>
       </c>
       <c r="D574">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.000000000139778E-5</v>
       </c>
     </row>
@@ -23085,7 +23130,7 @@
         <v>14.2972</v>
       </c>
       <c r="D575">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3.0000000000640625E-5</v>
       </c>
     </row>
@@ -23100,7 +23145,7 @@
         <v>14.5025</v>
       </c>
       <c r="D576">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-2.0000000001019203E-5</v>
       </c>
     </row>
@@ -23115,7 +23160,7 @@
         <v>14.702</v>
       </c>
       <c r="D577">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -23130,7 +23175,7 @@
         <v>14.895799999999999</v>
       </c>
       <c r="D578">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.9999999999504894E-5</v>
       </c>
     </row>
@@ -23145,7 +23190,7 @@
         <v>15.0838</v>
       </c>
       <c r="D579">
-        <f t="shared" ref="D579:D642" si="13">C579-B579</f>
+        <f t="shared" ref="D579:D642" si="11">C579-B579</f>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -23160,7 +23205,7 @@
         <v>15.266299999999999</v>
       </c>
       <c r="D580">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -23175,7 +23220,7 @@
         <v>15.443300000000001</v>
       </c>
       <c r="D581">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.0000000000262048E-5</v>
       </c>
     </row>
@@ -23190,7 +23235,7 @@
         <v>15.6149</v>
       </c>
       <c r="D582">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -23205,7 +23250,7 @@
         <v>15.7813</v>
       </c>
       <c r="D583">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.0000000000640625E-5</v>
       </c>
     </row>
@@ -23220,7 +23265,7 @@
         <v>15.942500000000001</v>
       </c>
       <c r="D584">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23235,7 +23280,7 @@
         <v>16.098700000000001</v>
       </c>
       <c r="D585">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23250,7 +23295,7 @@
         <v>16.25</v>
       </c>
       <c r="D586">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -23265,7 +23310,7 @@
         <v>16.3965</v>
       </c>
       <c r="D587">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.9999999998107114E-5</v>
       </c>
     </row>
@@ -23280,7 +23325,7 @@
         <v>16.5382</v>
       </c>
       <c r="D588">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -23295,7 +23340,7 @@
         <v>16.6755</v>
       </c>
       <c r="D589">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6.0000000001281251E-5</v>
       </c>
     </row>
@@ -23310,7 +23355,7 @@
         <v>16.808199999999999</v>
       </c>
       <c r="D590">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23325,7 +23370,7 @@
         <v>16.936599999999999</v>
       </c>
       <c r="D591">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-1.0000000003174137E-5</v>
       </c>
     </row>
@@ -23340,7 +23385,7 @@
         <v>17.0608</v>
       </c>
       <c r="D592">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23355,7 +23400,7 @@
         <v>17.180900000000001</v>
       </c>
       <c r="D593">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.0000000002416982E-5</v>
       </c>
     </row>
@@ -23370,7 +23415,7 @@
         <v>17.297000000000001</v>
       </c>
       <c r="D594">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6.0000000001281251E-5</v>
       </c>
     </row>
@@ -23385,7 +23430,7 @@
         <v>17.409099999999999</v>
       </c>
       <c r="D595">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2.0000000002795559E-5</v>
       </c>
     </row>
@@ -23400,7 +23445,7 @@
         <v>17.517499999999998</v>
       </c>
       <c r="D596">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2.0000000002795559E-5</v>
       </c>
     </row>
@@ -23415,7 +23460,7 @@
         <v>17.622299999999999</v>
       </c>
       <c r="D597">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -23430,7 +23475,7 @@
         <v>17.723400000000002</v>
       </c>
       <c r="D598">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -23445,7 +23490,7 @@
         <v>17.821100000000001</v>
       </c>
       <c r="D599">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -23460,7 +23505,7 @@
         <v>17.915500000000002</v>
       </c>
       <c r="D600">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.0000000002416982E-5</v>
       </c>
     </row>
@@ -23475,7 +23520,7 @@
         <v>18.006599999999999</v>
       </c>
       <c r="D601">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -23490,7 +23535,7 @@
         <v>18.0945</v>
       </c>
       <c r="D602">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23505,7 +23550,7 @@
         <v>18.179400000000001</v>
       </c>
       <c r="D603">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.0000000002416982E-5</v>
       </c>
     </row>
@@ -23520,7 +23565,7 @@
         <v>18.261299999999999</v>
       </c>
       <c r="D604">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -23535,7 +23580,7 @@
         <v>18.340299999999999</v>
       </c>
       <c r="D605">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -23550,7 +23595,7 @@
         <v>18.416599999999999</v>
       </c>
       <c r="D606">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -23565,7 +23610,7 @@
         <v>18.490100000000002</v>
       </c>
       <c r="D607">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -23580,7 +23625,7 @@
         <v>18.5611</v>
       </c>
       <c r="D608">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23595,7 +23640,7 @@
         <v>18.6295</v>
       </c>
       <c r="D609">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -23610,7 +23655,7 @@
         <v>18.695499999999999</v>
       </c>
       <c r="D610">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-3.0000000002416982E-5</v>
       </c>
     </row>
@@ -23625,7 +23670,7 @@
         <v>18.7592</v>
       </c>
       <c r="D611">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -23640,7 +23685,7 @@
         <v>18.820499999999999</v>
       </c>
       <c r="D612">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -23655,7 +23700,7 @@
         <v>18.8797</v>
       </c>
       <c r="D613">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -23670,7 +23715,7 @@
         <v>18.936699999999998</v>
       </c>
       <c r="D614">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -23685,7 +23730,7 @@
         <v>18.991599999999998</v>
       </c>
       <c r="D615">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-3.0000000002416982E-5</v>
       </c>
     </row>
@@ -23700,7 +23745,7 @@
         <v>19.044599999999999</v>
       </c>
       <c r="D616">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -23715,7 +23760,7 @@
         <v>19.095600000000001</v>
       </c>
       <c r="D617">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -23730,7 +23775,7 @@
         <v>19.1448</v>
       </c>
       <c r="D618">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -23745,7 +23790,7 @@
         <v>19.1922</v>
       </c>
       <c r="D619">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -23760,7 +23805,7 @@
         <v>19.2378</v>
       </c>
       <c r="D620">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -23775,7 +23820,7 @@
         <v>19.2818</v>
       </c>
       <c r="D621">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -23790,7 +23835,7 @@
         <v>19.324200000000001</v>
       </c>
       <c r="D622">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.0000000002795559E-5</v>
       </c>
     </row>
@@ -23805,7 +23850,7 @@
         <v>19.364999999999998</v>
       </c>
       <c r="D623">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -23820,7 +23865,7 @@
         <v>19.404299999999999</v>
       </c>
       <c r="D624">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -23835,7 +23880,7 @@
         <v>19.4421</v>
       </c>
       <c r="D625">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -23850,7 +23895,7 @@
         <v>19.4786</v>
       </c>
       <c r="D626">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -23865,7 +23910,7 @@
         <v>19.5137</v>
       </c>
       <c r="D627">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -23880,7 +23925,7 @@
         <v>19.547499999999999</v>
       </c>
       <c r="D628">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -23895,7 +23940,7 @@
         <v>19.579999999999998</v>
       </c>
       <c r="D629">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-1.0000000003174137E-5</v>
       </c>
     </row>
@@ -23910,7 +23955,7 @@
         <v>19.6113</v>
       </c>
       <c r="D630">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -23925,7 +23970,7 @@
         <v>19.641500000000001</v>
       </c>
       <c r="D631">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -23940,7 +23985,7 @@
         <v>19.670500000000001</v>
       </c>
       <c r="D632">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -23955,7 +24000,7 @@
         <v>19.698499999999999</v>
       </c>
       <c r="D633">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -23970,7 +24015,7 @@
         <v>19.7254</v>
       </c>
       <c r="D634">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -23985,7 +24030,7 @@
         <v>19.751300000000001</v>
       </c>
       <c r="D635">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.0000000002038405E-5</v>
       </c>
     </row>
@@ -24000,7 +24045,7 @@
         <v>19.776199999999999</v>
       </c>
       <c r="D636">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -24015,7 +24060,7 @@
         <v>19.8002</v>
       </c>
       <c r="D637">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -24030,7 +24075,7 @@
         <v>19.8232</v>
       </c>
       <c r="D638">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -24045,7 +24090,7 @@
         <v>19.845400000000001</v>
       </c>
       <c r="D639">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -24060,7 +24105,7 @@
         <v>19.866800000000001</v>
       </c>
       <c r="D640">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -24075,7 +24120,7 @@
         <v>19.8874</v>
       </c>
       <c r="D641">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -24090,7 +24135,7 @@
         <v>19.9072</v>
       </c>
       <c r="D642">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -24105,7 +24150,7 @@
         <v>19.926200000000001</v>
       </c>
       <c r="D643">
-        <f t="shared" ref="D643:D706" si="14">C643-B643</f>
+        <f t="shared" ref="D643:D706" si="12">C643-B643</f>
         <v>0</v>
       </c>
     </row>
@@ -24120,7 +24165,7 @@
         <v>19.944500000000001</v>
       </c>
       <c r="D644">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -24135,7 +24180,7 @@
         <v>19.9621</v>
       </c>
       <c r="D645">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>-4.0000000002038405E-5</v>
       </c>
     </row>
@@ -24150,7 +24195,7 @@
         <v>19.979099999999999</v>
       </c>
       <c r="D646">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -24165,7 +24210,7 @@
         <v>19.9954</v>
       </c>
       <c r="D647">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24180,7 +24225,7 @@
         <v>20.011099999999999</v>
       </c>
       <c r="D648">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -24195,7 +24240,7 @@
         <v>17.5991</v>
       </c>
       <c r="D649">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.0999999999892225E-4</v>
       </c>
     </row>
@@ -24210,7 +24255,7 @@
         <v>15.4382</v>
       </c>
       <c r="D650">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2.9999999999930083E-4</v>
       </c>
     </row>
@@ -24225,7 +24270,7 @@
         <v>13.5084</v>
       </c>
       <c r="D651">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2.0999999999915531E-4</v>
       </c>
     </row>
@@ -24240,7 +24285,7 @@
         <v>11.791399999999999</v>
       </c>
       <c r="D652">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2.4999999999941735E-4</v>
       </c>
     </row>
@@ -24255,7 +24300,7 @@
         <v>10.2698</v>
       </c>
       <c r="D653">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.8999999999991246E-4</v>
       </c>
     </row>
@@ -24270,7 +24315,7 @@
         <v>8.9278600000000008</v>
       </c>
       <c r="D654">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2.1900000000130149E-4</v>
       </c>
     </row>
@@ -24285,7 +24330,7 @@
         <v>7.7506700000000004</v>
       </c>
       <c r="D655">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2.1000000000004349E-4</v>
       </c>
     </row>
@@ -24300,7 +24345,7 @@
         <v>6.7245799999999996</v>
       </c>
       <c r="D656">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2.049999999993446E-4</v>
       </c>
     </row>
@@ -24315,7 +24360,7 @@
         <v>5.8368900000000004</v>
       </c>
       <c r="D657">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.9700000000000273E-4</v>
       </c>
     </row>
@@ -24330,7 +24375,7 @@
         <v>5.0758400000000004</v>
       </c>
       <c r="D658">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.8300000000071037E-4</v>
       </c>
     </row>
@@ -24345,7 +24390,7 @@
         <v>4.4305599999999998</v>
       </c>
       <c r="D659">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.8199999999968242E-4</v>
       </c>
     </row>
@@ -24360,7 +24405,7 @@
         <v>3.8909500000000001</v>
       </c>
       <c r="D660">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.7400000000034055E-4</v>
       </c>
     </row>
@@ -24375,7 +24420,7 @@
         <v>3.4476900000000001</v>
       </c>
       <c r="D661">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.6700000000025028E-4</v>
       </c>
     </row>
@@ -24390,7 +24435,7 @@
         <v>3.0921500000000002</v>
       </c>
       <c r="D662">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.5800000000032455E-4</v>
       </c>
     </row>
@@ -24405,7 +24450,7 @@
         <v>2.81636</v>
       </c>
       <c r="D663">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.5199999999992997E-4</v>
       </c>
     </row>
@@ -24420,7 +24465,7 @@
         <v>2.6129500000000001</v>
       </c>
       <c r="D664">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.5199999999992997E-4</v>
       </c>
     </row>
@@ -24435,7 +24480,7 @@
         <v>2.4750999999999999</v>
       </c>
       <c r="D665">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.4399999999969992E-4</v>
       </c>
     </row>
@@ -24450,7 +24495,7 @@
         <v>2.3965299999999998</v>
       </c>
       <c r="D666">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.3499999999977419E-4</v>
       </c>
     </row>
@@ -24465,7 +24510,7 @@
         <v>2.3714499999999998</v>
       </c>
       <c r="D667">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.3199999999979894E-4</v>
       </c>
     </row>
@@ -24480,7 +24525,7 @@
         <v>2.3944999999999999</v>
       </c>
       <c r="D668">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.2499999999970868E-4</v>
       </c>
     </row>
@@ -24495,7 +24540,7 @@
         <v>2.4607600000000001</v>
       </c>
       <c r="D669">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.2100000000003774E-4</v>
       </c>
     </row>
@@ -24510,7 +24555,7 @@
         <v>2.56569</v>
       </c>
       <c r="D670">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.1999999999989797E-4</v>
       </c>
     </row>
@@ -24525,7 +24570,7 @@
         <v>2.7050999999999998</v>
       </c>
       <c r="D671">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.0799999999999699E-4</v>
       </c>
     </row>
@@ -24540,7 +24585,7 @@
         <v>2.8751699999999998</v>
       </c>
       <c r="D672">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.0799999999999699E-4</v>
       </c>
     </row>
@@ -24555,7 +24600,7 @@
         <v>3.0723500000000001</v>
       </c>
       <c r="D673">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.0100000000035081E-4</v>
       </c>
     </row>
@@ -24570,7 +24615,7 @@
         <v>3.2934100000000002</v>
       </c>
       <c r="D674">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000021103E-4</v>
       </c>
     </row>
@@ -24585,7 +24630,7 @@
         <v>3.5353699999999999</v>
       </c>
       <c r="D675">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>9.6999999999791697E-5</v>
       </c>
     </row>
@@ -24600,7 +24645,7 @@
         <v>3.7955000000000001</v>
       </c>
       <c r="D676">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>9.1000000000285297E-5</v>
       </c>
     </row>
@@ -24615,7 +24660,7 @@
         <v>4.0713100000000004</v>
       </c>
       <c r="D677">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>8.8000000000754142E-5</v>
       </c>
     </row>
@@ -24630,7 +24675,7 @@
         <v>4.3605099999999997</v>
       </c>
       <c r="D678">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>8.0999999999775696E-5</v>
       </c>
     </row>
@@ -24645,7 +24690,7 @@
         <v>4.6610199999999997</v>
       </c>
       <c r="D679">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>7.7000000000104762E-5</v>
       </c>
     </row>
@@ -24660,7 +24705,7 @@
         <v>4.9709399999999997</v>
       </c>
       <c r="D680">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>7.9999999999635918E-5</v>
       </c>
     </row>
@@ -24675,7 +24720,7 @@
         <v>5.2885200000000001</v>
       </c>
       <c r="D681">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>7.3999999999685429E-5</v>
       </c>
     </row>
@@ -24690,7 +24735,7 @@
         <v>5.61219</v>
       </c>
       <c r="D682">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>6.8999999999874717E-5</v>
       </c>
     </row>
@@ -24705,7 +24750,7 @@
         <v>5.9405200000000002</v>
       </c>
       <c r="D683">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>6.8999999999874717E-5</v>
       </c>
     </row>
@@ -24720,7 +24765,7 @@
         <v>6.2721999999999998</v>
       </c>
       <c r="D684">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>6.5999999999455383E-5</v>
       </c>
     </row>
@@ -24735,7 +24780,7 @@
         <v>6.6060600000000003</v>
       </c>
       <c r="D685">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>6.700000000048334E-5</v>
       </c>
     </row>
@@ -24750,7 +24795,7 @@
         <v>6.94102</v>
       </c>
       <c r="D686">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>5.8000000000113516E-5</v>
       </c>
     </row>
@@ -24765,7 +24810,7 @@
         <v>7.2761399999999998</v>
       </c>
       <c r="D687">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>5.6999999999973738E-5</v>
       </c>
     </row>
@@ -24780,7 +24825,7 @@
         <v>7.6105499999999999</v>
       </c>
       <c r="D688">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>5.6999999999973738E-5</v>
       </c>
     </row>
@@ -24795,7 +24840,7 @@
         <v>7.9434699999999996</v>
       </c>
       <c r="D689">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>5.1999999999274849E-5</v>
       </c>
     </row>
@@ -24810,7 +24855,7 @@
         <v>8.2742199999999997</v>
       </c>
       <c r="D690">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>5.4000000000442583E-5</v>
       </c>
     </row>
@@ -24825,7 +24870,7 @@
         <v>8.6021699999999992</v>
       </c>
       <c r="D691">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>4.8999999998855515E-5</v>
       </c>
     </row>
@@ -24840,7 +24885,7 @@
         <v>8.9267900000000004</v>
       </c>
       <c r="D692">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>5.3000000001190983E-5</v>
       </c>
     </row>
@@ -24855,7 +24900,7 @@
         <v>9.2475799999999992</v>
       </c>
       <c r="D693">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>4.8999999998855515E-5</v>
       </c>
     </row>
@@ -24870,7 +24915,7 @@
         <v>9.5641200000000008</v>
       </c>
       <c r="D694">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>4.300000000156956E-5</v>
       </c>
     </row>
@@ -24885,7 +24930,7 @@
         <v>9.8760499999999993</v>
       </c>
       <c r="D695">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>4.3999999999044803E-5</v>
       </c>
     </row>
@@ -24900,7 +24945,7 @@
         <v>10.183</v>
       </c>
       <c r="D696">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -24915,7 +24960,7 @@
         <v>10.4848</v>
       </c>
       <c r="D697">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.0000000000640625E-5</v>
       </c>
     </row>
@@ -24930,7 +24975,7 @@
         <v>10.7811</v>
       </c>
       <c r="D698">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -24945,7 +24990,7 @@
         <v>11.0718</v>
       </c>
       <c r="D699">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>4.0000000000262048E-5</v>
       </c>
     </row>
@@ -24960,7 +25005,7 @@
         <v>11.3567</v>
       </c>
       <c r="D700">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>8.0000000000524096E-5</v>
       </c>
     </row>
@@ -24975,7 +25020,7 @@
         <v>11.6356</v>
       </c>
       <c r="D701">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>5.9999999999504894E-5</v>
       </c>
     </row>
@@ -24990,7 +25035,7 @@
         <v>11.9084</v>
       </c>
       <c r="D702">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -25005,7 +25050,7 @@
         <v>12.1752</v>
       </c>
       <c r="D703">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>5.9999999999504894E-5</v>
       </c>
     </row>
@@ -25020,7 +25065,7 @@
         <v>12.435700000000001</v>
       </c>
       <c r="D704">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -25035,7 +25080,7 @@
         <v>12.690099999999999</v>
       </c>
       <c r="D705">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>5.9999999999504894E-5</v>
       </c>
     </row>
@@ -25050,7 +25095,7 @@
         <v>12.9382</v>
       </c>
       <c r="D706">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>4.0000000000262048E-5</v>
       </c>
     </row>
@@ -25065,7 +25110,7 @@
         <v>13.180099999999999</v>
       </c>
       <c r="D707">
-        <f t="shared" ref="D707:D770" si="15">C707-B707</f>
+        <f t="shared" ref="D707:D770" si="13">C707-B707</f>
         <v>5.9999999999504894E-5</v>
       </c>
     </row>
@@ -25080,7 +25125,7 @@
         <v>13.415699999999999</v>
       </c>
       <c r="D708">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-2.0000000001019203E-5</v>
       </c>
     </row>
@@ -25095,7 +25140,7 @@
         <v>13.645300000000001</v>
       </c>
       <c r="D709">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>8.0000000000524096E-5</v>
       </c>
     </row>
@@ -25110,7 +25155,7 @@
         <v>13.868600000000001</v>
       </c>
       <c r="D710">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25125,7 +25170,7 @@
         <v>14.085900000000001</v>
       </c>
       <c r="D711">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>1.000000000139778E-5</v>
       </c>
     </row>
@@ -25140,7 +25185,7 @@
         <v>14.2972</v>
       </c>
       <c r="D712">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>3.0000000000640625E-5</v>
       </c>
     </row>
@@ -25155,7 +25200,7 @@
         <v>14.5025</v>
       </c>
       <c r="D713">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-2.0000000001019203E-5</v>
       </c>
     </row>
@@ -25170,7 +25215,7 @@
         <v>14.702</v>
       </c>
       <c r="D714">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -25185,7 +25230,7 @@
         <v>14.895799999999999</v>
       </c>
       <c r="D715">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>5.9999999999504894E-5</v>
       </c>
     </row>
@@ -25200,7 +25245,7 @@
         <v>15.0838</v>
       </c>
       <c r="D716">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -25215,7 +25260,7 @@
         <v>15.266299999999999</v>
       </c>
       <c r="D717">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -25230,7 +25275,7 @@
         <v>15.443300000000001</v>
       </c>
       <c r="D718">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>4.0000000000262048E-5</v>
       </c>
     </row>
@@ -25245,7 +25290,7 @@
         <v>15.6149</v>
       </c>
       <c r="D719">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -25260,7 +25305,7 @@
         <v>15.7813</v>
       </c>
       <c r="D720">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>3.0000000000640625E-5</v>
       </c>
     </row>
@@ -25275,7 +25320,7 @@
         <v>15.942500000000001</v>
       </c>
       <c r="D721">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25290,7 +25335,7 @@
         <v>16.098700000000001</v>
       </c>
       <c r="D722">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25305,7 +25350,7 @@
         <v>16.25</v>
       </c>
       <c r="D723">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -25320,7 +25365,7 @@
         <v>16.3965</v>
       </c>
       <c r="D724">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>4.9999999998107114E-5</v>
       </c>
     </row>
@@ -25335,7 +25380,7 @@
         <v>16.5382</v>
       </c>
       <c r="D725">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -25350,7 +25395,7 @@
         <v>16.6755</v>
       </c>
       <c r="D726">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>6.0000000001281251E-5</v>
       </c>
     </row>
@@ -25365,7 +25410,7 @@
         <v>16.808199999999999</v>
       </c>
       <c r="D727">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25380,7 +25425,7 @@
         <v>16.936599999999999</v>
       </c>
       <c r="D728">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-1.0000000003174137E-5</v>
       </c>
     </row>
@@ -25395,7 +25440,7 @@
         <v>17.0608</v>
       </c>
       <c r="D729">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25410,7 +25455,7 @@
         <v>17.180900000000001</v>
       </c>
       <c r="D730">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>3.0000000002416982E-5</v>
       </c>
     </row>
@@ -25425,7 +25470,7 @@
         <v>17.297000000000001</v>
       </c>
       <c r="D731">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>6.0000000001281251E-5</v>
       </c>
     </row>
@@ -25440,7 +25485,7 @@
         <v>17.409099999999999</v>
       </c>
       <c r="D732">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-2.0000000002795559E-5</v>
       </c>
     </row>
@@ -25455,7 +25500,7 @@
         <v>17.517499999999998</v>
       </c>
       <c r="D733">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-2.0000000002795559E-5</v>
       </c>
     </row>
@@ -25470,7 +25515,7 @@
         <v>17.622299999999999</v>
       </c>
       <c r="D734">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -25485,7 +25530,7 @@
         <v>17.723400000000002</v>
       </c>
       <c r="D735">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -25500,7 +25545,7 @@
         <v>17.821100000000001</v>
       </c>
       <c r="D736">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -25515,7 +25560,7 @@
         <v>17.915500000000002</v>
       </c>
       <c r="D737">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>3.0000000002416982E-5</v>
       </c>
     </row>
@@ -25530,7 +25575,7 @@
         <v>18.006599999999999</v>
       </c>
       <c r="D738">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -25545,7 +25590,7 @@
         <v>18.0945</v>
       </c>
       <c r="D739">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25560,7 +25605,7 @@
         <v>18.179400000000001</v>
       </c>
       <c r="D740">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>3.0000000002416982E-5</v>
       </c>
     </row>
@@ -25575,7 +25620,7 @@
         <v>18.261299999999999</v>
       </c>
       <c r="D741">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -25590,7 +25635,7 @@
         <v>18.340299999999999</v>
       </c>
       <c r="D742">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -25605,7 +25650,7 @@
         <v>18.416599999999999</v>
       </c>
       <c r="D743">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -25620,7 +25665,7 @@
         <v>18.490100000000002</v>
       </c>
       <c r="D744">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -25635,7 +25680,7 @@
         <v>18.5611</v>
       </c>
       <c r="D745">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -25650,7 +25695,7 @@
         <v>18.6295</v>
       </c>
       <c r="D746">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -25665,7 +25710,7 @@
         <v>18.695499999999999</v>
       </c>
       <c r="D747">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-3.0000000002416982E-5</v>
       </c>
     </row>
@@ -25680,7 +25725,7 @@
         <v>18.7592</v>
       </c>
       <c r="D748">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -25695,7 +25740,7 @@
         <v>18.820499999999999</v>
       </c>
       <c r="D749">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -25710,7 +25755,7 @@
         <v>18.8797</v>
       </c>
       <c r="D750">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -25725,7 +25770,7 @@
         <v>18.936699999999998</v>
       </c>
       <c r="D751">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -25740,7 +25785,7 @@
         <v>18.991599999999998</v>
       </c>
       <c r="D752">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-3.0000000002416982E-5</v>
       </c>
     </row>
@@ -25755,7 +25800,7 @@
         <v>19.044599999999999</v>
       </c>
       <c r="D753">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -25770,7 +25815,7 @@
         <v>19.095600000000001</v>
       </c>
       <c r="D754">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -25785,7 +25830,7 @@
         <v>19.1448</v>
       </c>
       <c r="D755">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -25800,7 +25845,7 @@
         <v>19.1922</v>
       </c>
       <c r="D756">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -25815,7 +25860,7 @@
         <v>19.2378</v>
       </c>
       <c r="D757">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -25830,7 +25875,7 @@
         <v>19.2818</v>
       </c>
       <c r="D758">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -25845,7 +25890,7 @@
         <v>19.324200000000001</v>
       </c>
       <c r="D759">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>2.0000000002795559E-5</v>
       </c>
     </row>
@@ -25860,7 +25905,7 @@
         <v>19.364999999999998</v>
       </c>
       <c r="D760">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -25875,7 +25920,7 @@
         <v>19.404299999999999</v>
       </c>
       <c r="D761">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -25890,7 +25935,7 @@
         <v>19.4421</v>
       </c>
       <c r="D762">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -25905,7 +25950,7 @@
         <v>19.4786</v>
       </c>
       <c r="D763">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -25920,7 +25965,7 @@
         <v>19.5137</v>
       </c>
       <c r="D764">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -25935,7 +25980,7 @@
         <v>19.547499999999999</v>
       </c>
       <c r="D765">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -25950,7 +25995,7 @@
         <v>19.579999999999998</v>
       </c>
       <c r="D766">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-1.0000000003174137E-5</v>
       </c>
     </row>
@@ -25965,7 +26010,7 @@
         <v>19.6113</v>
       </c>
       <c r="D767">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -25980,7 +26025,7 @@
         <v>19.641500000000001</v>
       </c>
       <c r="D768">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -25995,7 +26040,7 @@
         <v>19.670500000000001</v>
       </c>
       <c r="D769">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-1.9999999999242846E-5</v>
       </c>
     </row>
@@ -26010,7 +26055,7 @@
         <v>19.698499999999999</v>
       </c>
       <c r="D770">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -26025,7 +26070,7 @@
         <v>19.7254</v>
       </c>
       <c r="D771">
-        <f t="shared" ref="D771:D834" si="16">C771-B771</f>
+        <f t="shared" ref="D771:D834" si="14">C771-B771</f>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -26040,7 +26085,7 @@
         <v>19.751300000000001</v>
       </c>
       <c r="D772">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>4.0000000002038405E-5</v>
       </c>
     </row>
@@ -26055,7 +26100,7 @@
         <v>19.776199999999999</v>
       </c>
       <c r="D773">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -26070,7 +26115,7 @@
         <v>19.8002</v>
       </c>
       <c r="D774">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -26085,7 +26130,7 @@
         <v>19.8232</v>
       </c>
       <c r="D775">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-2.9999999998864268E-5</v>
       </c>
     </row>
@@ -26100,7 +26145,7 @@
         <v>19.845400000000001</v>
       </c>
       <c r="D776">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.9999999998485691E-5</v>
       </c>
     </row>
@@ -26115,7 +26160,7 @@
         <v>19.866800000000001</v>
       </c>
       <c r="D777">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -26130,7 +26175,7 @@
         <v>19.8874</v>
       </c>
       <c r="D778">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2.9999999998864268E-5</v>
       </c>
     </row>
@@ -26145,7 +26190,7 @@
         <v>19.9072</v>
       </c>
       <c r="D779">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>3.9999999998485691E-5</v>
       </c>
     </row>
@@ -26160,7 +26205,7 @@
         <v>19.926200000000001</v>
       </c>
       <c r="D780">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26175,7 +26220,7 @@
         <v>19.944500000000001</v>
       </c>
       <c r="D781">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-9.9999999996214228E-6</v>
       </c>
     </row>
@@ -26190,7 +26235,7 @@
         <v>19.9621</v>
       </c>
       <c r="D782">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-4.0000000002038405E-5</v>
       </c>
     </row>
@@ -26205,7 +26250,7 @@
         <v>19.979099999999999</v>
       </c>
       <c r="D783">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>9.9999999996214228E-6</v>
       </c>
     </row>
@@ -26220,7 +26265,7 @@
         <v>19.9954</v>
       </c>
       <c r="D784">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -26235,7 +26280,7 @@
         <v>20.011099999999999</v>
       </c>
       <c r="D785">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.9999999999242846E-5</v>
       </c>
     </row>
@@ -26250,7 +26295,7 @@
         <v>17.5991</v>
       </c>
       <c r="D786">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>3.0999999999892225E-4</v>
       </c>
     </row>
@@ -26265,7 +26310,7 @@
         <v>15.4382</v>
       </c>
       <c r="D787">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2.9999999999930083E-4</v>
       </c>
     </row>
@@ -26280,7 +26325,7 @@
         <v>13.5084</v>
       </c>
       <c r="D788">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2.0999999999915531E-4</v>
       </c>
     </row>
@@ -26295,7 +26340,7 @@
         <v>11.791399999999999</v>
       </c>
       <c r="D789">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2.4999999999941735E-4</v>
       </c>
     </row>
@@ -26310,7 +26355,7 @@
         <v>10.2698</v>
       </c>
       <c r="D790">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.8999999999991246E-4</v>
       </c>
     </row>
@@ -26325,7 +26370,7 @@
         <v>8.9278600000000008</v>
       </c>
       <c r="D791">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2.1900000000130149E-4</v>
       </c>
     </row>
@@ -26340,7 +26385,7 @@
         <v>7.7506700000000004</v>
       </c>
       <c r="D792">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2.1000000000004349E-4</v>
       </c>
     </row>
@@ -26355,7 +26400,7 @@
         <v>6.7245799999999996</v>
       </c>
       <c r="D793">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2.049999999993446E-4</v>
       </c>
     </row>
@@ -26370,7 +26415,7 @@
         <v>5.8368900000000004</v>
       </c>
       <c r="D794">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.9700000000000273E-4</v>
       </c>
     </row>
@@ -26385,7 +26430,7 @@
         <v>5.0758400000000004</v>
       </c>
       <c r="D795">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.8300000000071037E-4</v>
       </c>
     </row>
@@ -26400,7 +26445,7 @@
         <v>4.4305599999999998</v>
       </c>
       <c r="D796">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.8199999999968242E-4</v>
       </c>
     </row>
@@ -26415,7 +26460,7 @@
         <v>3.8909500000000001</v>
       </c>
       <c r="D797">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.7400000000034055E-4</v>
       </c>
     </row>
@@ -26430,7 +26475,7 @@
         <v>3.4476900000000001</v>
       </c>
       <c r="D798">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.6700000000025028E-4</v>
       </c>
     </row>
@@ -26445,7 +26490,7 @@
         <v>3.0921500000000002</v>
       </c>
       <c r="D799">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.5800000000032455E-4</v>
       </c>
     </row>
@@ -26460,7 +26505,7 @@
         <v>2.81636</v>
       </c>
       <c r="D800">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.5199999999992997E-4</v>
       </c>
     </row>
@@ -26475,7 +26520,7 @@
         <v>2.6129500000000001</v>
       </c>
       <c r="D801">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.5199999999992997E-4</v>
       </c>
     </row>
@@ -26490,7 +26535,7 @@
         <v>1.6751</v>
       </c>
       <c r="D802">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.4400000000014401E-4</v>
       </c>
     </row>
@@ -26505,7 +26550,7 @@
         <v>0.82789999999999997</v>
       </c>
       <c r="D803">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.3609999999997235E-4</v>
       </c>
     </row>
@@ -26520,7 +26565,7 @@
         <v>6.4323699999999998E-2</v>
       </c>
       <c r="D804">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.306299999999927E-4</v>
       </c>
     </row>
@@ -26535,7 +26580,7 @@
         <v>-0.62216000000000005</v>
       </c>
       <c r="D805">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.2599999999995948E-4</v>
       </c>
     </row>
@@ -26550,7 +26595,7 @@
         <v>-1.2376199999999999</v>
       </c>
       <c r="D806">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.1700000000014477E-4</v>
       </c>
     </row>
@@ -26565,7 +26610,7 @@
         <v>-1.7876700000000001</v>
       </c>
       <c r="D807">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.1999999999989797E-4</v>
       </c>
     </row>
@@ -26580,7 +26625,7 @@
         <v>-2.2775599999999998</v>
       </c>
       <c r="D808">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.1000000000027654E-4</v>
       </c>
     </row>
@@ -26595,7 +26640,7 @@
         <v>-2.7121200000000001</v>
       </c>
       <c r="D809">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.0799999999999699E-4</v>
       </c>
     </row>
@@ -26610,7 +26655,7 @@
         <v>-3.0958600000000001</v>
       </c>
       <c r="D810">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>9.9999999999766942E-5</v>
       </c>
     </row>
@@ -26625,7 +26670,7 @@
         <v>-3.4329399999999999</v>
       </c>
       <c r="D811">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>9.9000000000071253E-5</v>
       </c>
     </row>
@@ -26640,7 +26685,7 @@
         <v>-3.7272400000000001</v>
       </c>
       <c r="D812">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>9.1999999999980986E-5</v>
       </c>
     </row>
@@ -26655,7 +26700,7 @@
         <v>-3.9823300000000001</v>
       </c>
       <c r="D813">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>9.4999999999956231E-5</v>
       </c>
     </row>
@@ -26670,7 +26715,7 @@
         <v>-4.2015500000000001</v>
       </c>
       <c r="D814">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>8.9000000000005741E-5</v>
       </c>
     </row>
@@ -26685,7 +26730,7 @@
         <v>-4.3879599999999996</v>
       </c>
       <c r="D815">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>8.8000000000754142E-5</v>
       </c>
     </row>
@@ -26700,7 +26745,7 @@
         <v>-4.5444199999999997</v>
       </c>
       <c r="D816">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>8.0000000000524096E-5</v>
       </c>
     </row>
@@ -26715,7 +26760,7 @@
         <v>-4.6735499999999996</v>
       </c>
       <c r="D817">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>8.1999999999915474E-5</v>
       </c>
     </row>
@@ -26730,7 +26775,7 @@
         <v>-4.7778</v>
       </c>
       <c r="D818">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>7.9999999999635918E-5</v>
       </c>
     </row>
@@ -26745,7 +26790,7 @@
         <v>-4.8594299999999997</v>
       </c>
       <c r="D819">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>6.8000000000623118E-5</v>
       </c>
     </row>
@@ -26760,7 +26805,7 @@
         <v>-4.9204999999999997</v>
       </c>
       <c r="D820">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>7.0000000000014495E-5</v>
       </c>
     </row>
@@ -26775,7 +26820,7 @@
         <v>-4.9629500000000002</v>
       </c>
       <c r="D821">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>7.0000000000014495E-5</v>
       </c>
     </row>
@@ -26790,7 +26835,7 @@
         <v>-4.9885599999999997</v>
       </c>
       <c r="D822">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>6.4000000000064006E-5</v>
       </c>
     </row>
@@ -26805,7 +26850,7 @@
         <v>-4.9989600000000003</v>
       </c>
       <c r="D823">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>6.2999999999924228E-5</v>
       </c>
     </row>
@@ -26820,7 +26865,7 @@
         <v>-4.9956699999999996</v>
       </c>
       <c r="D824">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>5.8000000000113516E-5</v>
       </c>
     </row>
@@ -26835,7 +26880,7 @@
         <v>-4.9800800000000001</v>
       </c>
       <c r="D825">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>5.3000000000302805E-5</v>
       </c>
     </row>
@@ -26850,7 +26895,7 @@
         <v>-4.9534700000000003</v>
       </c>
       <c r="D826">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>5.2000000000163027E-5</v>
       </c>
     </row>
@@ -26865,7 +26910,7 @@
         <v>-4.9170199999999999</v>
       </c>
       <c r="D827">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>5.6999999999973738E-5</v>
       </c>
     </row>
@@ -26880,7 +26925,7 @@
         <v>-4.8718300000000001</v>
       </c>
       <c r="D828">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>5.3999999999554404E-5</v>
       </c>
     </row>
@@ -26895,7 +26940,7 @@
         <v>-4.8189000000000002</v>
       </c>
       <c r="D829">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>4.3999999999932982E-5</v>
       </c>
     </row>
@@ -26910,7 +26955,7 @@
         <v>-4.7591299999999999</v>
       </c>
       <c r="D830">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>4.3999999999932982E-5</v>
       </c>
     </row>
@@ -26925,7 +26970,7 @@
         <v>-4.6933699999999998</v>
       </c>
       <c r="D831">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>4.7000000000352316E-5</v>
       </c>
     </row>
@@ -26940,7 +26985,7 @@
         <v>-4.6223999999999998</v>
       </c>
       <c r="D832">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>4.2999999999793204E-5</v>
       </c>
     </row>
@@ -26955,7 +27000,7 @@
         <v>-4.5469200000000001</v>
       </c>
       <c r="D833">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>4.0999999999513648E-5</v>
       </c>
     </row>
@@ -26970,7 +27015,7 @@
         <v>-4.4675799999999999</v>
       </c>
       <c r="D834">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>3.7999999999982492E-5</v>
       </c>
     </row>
@@ -26985,7 +27030,7 @@
         <v>-4.38497</v>
       </c>
       <c r="D835">
-        <f t="shared" ref="D835:D898" si="17">C835-B835</f>
+        <f t="shared" ref="D835:D898" si="15">C835-B835</f>
         <v>3.4000000000311559E-5</v>
       </c>
     </row>
@@ -27000,7 +27045,7 @@
         <v>-4.29962</v>
       </c>
       <c r="D836">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>4.0000000000262048E-5</v>
       </c>
     </row>
@@ -27015,7 +27060,7 @@
         <v>-4.21204</v>
       </c>
       <c r="D837">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>3.7999999999982492E-5</v>
       </c>
     </row>
@@ -27030,7 +27075,7 @@
         <v>-4.1226700000000003</v>
       </c>
       <c r="D838">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>3.4999999999563158E-5</v>
       </c>
     </row>
@@ -27045,7 +27090,7 @@
         <v>-4.0319200000000004</v>
       </c>
       <c r="D839">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.8999999999612669E-5</v>
       </c>
     </row>
@@ -27060,7 +27105,7 @@
         <v>-3.94015</v>
       </c>
       <c r="D840">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.9000000000056758E-5</v>
       </c>
     </row>
@@ -27075,7 +27120,7 @@
         <v>-3.8477000000000001</v>
       </c>
       <c r="D841">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.9999999999752447E-5</v>
       </c>
     </row>
@@ -27090,7 +27135,7 @@
         <v>-3.7548699999999999</v>
       </c>
       <c r="D842">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>3.399999999986747E-5</v>
       </c>
     </row>
@@ -27105,7 +27150,7 @@
         <v>-3.66195</v>
       </c>
       <c r="D843">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.3999999999801958E-5</v>
       </c>
     </row>
@@ -27120,7 +27165,7 @@
         <v>-3.5691600000000001</v>
       </c>
       <c r="D844">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.6000000000081513E-5</v>
       </c>
     </row>
@@ -27135,7 +27180,7 @@
         <v>-3.4767299999999999</v>
       </c>
       <c r="D845">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>3.0000000000196536E-5</v>
       </c>
     </row>
@@ -27150,7 +27195,7 @@
         <v>-3.3848699999999998</v>
       </c>
       <c r="D846">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.4000000000246047E-5</v>
       </c>
     </row>
@@ -27165,7 +27210,7 @@
         <v>-3.2937400000000001</v>
       </c>
       <c r="D847">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.1999999999966491E-5</v>
       </c>
     </row>
@@ -27180,7 +27225,7 @@
         <v>-3.2035</v>
       </c>
       <c r="D848">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.0999999999826713E-5</v>
       </c>
     </row>
@@ -27195,7 +27240,7 @@
         <v>-3.11429</v>
       </c>
       <c r="D849">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.8999999999991246E-5</v>
       </c>
     </row>
@@ -27210,7 +27255,7 @@
         <v>-3.02623</v>
       </c>
       <c r="D850">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.7000000000155779E-5</v>
       </c>
     </row>
@@ -27225,7 +27270,7 @@
         <v>-2.9394200000000001</v>
       </c>
       <c r="D851">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.299999999966218E-5</v>
       </c>
     </row>
@@ -27240,7 +27285,7 @@
         <v>-2.8539699999999999</v>
       </c>
       <c r="D852">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.7000000000155779E-5</v>
       </c>
     </row>
@@ -27255,7 +27300,7 @@
         <v>-2.7699400000000001</v>
       </c>
       <c r="D853">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000131024E-5</v>
       </c>
     </row>
@@ -27270,7 +27315,7 @@
         <v>-2.6874099999999999</v>
       </c>
       <c r="D854">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000131024E-5</v>
       </c>
     </row>
@@ -27285,7 +27330,7 @@
         <v>-2.6064400000000001</v>
       </c>
       <c r="D855">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.3999999999736445E-5</v>
       </c>
     </row>
@@ -27300,7 +27345,7 @@
         <v>-2.5270600000000001</v>
       </c>
       <c r="D856">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000131024E-5</v>
       </c>
     </row>
@@ -27315,7 +27360,7 @@
         <v>-2.4493299999999998</v>
       </c>
       <c r="D857">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.5000000000320313E-5</v>
       </c>
     </row>
@@ -27330,7 +27375,7 @@
         <v>-2.3732700000000002</v>
       </c>
       <c r="D858">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.1999999999900979E-5</v>
       </c>
     </row>
@@ -27345,7 +27390,7 @@
         <v>-2.2989000000000002</v>
       </c>
       <c r="D859">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.3000000000040757E-5</v>
       </c>
     </row>
@@ -27360,7 +27405,7 @@
         <v>-2.2262400000000002</v>
       </c>
       <c r="D860">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.3999999999736445E-5</v>
       </c>
     </row>
@@ -27375,7 +27420,7 @@
         <v>-2.1553</v>
       </c>
       <c r="D861">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.7000000000155779E-5</v>
       </c>
     </row>
@@ -27390,7 +27435,7 @@
         <v>-2.08609</v>
       </c>
       <c r="D862">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.6000000000016001E-5</v>
       </c>
     </row>
@@ -27405,7 +27450,7 @@
         <v>-2.0186099999999998</v>
       </c>
       <c r="D863">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.3000000000040757E-5</v>
       </c>
     </row>
@@ -27420,7 +27465,7 @@
         <v>-1.95285</v>
       </c>
       <c r="D864">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.2000000000123023E-5</v>
       </c>
     </row>
@@ -27435,7 +27480,7 @@
         <v>-1.8888</v>
       </c>
       <c r="D865">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.6999999999933735E-5</v>
       </c>
     </row>
@@ -27450,7 +27495,7 @@
         <v>-1.82646</v>
       </c>
       <c r="D866">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.399999999995849E-5</v>
       </c>
     </row>
@@ -27465,7 +27510,7 @@
         <v>-1.7658100000000001</v>
       </c>
       <c r="D867">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.0999999999983245E-5</v>
       </c>
     </row>
@@ -27480,7 +27525,7 @@
         <v>-1.7068300000000001</v>
       </c>
       <c r="D868">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>8.0000000000080007E-6</v>
       </c>
     </row>
@@ -27495,7 +27540,7 @@
         <v>-1.6495</v>
       </c>
       <c r="D869">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>7.0000000000902673E-6</v>
       </c>
     </row>
@@ -27510,7 +27555,7 @@
         <v>-1.5938000000000001</v>
       </c>
       <c r="D870">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>4.9999999998107114E-6</v>
       </c>
     </row>
@@ -27525,7 +27570,7 @@
         <v>-1.5397000000000001</v>
       </c>
       <c r="D871">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>8.0000000000080007E-6</v>
       </c>
     </row>
@@ -27540,7 +27585,7 @@
         <v>-1.4871799999999999</v>
       </c>
       <c r="D872">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.0999999999983245E-5</v>
       </c>
     </row>
@@ -27555,7 +27600,7 @@
         <v>-1.4362200000000001</v>
       </c>
       <c r="D873">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>5.9999999999504894E-6</v>
       </c>
     </row>
@@ -27570,7 +27615,7 @@
         <v>-1.3867799999999999</v>
       </c>
       <c r="D874">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>6.000000000172534E-6</v>
       </c>
     </row>
@@ -27585,7 +27630,7 @@
         <v>-1.33883</v>
       </c>
       <c r="D875">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.0999999999983245E-5</v>
       </c>
     </row>
@@ -27600,7 +27645,7 @@
         <v>-1.2923500000000001</v>
       </c>
       <c r="D876">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.0999999999983245E-5</v>
       </c>
     </row>
@@ -27615,7 +27660,7 @@
         <v>-1.2473099999999999</v>
       </c>
       <c r="D877">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>6.000000000172534E-6</v>
       </c>
     </row>
@@ -27630,7 +27675,7 @@
         <v>-1.20367</v>
       </c>
       <c r="D878">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.9999999999752447E-6</v>
       </c>
     </row>
@@ -27645,7 +27690,7 @@
         <v>-1.1614</v>
       </c>
       <c r="D879">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.9999999999752447E-6</v>
       </c>
     </row>
@@ -27660,7 +27705,7 @@
         <v>-1.1204700000000001</v>
       </c>
       <c r="D880">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.9999999998354667E-6</v>
       </c>
     </row>
@@ -27675,7 +27720,7 @@
         <v>-1.08084</v>
       </c>
       <c r="D881">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>8.9999999999257341E-6</v>
       </c>
     </row>
@@ -27690,7 +27735,7 @@
         <v>-1.0425</v>
       </c>
       <c r="D882">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000575113E-6</v>
       </c>
     </row>
@@ -27705,7 +27750,7 @@
         <v>-1.00539</v>
       </c>
       <c r="D883">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>8.0000000000080007E-6</v>
       </c>
     </row>
@@ -27720,7 +27765,7 @@
         <v>-0.96950000000000003</v>
       </c>
       <c r="D884">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>5.1999999999274849E-6</v>
       </c>
     </row>
@@ -27735,7 +27780,7 @@
         <v>-0.93478700000000003</v>
       </c>
       <c r="D885">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>5.4999999999916227E-6</v>
       </c>
     </row>
@@ -27750,7 +27795,7 @@
         <v>-0.901223</v>
       </c>
       <c r="D886">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>4.8999999999743693E-6</v>
       </c>
     </row>
@@ -27765,7 +27810,7 @@
         <v>-0.86877499999999996</v>
       </c>
       <c r="D887">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>5.1000000000911427E-6</v>
       </c>
     </row>
@@ -27780,7 +27825,7 @@
         <v>-0.83741399999999999</v>
       </c>
       <c r="D888">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>4.2999999999571159E-6</v>
       </c>
     </row>
@@ -27795,7 +27840,7 @@
         <v>-0.80710700000000002</v>
       </c>
       <c r="D889">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>4.8999999999743693E-6</v>
       </c>
     </row>
@@ -27810,7 +27855,7 @@
         <v>-0.77782600000000002</v>
       </c>
       <c r="D890">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>4.6000000000212538E-6</v>
       </c>
     </row>
@@ -27825,7 +27870,7 @@
         <v>-0.74954100000000001</v>
       </c>
       <c r="D891">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>3.8999999999456136E-6</v>
       </c>
     </row>
@@ -27840,7 +27885,7 @@
         <v>-0.722221</v>
       </c>
       <c r="D892">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>4.499999999962867E-6</v>
       </c>
     </row>
@@ -27855,7 +27900,7 @@
         <v>-0.69584000000000001</v>
       </c>
       <c r="D893">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>3.7999999999982492E-6</v>
       </c>
     </row>
@@ -27870,7 +27915,7 @@
         <v>-0.67036799999999996</v>
       </c>
       <c r="D894">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>3.7000000000508848E-6</v>
       </c>
     </row>
@@ -27885,7 +27930,7 @@
         <v>-0.64577799999999996</v>
       </c>
       <c r="D895">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>3.399999999986747E-6</v>
       </c>
     </row>
@@ -27900,7 +27945,7 @@
         <v>-0.62204199999999998</v>
       </c>
       <c r="D896">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>3.9000000000566359E-6</v>
       </c>
     </row>
@@ -27915,7 +27960,7 @@
         <v>-0.599136</v>
       </c>
       <c r="D897">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.9000000000278803E-6</v>
       </c>
     </row>
@@ -27930,7 +27975,7 @@
         <v>-0.57703099999999996</v>
       </c>
       <c r="D898">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>3.399999999986747E-6</v>
       </c>
     </row>
@@ -27945,7 +27990,7 @@
         <v>-0.55570399999999998</v>
       </c>
       <c r="D899">
-        <f t="shared" ref="D899:D962" si="18">C899-B899</f>
+        <f t="shared" ref="D899:D962" si="16">C899-B899</f>
         <v>2.9999999999752447E-6</v>
       </c>
     </row>
@@ -27960,7 +28005,7 @@
         <v>-0.53512899999999997</v>
       </c>
       <c r="D900">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3.1999999999809958E-6</v>
       </c>
     </row>
@@ -27975,7 +28020,7 @@
         <v>-0.51528300000000005</v>
       </c>
       <c r="D901">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.7999999999694936E-6</v>
       </c>
     </row>
@@ -27990,7 +28035,7 @@
         <v>-0.49614200000000003</v>
       </c>
       <c r="D902">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.2999999999551157E-6</v>
       </c>
     </row>
@@ -28005,7 +28050,7 @@
         <v>-0.477682</v>
       </c>
       <c r="D903">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.8000000000250047E-6</v>
       </c>
     </row>
@@ -28020,7 +28065,7 @@
         <v>-0.45988200000000001</v>
       </c>
       <c r="D904">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.8999999999723691E-6</v>
       </c>
     </row>
@@ -28035,7 +28080,7 @@
         <v>-0.44272099999999998</v>
       </c>
       <c r="D905">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.8999999999991246E-6</v>
       </c>
     </row>
@@ -28050,7 +28095,7 @@
         <v>-0.426176</v>
       </c>
       <c r="D906">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.799999999996249E-6</v>
       </c>
     </row>
@@ -28065,7 +28110,7 @@
         <v>-0.41022700000000001</v>
       </c>
       <c r="D907">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.8999999999991246E-6</v>
       </c>
     </row>
@@ -28080,7 +28125,7 @@
         <v>-0.39485399999999998</v>
       </c>
       <c r="D908">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.2000000000077513E-6</v>
       </c>
     </row>
@@ -28095,7 +28140,7 @@
         <v>-0.38003799999999999</v>
       </c>
       <c r="D909">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.3000000000106269E-6</v>
       </c>
     </row>
@@ -28110,7 +28155,7 @@
         <v>-0.365761</v>
       </c>
       <c r="D910">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.3999999999847468E-6</v>
       </c>
     </row>
@@ -28125,7 +28170,7 @@
         <v>-0.35200199999999998</v>
       </c>
       <c r="D911">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.1000000000048757E-6</v>
       </c>
     </row>
@@ -28140,7 +28185,7 @@
         <v>-0.33874599999999999</v>
       </c>
       <c r="D912">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.6999999999933735E-6</v>
       </c>
     </row>
@@ -28155,7 +28200,7 @@
         <v>-0.32597399999999999</v>
       </c>
       <c r="D913">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.799999999996249E-6</v>
       </c>
     </row>
@@ -28170,7 +28215,7 @@
         <v>-0.31367</v>
       </c>
       <c r="D914">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.799999999996249E-6</v>
       </c>
     </row>
@@ -28185,7 +28230,7 @@
         <v>-0.30181799999999998</v>
       </c>
       <c r="D915">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.4000000000402579E-6</v>
       </c>
     </row>
@@ -28200,7 +28245,7 @@
         <v>-0.29040199999999999</v>
       </c>
       <c r="D916">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>9.000000000258801E-7</v>
       </c>
     </row>
@@ -28215,7 +28260,7 @@
         <v>-0.27940599999999999</v>
       </c>
       <c r="D917">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.2000000000345068E-6</v>
       </c>
     </row>
@@ -28230,7 +28275,7 @@
         <v>-0.268816</v>
       </c>
       <c r="D918">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.3999999999847468E-6</v>
       </c>
     </row>
@@ -28245,7 +28290,7 @@
         <v>-0.25861800000000001</v>
       </c>
       <c r="D919">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.1999999999789956E-6</v>
       </c>
     </row>
@@ -28260,7 +28305,7 @@
         <v>-0.24879799999999999</v>
       </c>
       <c r="D920">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>7.9999999999524896E-7</v>
       </c>
     </row>
@@ -28275,7 +28320,7 @@
         <v>-0.239342</v>
       </c>
       <c r="D921">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>7.9999999999524896E-7</v>
       </c>
     </row>
@@ -28290,7 +28335,7 @@
         <v>-0.230237</v>
       </c>
       <c r="D922">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.3000000000096268E-6</v>
       </c>
     </row>
@@ -28305,7 +28350,7 @@
         <v>-0.221472</v>
       </c>
       <c r="D923">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>6.9999999999237339E-7</v>
       </c>
     </row>
@@ -28320,7 +28365,7 @@
         <v>-0.213033</v>
       </c>
       <c r="D924">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>7.9999999999524896E-7</v>
       </c>
     </row>
@@ -28335,7 +28380,7 @@
         <v>-0.20490900000000001</v>
       </c>
       <c r="D925">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.1000000000038757E-6</v>
       </c>
     </row>
@@ -28350,7 +28395,7 @@
         <v>-0.19708899999999999</v>
       </c>
       <c r="D926">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.1000000000038757E-6</v>
       </c>
     </row>
@@ -28365,7 +28410,7 @@
         <v>-0.18956200000000001</v>
       </c>
       <c r="D927">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>8.9999999999812452E-7</v>
       </c>
     </row>
@@ -28380,7 +28425,7 @@
         <v>-0.18231700000000001</v>
       </c>
       <c r="D928">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>8.9999999999812452E-7</v>
       </c>
     </row>
@@ -28395,7 +28440,7 @@
         <v>-0.175344</v>
       </c>
       <c r="D929">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>7.9999999999524896E-7</v>
       </c>
     </row>
@@ -28410,7 +28455,7 @@
         <v>-0.16863300000000001</v>
       </c>
       <c r="D930">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>7.9999999999524896E-7</v>
       </c>
     </row>
@@ -28425,7 +28470,7 @@
         <v>-0.16217500000000001</v>
       </c>
       <c r="D931">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3.9999999998374669E-7</v>
       </c>
     </row>
@@ -28440,7 +28485,7 @@
         <v>-0.15595999999999999</v>
       </c>
       <c r="D932">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3.000000000086267E-7</v>
       </c>
     </row>
@@ -28455,7 +28500,7 @@
         <v>-0.149979</v>
       </c>
       <c r="D933">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>5.9999999998949782E-7</v>
       </c>
     </row>
@@ -28470,7 +28515,7 @@
         <v>-0.14422399999999999</v>
       </c>
       <c r="D934">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>7.0000000002012897E-7</v>
       </c>
     </row>
@@ -28485,7 +28530,7 @@
         <v>-0.138687</v>
       </c>
       <c r="D935">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3.9999999998374669E-7</v>
       </c>
     </row>
@@ -28500,7 +28545,7 @@
         <v>-0.13335900000000001</v>
       </c>
       <c r="D936">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>5.9999999998949782E-7</v>
       </c>
     </row>
@@ -28515,7 +28560,7 @@
         <v>-0.12823300000000001</v>
       </c>
       <c r="D937">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>5.9999999998949782E-7</v>
       </c>
     </row>
@@ -28530,7 +28575,7 @@
         <v>-0.12330099999999999</v>
       </c>
       <c r="D938">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>9.0000000001200231E-7</v>
       </c>
     </row>
@@ -28545,7 +28590,7 @@
         <v>-0.118557</v>
       </c>
       <c r="D939">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3.9999999999762448E-7</v>
       </c>
     </row>
@@ -28560,7 +28605,7 @@
         <v>-0.113993</v>
       </c>
       <c r="D940">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.0000000000287557E-7</v>
       </c>
     </row>
@@ -28575,7 +28620,7 @@
         <v>-0.109602</v>
       </c>
       <c r="D941">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.9999999999474891E-7</v>
       </c>
     </row>
@@ -28590,7 +28635,7 @@
         <v>-0.105378</v>
       </c>
       <c r="D942">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>6.0000000000337561E-7</v>
       </c>
     </row>
@@ -28605,7 +28650,7 @@
         <v>-0.101315</v>
       </c>
       <c r="D943">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>6.9999999999237339E-7</v>
       </c>
     </row>
@@ -28620,7 +28665,7 @@
         <v>-9.7407300000000002E-2</v>
       </c>
       <c r="D944">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4.4000000000432582E-7</v>
       </c>
     </row>
@@ -28635,7 +28680,7 @@
         <v>-9.3648400000000007E-2</v>
       </c>
       <c r="D945">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4.0999999999236092E-7</v>
       </c>
     </row>
@@ -28650,7 +28695,7 @@
         <v>-9.0033000000000002E-2</v>
       </c>
       <c r="D946">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3.6000000000480092E-7</v>
       </c>
     </row>
@@ -28665,7 +28710,7 @@
         <v>-8.6555699999999999E-2</v>
       </c>
       <c r="D947">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3.1999999999809958E-7</v>
       </c>
     </row>
@@ -28680,7 +28725,7 @@
         <v>-8.3211300000000002E-2</v>
       </c>
       <c r="D948">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3.2999999999283602E-7</v>
       </c>
     </row>
@@ -28695,7 +28740,7 @@
         <v>-7.9994800000000005E-2</v>
       </c>
       <c r="D949">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3.6999999999953737E-7</v>
       </c>
     </row>
@@ -28710,7 +28755,7 @@
         <v>-7.6901499999999998E-2</v>
       </c>
       <c r="D950">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3.4999999999618669E-7</v>
       </c>
     </row>
@@ -28725,7 +28770,7 @@
         <v>-7.3926699999999998E-2</v>
       </c>
       <c r="D951">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3.1999999999809958E-7</v>
       </c>
     </row>
@@ -28740,7 +28785,7 @@
         <v>-7.1065900000000001E-2</v>
       </c>
       <c r="D952">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3.1999999999809958E-7</v>
       </c>
     </row>
@@ -28755,7 +28800,7 @@
         <v>-6.8314899999999998E-2</v>
       </c>
       <c r="D953">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.6000000000192536E-7</v>
       </c>
     </row>
@@ -28770,7 +28815,7 @@
         <v>-6.5669400000000003E-2</v>
       </c>
       <c r="D954">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.699999999966618E-7</v>
       </c>
     </row>
@@ -28785,7 +28830,7 @@
         <v>-6.3125500000000001E-2</v>
       </c>
       <c r="D955">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.699999999966618E-7</v>
       </c>
     </row>
@@ -28800,7 +28845,7 @@
         <v>-6.0679400000000001E-2</v>
       </c>
       <c r="D956">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.2999999999689935E-7</v>
       </c>
     </row>
@@ -28815,7 +28860,7 @@
         <v>-5.8327299999999999E-2</v>
       </c>
       <c r="D957">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.2000000000216291E-7</v>
       </c>
     </row>
@@ -28830,7 +28875,7 @@
         <v>-5.60656E-2</v>
       </c>
       <c r="D958">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.7999999999833713E-7</v>
       </c>
     </row>
@@ -28845,7 +28890,7 @@
         <v>-5.3891099999999997E-2</v>
       </c>
       <c r="D959">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.900000000040758E-7</v>
       </c>
     </row>
@@ -28860,7 +28905,7 @@
         <v>-5.1800199999999998E-2</v>
       </c>
       <c r="D960">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.3000000000383825E-7</v>
       </c>
     </row>
@@ -28875,7 +28920,7 @@
         <v>-4.9789899999999998E-2</v>
       </c>
       <c r="D961">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.2000000000216291E-7</v>
       </c>
     </row>
@@ -28890,7 +28935,7 @@
         <v>-4.78571E-2</v>
       </c>
       <c r="D962">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.899999999971369E-7</v>
       </c>
     </row>
@@ -28905,7 +28950,7 @@
         <v>-4.5998799999999999E-2</v>
       </c>
       <c r="D963">
-        <f t="shared" ref="D963:D1001" si="19">C963-B963</f>
+        <f t="shared" ref="D963:D1001" si="17">C963-B963</f>
         <v>1.899999999971369E-7</v>
       </c>
     </row>
@@ -28920,7 +28965,7 @@
         <v>-4.42122E-2</v>
       </c>
       <c r="D964">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.899999999971369E-7</v>
       </c>
     </row>
@@ -28935,7 +28980,7 @@
         <v>-4.24946E-2</v>
       </c>
       <c r="D965">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.4000000000263801E-7</v>
       </c>
     </row>
@@ -28950,7 +28995,7 @@
         <v>-4.0843200000000003E-2</v>
       </c>
       <c r="D966">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2.0999999999354868E-7</v>
       </c>
     </row>
@@ -28965,7 +29010,7 @@
         <v>-3.9255699999999998E-2</v>
       </c>
       <c r="D967">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.5999999999904979E-7</v>
       </c>
     </row>
@@ -28980,7 +29025,7 @@
         <v>-3.7729499999999999E-2</v>
       </c>
       <c r="D968">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.7000000000072513E-7</v>
       </c>
     </row>
@@ -28995,7 +29040,7 @@
         <v>-3.6262299999999997E-2</v>
       </c>
       <c r="D969">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.8000000000240046E-7</v>
       </c>
     </row>
@@ -29010,7 +29055,7 @@
         <v>-3.4851899999999998E-2</v>
       </c>
       <c r="D970">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.3000000000096268E-7</v>
       </c>
     </row>
@@ -29025,7 +29070,7 @@
         <v>-3.3495999999999998E-2</v>
       </c>
       <c r="D971">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.5000000000431335E-7</v>
       </c>
     </row>
@@ -29040,7 +29085,7 @@
         <v>-3.2192600000000002E-2</v>
       </c>
       <c r="D972">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.3999999999569912E-7</v>
       </c>
     </row>
@@ -29055,7 +29100,7 @@
         <v>-3.0939700000000001E-2</v>
       </c>
       <c r="D973">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999406119E-8</v>
       </c>
     </row>
@@ -29070,7 +29115,7 @@
         <v>-2.9735299999999999E-2</v>
       </c>
       <c r="D974">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>7.9999999999524896E-8</v>
       </c>
     </row>
@@ -29085,7 +29130,7 @@
         <v>-2.8577499999999999E-2</v>
       </c>
       <c r="D975">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.3000000000096268E-7</v>
       </c>
     </row>
@@ -29100,7 +29145,7 @@
         <v>-2.7464599999999999E-2</v>
       </c>
       <c r="D976">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.4000000000263801E-7</v>
       </c>
     </row>
@@ -29115,7 +29160,7 @@
         <v>-2.6394899999999999E-2</v>
       </c>
       <c r="D977">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>9.0000000001200231E-8</v>
       </c>
     </row>
@@ -29130,7 +29175,7 @@
         <v>-2.53666E-2</v>
       </c>
       <c r="D978">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.3000000000096268E-7</v>
       </c>
     </row>
@@ -29145,7 +29190,7 @@
         <v>-2.4378199999999999E-2</v>
       </c>
       <c r="D979">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.6000000000251924E-7</v>
       </c>
     </row>
@@ -29160,7 +29205,7 @@
         <v>-2.34282E-2</v>
       </c>
       <c r="D980">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.3000000000096268E-7</v>
       </c>
     </row>
@@ -29175,7 +29220,7 @@
         <v>-2.25151E-2</v>
       </c>
       <c r="D981">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>7.9999999999524896E-8</v>
       </c>
     </row>
@@ -29190,7 +29235,7 @@
         <v>-2.1637400000000001E-2</v>
       </c>
       <c r="D982">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>7.9999999999524896E-8</v>
       </c>
     </row>
@@ -29205,7 +29250,7 @@
         <v>-2.0793800000000001E-2</v>
       </c>
       <c r="D983">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>5.9999999999643672E-8</v>
       </c>
     </row>
@@ -29220,7 +29265,7 @@
         <v>-1.9982900000000001E-2</v>
       </c>
       <c r="D984">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.1999999999928734E-7</v>
       </c>
     </row>
@@ -29235,7 +29280,7 @@
         <v>-1.9203600000000001E-2</v>
       </c>
       <c r="D985">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>6.999999999784956E-8</v>
       </c>
     </row>
@@ -29250,7 +29295,7 @@
         <v>-1.8454499999999999E-2</v>
       </c>
       <c r="D986">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.2000000000275679E-7</v>
       </c>
     </row>
@@ -29265,7 +29310,7 @@
         <v>-1.77346E-2</v>
       </c>
       <c r="D987">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>7.9999999999524896E-8</v>
       </c>
     </row>
@@ -29280,7 +29325,7 @@
         <v>-1.7042700000000001E-2</v>
       </c>
       <c r="D988">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2.9999999998087112E-8</v>
       </c>
     </row>
@@ -29295,7 +29340,7 @@
         <v>-1.6377599999999999E-2</v>
       </c>
       <c r="D989">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>9.0000000001200231E-8</v>
       </c>
     </row>
@@ -29310,7 +29355,7 @@
         <v>-1.5738499999999999E-2</v>
       </c>
       <c r="D990">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>3.0000000001556559E-8</v>
       </c>
     </row>
@@ -29325,7 +29370,7 @@
         <v>-1.5124200000000001E-2</v>
       </c>
       <c r="D991">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2.9999999999821836E-8</v>
       </c>
     </row>
@@ -29340,7 +29385,7 @@
         <v>-1.4533799999999999E-2</v>
       </c>
       <c r="D992">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2.9999999999821836E-8</v>
       </c>
     </row>
@@ -29355,7 +29400,7 @@
         <v>-1.39664E-2</v>
       </c>
       <c r="D993">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.9999999999881224E-8</v>
       </c>
     </row>
@@ -29370,7 +29415,7 @@
         <v>-1.3421000000000001E-2</v>
       </c>
       <c r="D994">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>8.9999999999465508E-8</v>
       </c>
     </row>
@@ -29385,7 +29430,7 @@
         <v>-1.2896899999999999E-2</v>
       </c>
       <c r="D995">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000114084E-7</v>
       </c>
     </row>
@@ -29400,7 +29445,7 @@
         <v>-1.2393299999999999E-2</v>
       </c>
       <c r="D996">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.9999999999881224E-8</v>
       </c>
     </row>
@@ -29415,7 +29460,7 @@
         <v>-1.19092E-2</v>
       </c>
       <c r="D997">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>5.9999999999643672E-8</v>
       </c>
     </row>
@@ -29430,7 +29475,7 @@
         <v>-1.1443999999999999E-2</v>
       </c>
       <c r="D998">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>6.0000000001378395E-8</v>
       </c>
     </row>
@@ -29445,7 +29490,7 @@
         <v>-1.09969E-2</v>
       </c>
       <c r="D999">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>7.9999999999524896E-8</v>
       </c>
     </row>
@@ -29460,7 +29505,7 @@
         <v>-1.05673E-2</v>
       </c>
       <c r="D1000">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2.9999999999821836E-8</v>
       </c>
     </row>
@@ -29475,7 +29520,7 @@
         <v>-1.0154399999999999E-2</v>
       </c>
       <c r="D1001">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>3.0000000001556559E-8</v>
       </c>
     </row>
@@ -29490,7 +29535,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29687,19 +29732,19 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <f>AVERAGE(B2:B11)</f>
+        <f t="shared" ref="B13:H13" si="0">AVERAGE(B2:B11)</f>
         <v>6.736370500000001E-2</v>
       </c>
       <c r="C13">
-        <f>AVERAGE(C2:C11)</f>
+        <f t="shared" si="0"/>
         <v>3.5546943999999997E-2</v>
       </c>
       <c r="D13">
-        <f>AVERAGE(D2:D11)</f>
+        <f t="shared" si="0"/>
         <v>1.5872959999999998E-2</v>
       </c>
       <c r="E13" t="e">
-        <f t="shared" ref="E13:H13" si="0">AVERAGE(E2:E11)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" t="e">
@@ -29732,19 +29777,19 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <f>_xlfn.STDEV.P(B2:B11)</f>
+        <f t="shared" ref="B14:H14" si="1">_xlfn.STDEV.P(B2:B11)</f>
         <v>9.9474631418057582E-3</v>
       </c>
       <c r="C14">
-        <f>_xlfn.STDEV.P(C2:C11)</f>
+        <f t="shared" si="1"/>
         <v>8.5449813137914027E-3</v>
       </c>
       <c r="D14">
-        <f>_xlfn.STDEV.P(D2:D11)</f>
+        <f t="shared" si="1"/>
         <v>1.153950561505994E-3</v>
       </c>
       <c r="E14" t="e">
-        <f t="shared" ref="E14:H14" si="1">_xlfn.STDEV.P(E2:E11)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F14" t="e">
@@ -30041,19 +30086,19 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <f>AVERAGE(B2:B11)</f>
+        <f t="shared" ref="B13:H13" si="0">AVERAGE(B2:B11)</f>
         <v>6.736370500000001E-2</v>
       </c>
       <c r="C13">
-        <f>AVERAGE(C2:C11)</f>
+        <f t="shared" si="0"/>
         <v>3.5546943999999997E-2</v>
       </c>
       <c r="D13">
-        <f>AVERAGE(D2:D11)</f>
+        <f t="shared" si="0"/>
         <v>1.4799619999999999E-2</v>
       </c>
       <c r="E13" t="e">
-        <f t="shared" ref="E13:H13" si="0">AVERAGE(E2:E11)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" t="e">
@@ -30086,19 +30131,19 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <f>_xlfn.STDEV.P(B2:B11)</f>
+        <f t="shared" ref="B14:H14" si="1">_xlfn.STDEV.P(B2:B11)</f>
         <v>9.9474631418057582E-3</v>
       </c>
       <c r="C14">
-        <f>_xlfn.STDEV.P(C2:C11)</f>
+        <f t="shared" si="1"/>
         <v>8.5449813137914027E-3</v>
       </c>
       <c r="D14">
-        <f>_xlfn.STDEV.P(D2:D11)</f>
+        <f t="shared" si="1"/>
         <v>1.4757330414407615E-3</v>
       </c>
       <c r="E14" t="e">
-        <f t="shared" ref="E14:H14" si="1">_xlfn.STDEV.P(E2:E11)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F14" t="e">
@@ -30389,19 +30434,19 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <f>AVERAGE(B2:B11)</f>
+        <f t="shared" ref="B13:H13" si="0">AVERAGE(B2:B11)</f>
         <v>6.736370500000001E-2</v>
       </c>
       <c r="C13">
-        <f>AVERAGE(C2:C11)</f>
+        <f t="shared" si="0"/>
         <v>3.5546943999999997E-2</v>
       </c>
       <c r="D13">
-        <f>AVERAGE(D2:D11)</f>
+        <f t="shared" si="0"/>
         <v>1.512374E-2</v>
       </c>
       <c r="E13" t="e">
-        <f t="shared" ref="E13:H13" si="0">AVERAGE(E2:E11)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" t="e">
@@ -30434,19 +30479,19 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <f>_xlfn.STDEV.P(B2:B11)</f>
+        <f t="shared" ref="B14:H14" si="1">_xlfn.STDEV.P(B2:B11)</f>
         <v>9.9474631418057582E-3</v>
       </c>
       <c r="C14">
-        <f>_xlfn.STDEV.P(C2:C11)</f>
+        <f t="shared" si="1"/>
         <v>8.5449813137914027E-3</v>
       </c>
       <c r="D14">
-        <f>_xlfn.STDEV.P(D2:D11)</f>
+        <f t="shared" si="1"/>
         <v>1.8065069527682426E-3</v>
       </c>
       <c r="E14" t="e">
-        <f t="shared" ref="E14:H14" si="1">_xlfn.STDEV.P(E2:E11)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F14" t="e">
@@ -30539,4 +30584,932 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>226560</v>
+      </c>
+      <c r="B3" s="3">
+        <f>A3*0.000000001</f>
+        <v>2.2656000000000003E-4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>202240</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B10" si="0">A4*0.000000001</f>
+        <v>2.0224000000000002E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>219648</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1964800000000002E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>194048</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9404800000000002E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>198912</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9891200000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f>AVERAGE(A3:A7)</f>
+        <v>208281.60000000001</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0828160000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f>_xlfn.STDEV.P(A3:A7)</f>
+        <v>12571.242255242716</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2571242255242717E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>19456</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" ref="B13:B20" si="1">A13*0.000000001</f>
+        <v>1.9456000000000001E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>21248</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1248000000000001E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>19200</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9200000000000003E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>19200</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9200000000000003E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>19200</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9200000000000003E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f>AVERAGE(A13:A17)</f>
+        <v>19660.8</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="1"/>
+        <v>1.96608E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f>_xlfn.STDEV.P(A13:A17)</f>
+        <v>799.76956681284128</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9976956681284128E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>25088</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" ref="B24:B31" si="2">A24*0.000000001</f>
+        <v>2.5088000000000001E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>25088</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5088000000000001E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>24832</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4832000000000002E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>25088</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5088000000000001E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>25344</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5344E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f>AVERAGE(A24:A28)</f>
+        <v>25088</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5088000000000001E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f>_xlfn.STDEV.P(A24:A28)</f>
+        <v>161.90861620062103</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6190861620062103E-7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="3">
+        <f>((B9-B30)/B30)*100</f>
+        <v>730.20408163265301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>25088</v>
+      </c>
+      <c r="B35" s="3">
+        <f t="shared" ref="B35:B42" si="3">A35*0.000000001</f>
+        <v>2.5088000000000001E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>25344</v>
+      </c>
+      <c r="B36" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5344E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>25344</v>
+      </c>
+      <c r="B37" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5344E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>25088</v>
+      </c>
+      <c r="B38" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5088000000000001E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>25088</v>
+      </c>
+      <c r="B39" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5088000000000001E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <f>AVERAGE(A35:A39)</f>
+        <v>25190.400000000001</v>
+      </c>
+      <c r="B41" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5190400000000002E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <f>_xlfn.STDEV.P(A35:A39)</f>
+        <v>125.41387483049871</v>
+      </c>
+      <c r="B42" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2541387483049871E-7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="4">
+        <f>(A20-A41)*0.000000001</f>
+        <v>-2.4390630433187163E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <f>POWER(2,A2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <f>B2*$C$28</f>
+        <v>64</v>
+      </c>
+      <c r="D2" s="6">
+        <f>$B$30-C2</f>
+        <v>1073741760</v>
+      </c>
+      <c r="E2" s="5">
+        <f>D2/$C$29</f>
+        <v>53687088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <f t="shared" ref="B3:B25" si="0">POWER(2,A3)</f>
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C25" si="1">B3*$C$28</f>
+        <v>128</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D25" si="2">$B$30-C3</f>
+        <v>1073741696</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E25" si="3">D3/$C$29</f>
+        <v>53687084.799999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="2"/>
+        <v>1073741568</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="3"/>
+        <v>53687078.399999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="2"/>
+        <v>1073741312</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="3"/>
+        <v>53687065.600000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="2"/>
+        <v>1073740800</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="3"/>
+        <v>53687040</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="2"/>
+        <v>1073739776</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="3"/>
+        <v>53686988.799999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
+        <v>4096</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="2"/>
+        <v>1073737728</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="3"/>
+        <v>53686886.399999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="1"/>
+        <v>8192</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="2"/>
+        <v>1073733632</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="3"/>
+        <v>53686681.600000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="1"/>
+        <v>16384</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="2"/>
+        <v>1073725440</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="3"/>
+        <v>53686272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="1"/>
+        <v>32768</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="2"/>
+        <v>1073709056</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="3"/>
+        <v>53685452.799999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="1"/>
+        <v>65536</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="2"/>
+        <v>1073676288</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="3"/>
+        <v>53683814.399999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="1"/>
+        <v>131072</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="2"/>
+        <v>1073610752</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="3"/>
+        <v>53680537.600000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="2"/>
+        <v>1073479680</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="3"/>
+        <v>53673984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="2"/>
+        <v>1073217536</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="3"/>
+        <v>53660876.799999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="2"/>
+        <v>1072693248</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="3"/>
+        <v>53634662.399999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="1"/>
+        <v>2097152</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="2"/>
+        <v>1071644672</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="3"/>
+        <v>53582233.600000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="1"/>
+        <v>4194304</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="2"/>
+        <v>1069547520</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="3"/>
+        <v>53477376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="1"/>
+        <v>8388608</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="2"/>
+        <v>1065353216</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="3"/>
+        <v>53267660.799999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
+        <v>524288</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="1"/>
+        <v>16777216</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="2"/>
+        <v>1056964608</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="3"/>
+        <v>52848230.399999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="1"/>
+        <v>33554432</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="2"/>
+        <v>1040187392</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="3"/>
+        <v>52009369.600000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
+        <v>2097152</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="1"/>
+        <v>67108864</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="2"/>
+        <v>1006632960</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="3"/>
+        <v>50331648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" si="0"/>
+        <v>4194304</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="1"/>
+        <v>134217728</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="2"/>
+        <v>939524096</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="3"/>
+        <v>46976204.799999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" si="0"/>
+        <v>8388608</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="1"/>
+        <v>268435456</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="2"/>
+        <v>805306368</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="3"/>
+        <v>40265318.399999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <f>POWER(2,A25)</f>
+        <v>16777216</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="1"/>
+        <v>536870912</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="2"/>
+        <v>536870912</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="3"/>
+        <v>26843545.600000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <f>B28*4</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <f>B29*4</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="6">
+        <f>1024*2^20</f>
+        <v>1073741824</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Libraries/OpenNeuronCL/PerformanceStats.xlsx
+++ b/Libraries/OpenNeuronCL/PerformanceStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1305" windowWidth="11010" windowHeight="11760" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="4560" yWindow="1305" windowWidth="11010" windowHeight="11760" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Comparisons" sheetId="2" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="FastSpiking Philox Random " sheetId="6" r:id="rId5"/>
     <sheet name="Synapse Iin consolidation" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="49">
   <si>
     <t>Time</t>
   </si>
@@ -163,6 +163,12 @@
   <si>
     <t>Numer of synapses</t>
   </si>
+  <si>
+    <t>No synapse summation</t>
+  </si>
+  <si>
+    <t>With Synapse summation</t>
+  </si>
 </sst>
 </file>
 
@@ -12325,11 +12331,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="52558464"/>
-        <c:axId val="50991488"/>
+        <c:axId val="45644032"/>
+        <c:axId val="56107008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52558464"/>
+        <c:axId val="45644032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12339,12 +12345,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50991488"/>
+        <c:crossAx val="56107008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50991488"/>
+        <c:axId val="56107008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12355,7 +12361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52558464"/>
+        <c:crossAx val="45644032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12562,11 +12568,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="51016064"/>
-        <c:axId val="51017984"/>
+        <c:axId val="57173504"/>
+        <c:axId val="57175424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51016064"/>
+        <c:axId val="57173504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12598,7 +12604,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51017984"/>
+        <c:crossAx val="57175424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12606,7 +12612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51017984"/>
+        <c:axId val="57175424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12617,7 +12623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51016064"/>
+        <c:crossAx val="57173504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12820,11 +12826,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="51050752"/>
-        <c:axId val="52691328"/>
+        <c:axId val="57459072"/>
+        <c:axId val="57461376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51050752"/>
+        <c:axId val="57459072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12856,7 +12862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52691328"/>
+        <c:crossAx val="57461376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12864,7 +12870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52691328"/>
+        <c:axId val="57461376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12875,7 +12881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51050752"/>
+        <c:crossAx val="57459072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13078,11 +13084,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52748672"/>
-        <c:axId val="52750592"/>
+        <c:axId val="113670784"/>
+        <c:axId val="189432576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52748672"/>
+        <c:axId val="113670784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13114,7 +13120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52750592"/>
+        <c:crossAx val="189432576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13122,7 +13128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52750592"/>
+        <c:axId val="189432576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13133,7 +13139,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52748672"/>
+        <c:crossAx val="113670784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13336,11 +13342,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="53186560"/>
-        <c:axId val="53188480"/>
+        <c:axId val="43236736"/>
+        <c:axId val="43648512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53186560"/>
+        <c:axId val="43236736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13367,12 +13373,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53188480"/>
+        <c:crossAx val="43648512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13380,7 +13387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53188480"/>
+        <c:axId val="43648512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13391,7 +13398,266 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53186560"/>
+        <c:crossAx val="43236736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'FastSpiking Philox Random '!$B$14:$J$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>9.9474631418057582E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.5449813137914027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.8065069527682426E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.408038093854539E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.1233860110236399E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.3468811069732137E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'FastSpiking Philox Random '!$B$14:$J$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>9.9474631418057582E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.5449813137914027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.8065069527682426E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.408038093854539E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.1233860110236399E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.3468811069732137E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FastSpiking Philox Random '!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>V2_IGF_100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FSP_100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OCL 2^10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCL 2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OCL 2^14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OCL 2^16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OCL 2^18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>OCL 2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>OCL 2^23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OCL 2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FastSpiking Philox Random '!$B$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.736370500000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5546943999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.512374E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.35409E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2524159999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3581599999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="43895808"/>
+        <c:axId val="43902080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="43895808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AnimatLab</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> 100 Neurons Comparison with OPenCL</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43902080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43902080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43895808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13560,6 +13826,43 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>32</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -30243,7 +30546,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30591,7 +30894,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30942,10 +31245,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30980,15 +31283,15 @@
         <v>2</v>
       </c>
       <c r="C2" s="6">
-        <f>B2*$C$28</f>
+        <f>B2*$C$35</f>
         <v>64</v>
       </c>
       <c r="D2" s="6">
-        <f>$B$30-C2</f>
+        <f>$B$37-C2</f>
         <v>1073741760</v>
       </c>
       <c r="E2" s="5">
-        <f>D2/$C$29</f>
+        <f>D2/$C$36</f>
         <v>53687088</v>
       </c>
     </row>
@@ -30997,19 +31300,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <f t="shared" ref="B3:B25" si="0">POWER(2,A3)</f>
+        <f t="shared" ref="B3:B24" si="0">POWER(2,A3)</f>
         <v>4</v>
       </c>
       <c r="C3" s="6">
-        <f t="shared" ref="C3:C25" si="1">B3*$C$28</f>
+        <f t="shared" ref="C3:C25" si="1">B3*$C$35</f>
         <v>128</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D25" si="2">$B$30-C3</f>
+        <f t="shared" ref="D3:D25" si="2">$B$37-C3</f>
         <v>1073741696</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E25" si="3">D3/$C$29</f>
+        <f t="shared" ref="E3:E25" si="3">D3/$C$36</f>
         <v>53687084.799999997</v>
       </c>
     </row>
@@ -31475,35 +31778,182 @@
         <v>26843545.600000001</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <f t="shared" ref="B26:B28" si="4">POWER(2,A26)</f>
+        <v>33554432</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" ref="C26:C28" si="5">B26*$C$35</f>
+        <v>1073741824</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" ref="D26:D28" si="6">$B$37-C26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" ref="E26:E28" si="7">D26/$C$36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" si="4"/>
+        <v>67108864</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="5"/>
+        <v>2147483648</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="6"/>
+        <v>-1073741824</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="7"/>
+        <v>-53687091.200000003</v>
+      </c>
+    </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <f>POWER(2,A28)</f>
+        <v>134217728</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="5"/>
+        <v>4294967296</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="6"/>
+        <v>-3221225472</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="7"/>
+        <v>-161061273.59999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <f t="shared" ref="B29:B31" si="8">POWER(2,A29)</f>
+        <v>268435456</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" ref="C29:C32" si="9">B29*$C$35</f>
+        <v>8589934592</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" ref="D29:D32" si="10">$B$37-C29</f>
+        <v>-7516192768</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" ref="E29:E32" si="11">D29/$C$36</f>
+        <v>-375809638.39999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <f t="shared" si="8"/>
+        <v>536870912</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="9"/>
+        <v>17179869184</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="10"/>
+        <v>-16106127360</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="11"/>
+        <v>-805306368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <f>POWER(2,A31)</f>
+        <v>1073741824</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" si="9"/>
+        <v>34359738368</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" si="10"/>
+        <v>-33285996544</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="11"/>
+        <v>-1664299827.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6">
+        <f>POWER(2,A32)</f>
+        <v>2147483648</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="9"/>
+        <v>68719476736</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" si="10"/>
+        <v>-67645734912</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="11"/>
+        <v>-3382286745.5999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>41</v>
       </c>
-      <c r="B28">
+      <c r="B35">
         <v>8</v>
       </c>
-      <c r="C28">
-        <f>B28*4</f>
+      <c r="C35">
+        <f>B35*4</f>
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>42</v>
       </c>
-      <c r="B29">
+      <c r="B36">
         <v>5</v>
       </c>
-      <c r="C29">
-        <f>B29*4</f>
+      <c r="C36">
+        <f>B36*4</f>
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B37" s="6">
         <f>1024*2^20</f>
         <v>1073741824</v>
       </c>
@@ -31512,4 +31962,506 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>7.2041859999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>4.0023969999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.7405800000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.39908E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.1570300000000001E-2</v>
+      </c>
+      <c r="K3">
+        <v>7.2041859999999999E-2</v>
+      </c>
+      <c r="L3">
+        <v>4.0023969999999999E-2</v>
+      </c>
+      <c r="M3">
+        <v>2.8572199999999999E-2</v>
+      </c>
+      <c r="N3">
+        <v>2.17877E-2</v>
+      </c>
+      <c r="O3">
+        <v>2.6980500000000001E-2</v>
+      </c>
+      <c r="P3">
+        <v>3.8556600000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>5.2445930000000002E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.764429E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.7970999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.15529E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.3652099999999999E-2</v>
+      </c>
+      <c r="K4">
+        <v>5.2445930000000002E-2</v>
+      </c>
+      <c r="L4">
+        <v>1.764429E-2</v>
+      </c>
+      <c r="M4">
+        <v>3.06489E-2</v>
+      </c>
+      <c r="N4">
+        <v>2.07625E-2</v>
+      </c>
+      <c r="O4">
+        <v>2.5256000000000001E-2</v>
+      </c>
+      <c r="P4">
+        <v>5.2176800000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>7.4952640000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>4.3591709999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.0133699999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.1569000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.59431E-2</v>
+      </c>
+      <c r="K5">
+        <v>7.4952640000000001E-2</v>
+      </c>
+      <c r="L5">
+        <v>4.3591709999999999E-2</v>
+      </c>
+      <c r="M5">
+        <v>3.09427E-2</v>
+      </c>
+      <c r="N5">
+        <v>2.1025599999999998E-2</v>
+      </c>
+      <c r="O5">
+        <v>2.2586499999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>7.2751430000000006E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.9400369999999997E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.0133699999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.0371199999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.6448599999999999E-2</v>
+      </c>
+      <c r="K6">
+        <v>7.2751430000000006E-2</v>
+      </c>
+      <c r="L6">
+        <v>3.9400369999999997E-2</v>
+      </c>
+      <c r="M6">
+        <v>3.1549000000000001E-2</v>
+      </c>
+      <c r="N6">
+        <v>2.1025599999999998E-2</v>
+      </c>
+      <c r="O6">
+        <v>2.3816299999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>7.2371619999999998E-2</v>
+      </c>
+      <c r="C7">
+        <v>4.0634099999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>2.80288E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.38471E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.56679E-2</v>
+      </c>
+      <c r="K7">
+        <v>7.2371619999999998E-2</v>
+      </c>
+      <c r="L7">
+        <v>4.0634099999999999E-2</v>
+      </c>
+      <c r="M7">
+        <v>3.0260100000000002E-2</v>
+      </c>
+      <c r="N7">
+        <v>2.6534599999999998E-2</v>
+      </c>
+      <c r="O7">
+        <v>2.60868E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7.2689199999999995E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.6535140000000001E-2</v>
+      </c>
+      <c r="K8">
+        <v>7.2689199999999995E-2</v>
+      </c>
+      <c r="L8">
+        <v>3.6535140000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4.8488759999999999E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.9424109999999998E-2</v>
+      </c>
+      <c r="K9">
+        <v>4.8488759999999999E-2</v>
+      </c>
+      <c r="L9">
+        <v>3.9424109999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7.4415010000000004E-2</v>
+      </c>
+      <c r="C10">
+        <v>3.8635620000000002E-2</v>
+      </c>
+      <c r="K10">
+        <v>7.4415010000000004E-2</v>
+      </c>
+      <c r="L10">
+        <v>3.8635620000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>5.6783550000000002E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.9983440000000002E-2</v>
+      </c>
+      <c r="K11">
+        <v>5.6783550000000002E-2</v>
+      </c>
+      <c r="L11">
+        <v>1.9983440000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>7.6697050000000003E-2</v>
+      </c>
+      <c r="C12">
+        <v>3.9596689999999997E-2</v>
+      </c>
+      <c r="K12">
+        <v>7.6697050000000003E-2</v>
+      </c>
+      <c r="L12">
+        <v>3.9596689999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:E14" si="0">AVERAGE(B3:B12)</f>
+        <v>6.736370500000001E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>3.5546943999999997E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>2.8734599999999999E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.22662E-2</v>
+      </c>
+      <c r="F14">
+        <f>AVERAGE(F3:F7)</f>
+        <v>2.4656400000000002E-2</v>
+      </c>
+      <c r="G14" t="e">
+        <f>AVERAGE(G3:G7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:N14" si="1">AVERAGE(K3:K12)</f>
+        <v>6.736370500000001E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>3.5546943999999997E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>3.0394580000000004E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>2.2227199999999996E-2</v>
+      </c>
+      <c r="O14">
+        <f>AVERAGE(O3:O7)</f>
+        <v>2.4945220000000001E-2</v>
+      </c>
+      <c r="P14">
+        <f>AVERAGE(P3:P7)</f>
+        <v>4.5366700000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:E15" si="2">_xlfn.STDEV.P(B3:B12)</f>
+        <v>9.9474631418057582E-3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>8.5449813137914027E-3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>1.162919572455464E-3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>1.4184075366410036E-3</v>
+      </c>
+      <c r="F15">
+        <f>_xlfn.STDEV.P(F3:F7)</f>
+        <v>1.8123653980364994E-3</v>
+      </c>
+      <c r="G15" t="e">
+        <f>_xlfn.STDEV.P(G3:G7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:N15" si="3">_xlfn.STDEV.P(K3:K12)</f>
+        <v>9.9474631418057582E-3</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>8.5449813137914027E-3</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>1.0036885441211338E-3</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>2.1808203144688468E-3</v>
+      </c>
+      <c r="O15">
+        <f>_xlfn.STDEV.P(O3:O7)</f>
+        <v>1.5735421308627241E-3</v>
+      </c>
+      <c r="P15">
+        <f>_xlfn.STDEV.P(P3:P7)</f>
+        <v>6.8100999999999943E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>1024</v>
+      </c>
+      <c r="F16">
+        <v>8192</v>
+      </c>
+      <c r="G16">
+        <v>16384</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <v>1024</v>
+      </c>
+      <c r="O16">
+        <v>8192</v>
+      </c>
+      <c r="P16">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f>((B14-D14)/B14)*100</f>
+        <v>57.34409204481851</v>
+      </c>
+      <c r="C17">
+        <f>((C14-D14)/C14)*100</f>
+        <v>19.164359107775901</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <f>((K14-M14)/K14)*100</f>
+        <v>54.879886728320535</v>
+      </c>
+      <c r="L17">
+        <f>((L14-M14)/L14)*100</f>
+        <v>14.49453432621379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Libraries/OpenNeuronCL/PerformanceStats.xlsx
+++ b/Libraries/OpenNeuronCL/PerformanceStats.xlsx
@@ -363,7 +363,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'FS 1Syn'!$A$37</c:f>
+              <c:f>'FS 1Syn'!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -396,7 +396,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'FS 1Syn'!$D$36:$I$36</c:f>
+                <c:f>'FS 1Syn'!$D$37:$I$37</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -417,7 +417,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'FS 1Syn'!$D$36:$I$36</c:f>
+                <c:f>'FS 1Syn'!$D$37:$I$37</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -439,7 +439,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'FS 1Syn'!$D$34:$I$34</c:f>
+              <c:f>'FS 1Syn'!$D$35:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -466,7 +466,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FS 1Syn'!$D$35:$I$35</c:f>
+              <c:f>'FS 1Syn'!$D$36:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -492,7 +492,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'FS 1Syn'!$A$58</c:f>
+              <c:f>'FS 1Syn'!$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -525,7 +525,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'FS 1Syn'!$D$57:$I$57</c:f>
+                <c:f>'FS 1Syn'!$D$58:$I$58</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -546,7 +546,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'FS 1Syn'!$D$57:$I$57</c:f>
+                <c:f>'FS 1Syn'!$D$58:$I$58</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -568,7 +568,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'FS 1Syn'!$D$54:$I$54</c:f>
+              <c:f>'FS 1Syn'!$D$55:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -595,7 +595,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FS 1Syn'!$D$56:$I$56</c:f>
+              <c:f>'FS 1Syn'!$D$57:$I$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -668,7 +668,7 @@
           <c:x val="0.11769335083114608"/>
           <c:y val="9.6838363954505693E-2"/>
           <c:w val="0.30663375766274531"/>
-          <c:h val="0.35896602254742971"/>
+          <c:h val="0.34199363377450159"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -689,16 +689,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1007,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35:K36"/>
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,47 +1458,47 @@
         <v>6.736370500000001E-2</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ref="C16:E16" si="9">AVERAGE(C3:C12)</f>
+        <f>AVERAGE(C3:C12)</f>
         <v>3.5546943999999997E-2</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(D3:D12)</f>
         <v>6.4787140000000007E-2</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(E3:E12)</f>
         <v>9.6337759999999995E-2</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" ref="F16:M16" si="10">AVERAGE(F3:F12)</f>
+        <f>AVERAGE(F3:F12)</f>
         <v>0.10058032000000001</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(G3:G12)</f>
         <v>0.14493329999999999</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(H3:H12)</f>
         <v>0.17089299999999999</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(I3:I12)</f>
         <v>0.28261999999999998</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(J3:J12)</f>
         <v>0.39754899999999999</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(K3:K12)</f>
         <v>0.7148230000000001</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(L3:L12)</f>
         <v>1.3021160000000001</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(M3:M12)</f>
         <v>2.5754700000000001</v>
       </c>
     </row>
@@ -1511,47 +1511,47 @@
         <v>9.9474631418057582E-3</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ref="C17:E17" si="11">_xlfn.STDEV.P(C3:C12)</f>
+        <f>_xlfn.STDEV.P(C3:C12)</f>
         <v>8.5449813137914027E-3</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="11"/>
+        <f>_xlfn.STDEV.P(D3:D12)</f>
         <v>1.0314438191312168E-2</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="11"/>
+        <f>_xlfn.STDEV.P(E3:E12)</f>
         <v>1.2884209919215137E-2</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" ref="F17:M17" si="12">_xlfn.STDEV.P(F3:F12)</f>
+        <f>_xlfn.STDEV.P(F3:F12)</f>
         <v>3.3958549890323604E-2</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="12"/>
+        <f>_xlfn.STDEV.P(G3:G12)</f>
         <v>4.253197212328623E-2</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="12"/>
+        <f>_xlfn.STDEV.P(H3:H12)</f>
         <v>6.264397656598762E-3</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="12"/>
+        <f>_xlfn.STDEV.P(I3:I12)</f>
         <v>6.5537341111766238E-3</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="12"/>
+        <f>_xlfn.STDEV.P(J3:J12)</f>
         <v>3.5042366603869682E-2</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="12"/>
+        <f>_xlfn.STDEV.P(K3:K12)</f>
         <v>3.3122125493391871E-2</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="12"/>
+        <f>_xlfn.STDEV.P(L3:L12)</f>
         <v>1.0405641931183271E-2</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="12"/>
+        <f>_xlfn.STDEV.P(M3:M12)</f>
         <v>3.449633951595437E-2</v>
       </c>
     </row>
@@ -1568,104 +1568,82 @@
       <c r="K18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="2">
-        <v>7.2041859999999999E-2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>4.0023969999999999E-2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>8.2152699999999995E-2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.18873799999999999</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.389235</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1.3515600000000001</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2">
-        <v>5.2445930000000002E-2</v>
+        <v>7.2041859999999999E-2</v>
       </c>
       <c r="C23" s="2">
-        <v>1.764429E-2</v>
+        <v>4.0023969999999999E-2</v>
       </c>
       <c r="D23" s="2">
-        <v>7.6092599999999996E-2</v>
+        <v>8.2152699999999995E-2</v>
       </c>
       <c r="E23" s="2">
-        <v>0.17513500000000001</v>
+        <v>0.18873799999999999</v>
       </c>
       <c r="G23" s="2">
-        <v>0.475715</v>
+        <v>0.389235</v>
       </c>
       <c r="I23" s="2">
-        <v>1.34701</v>
+        <v>1.3515600000000001</v>
       </c>
       <c r="K23" s="2"/>
       <c r="M23" s="2"/>
@@ -1673,22 +1651,22 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2">
-        <v>7.4952640000000001E-2</v>
+        <v>5.2445930000000002E-2</v>
       </c>
       <c r="C24" s="2">
-        <v>4.3591709999999999E-2</v>
+        <v>1.764429E-2</v>
       </c>
       <c r="D24" s="2">
-        <v>6.7135899999999998E-2</v>
+        <v>7.6092599999999996E-2</v>
       </c>
       <c r="E24" s="2">
-        <v>0.19551199999999999</v>
+        <v>0.17513500000000001</v>
       </c>
       <c r="G24" s="2">
-        <v>0.37502200000000002</v>
+        <v>0.475715</v>
       </c>
       <c r="I24" s="2">
-        <v>1.32962</v>
+        <v>1.34701</v>
       </c>
       <c r="K24" s="2"/>
       <c r="M24" s="2"/>
@@ -1696,22 +1674,22 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
-        <v>7.2751430000000006E-2</v>
+        <v>7.4952640000000001E-2</v>
       </c>
       <c r="C25" s="2">
-        <v>3.9400369999999997E-2</v>
+        <v>4.3591709999999999E-2</v>
       </c>
       <c r="D25" s="2">
-        <v>8.3688499999999999E-2</v>
+        <v>6.7135899999999998E-2</v>
       </c>
       <c r="E25" s="2">
-        <v>0.20033500000000001</v>
+        <v>0.19551199999999999</v>
       </c>
       <c r="G25" s="2">
-        <v>0.38320799999999999</v>
+        <v>0.37502200000000002</v>
       </c>
       <c r="I25" s="2">
-        <v>1.34989</v>
+        <v>1.32962</v>
       </c>
       <c r="K25" s="2"/>
       <c r="M25" s="2"/>
@@ -1719,22 +1697,22 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2">
-        <v>7.2371619999999998E-2</v>
+        <v>7.2751430000000006E-2</v>
       </c>
       <c r="C26" s="2">
-        <v>4.0634099999999999E-2</v>
+        <v>3.9400369999999997E-2</v>
       </c>
       <c r="D26" s="2">
-        <v>9.8876000000000006E-2</v>
+        <v>8.3688499999999999E-2</v>
       </c>
       <c r="E26" s="2">
-        <v>0.20824899999999999</v>
+        <v>0.20033500000000001</v>
       </c>
       <c r="G26" s="2">
-        <v>0.38973999999999998</v>
+        <v>0.38320799999999999</v>
       </c>
       <c r="I26" s="2">
-        <v>1.3640699999999999</v>
+        <v>1.34989</v>
       </c>
       <c r="K26" s="2"/>
       <c r="M26" s="2"/>
@@ -1742,25 +1720,33 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2">
-        <v>7.2689199999999995E-2</v>
+        <v>7.2371619999999998E-2</v>
       </c>
       <c r="C27" s="2">
-        <v>3.6535140000000001E-2</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="I27" s="2"/>
+        <v>4.0634099999999999E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>9.8876000000000006E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.20824899999999999</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.38973999999999998</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.3640699999999999</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2">
-        <v>4.8488759999999999E-2</v>
+        <v>7.2689199999999995E-2</v>
       </c>
       <c r="C28" s="2">
-        <v>3.9424109999999998E-2</v>
+        <v>3.6535140000000001E-2</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1772,10 +1758,10 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2">
-        <v>7.4415010000000004E-2</v>
+        <v>4.8488759999999999E-2</v>
       </c>
       <c r="C29" s="2">
-        <v>3.8635620000000002E-2</v>
+        <v>3.9424109999999998E-2</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1787,10 +1773,10 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2">
-        <v>5.6783550000000002E-2</v>
+        <v>7.4415010000000004E-2</v>
       </c>
       <c r="C30" s="2">
-        <v>1.9983440000000002E-2</v>
+        <v>3.8635620000000002E-2</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1802,10 +1788,10 @@
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
-        <v>7.6697050000000003E-2</v>
+        <v>5.6783550000000002E-2</v>
       </c>
       <c r="C31" s="2">
-        <v>3.9596689999999997E-2</v>
+        <v>1.9983440000000002E-2</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1816,8 +1802,12 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="2">
+        <v>7.6697050000000003E-2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3.9596689999999997E-2</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="G32" s="2"/>
@@ -1826,254 +1816,242 @@
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2">
-        <v>10</v>
-      </c>
-      <c r="E33" s="2">
-        <v>12</v>
-      </c>
-      <c r="F33" s="2">
-        <v>13</v>
-      </c>
-      <c r="G33" s="2">
-        <v>14</v>
-      </c>
-      <c r="H33" s="2">
-        <v>15</v>
-      </c>
-      <c r="I33" s="2">
-        <v>16</v>
-      </c>
-      <c r="J33" s="2">
-        <v>17</v>
-      </c>
-      <c r="K33" s="2">
-        <v>18</v>
-      </c>
-      <c r="L33" s="2">
-        <v>19</v>
-      </c>
-      <c r="M33" s="2">
-        <v>20</v>
-      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
         <v>10</v>
       </c>
-      <c r="B34" s="2">
-        <v>100</v>
-      </c>
-      <c r="C34" s="2">
-        <v>100</v>
-      </c>
-      <c r="D34" s="2">
-        <f>2^D33</f>
-        <v>1024</v>
-      </c>
       <c r="E34" s="2">
-        <f t="shared" ref="E34" si="13">2^E33</f>
-        <v>4096</v>
+        <v>12</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" ref="F34" si="14">2^F33</f>
-        <v>8192</v>
+        <v>13</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" ref="G34" si="15">2^G33</f>
-        <v>16384</v>
+        <v>14</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" ref="H34" si="16">2^H33</f>
-        <v>32768</v>
+        <v>15</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" ref="I34" si="17">2^I33</f>
-        <v>65536</v>
+        <v>16</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" ref="J34" si="18">2^J33</f>
-        <v>131072</v>
+        <v>17</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" ref="K34" si="19">2^K33</f>
-        <v>262144</v>
+        <v>18</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" ref="L34" si="20">2^L33</f>
-        <v>524288</v>
+        <v>19</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" ref="M34" si="21">2^M33</f>
-        <v>1048576</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B35" s="2">
-        <f>AVERAGE(B22:B31)</f>
-        <v>6.736370500000001E-2</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" ref="C35:M35" si="22">AVERAGE(C22:C31)</f>
-        <v>3.5546943999999997E-2</v>
+        <v>100</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="22"/>
-        <v>8.1589140000000004E-2</v>
+        <f>2^D34</f>
+        <v>1024</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="22"/>
-        <v>0.19359380000000001</v>
+        <f t="shared" ref="E35" si="9">2^E34</f>
+        <v>4096</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" ref="F35" si="10">2^F34</f>
+        <v>8192</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="22"/>
-        <v>0.40258400000000005</v>
+        <f t="shared" ref="G35" si="11">2^G34</f>
+        <v>16384</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" ref="H35" si="12">2^H34</f>
+        <v>32768</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="22"/>
-        <v>1.34843</v>
-      </c>
-      <c r="K35" s="2"/>
-      <c r="M35" s="2"/>
+        <f t="shared" ref="I35" si="13">2^I34</f>
+        <v>65536</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" ref="J35" si="14">2^J34</f>
+        <v>131072</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" ref="K35" si="15">2^K34</f>
+        <v>262144</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" ref="L35" si="16">2^L34</f>
+        <v>524288</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" ref="M35" si="17">2^M34</f>
+        <v>1048576</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="2">
-        <f>_xlfn.STDEV.P(B22:B31)</f>
-        <v>9.9474631418057582E-3</v>
+        <f>AVERAGE(B23:B32)</f>
+        <v>6.736370500000001E-2</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" ref="C36:M36" si="23">_xlfn.STDEV.P(C22:C31)</f>
-        <v>8.5449813137914027E-3</v>
+        <f t="shared" ref="C36:I36" si="18">AVERAGE(C23:C32)</f>
+        <v>3.5546943999999997E-2</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="23"/>
-        <v>1.0417951232483286E-2</v>
+        <f t="shared" si="18"/>
+        <v>8.1589140000000004E-2</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="23"/>
-        <v>1.1208962902962964E-2</v>
+        <f t="shared" si="18"/>
+        <v>0.19359380000000001</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="23"/>
-        <v>3.6949696935157664E-2</v>
+        <f t="shared" si="18"/>
+        <v>0.40258400000000005</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="23"/>
-        <v>1.1066802609606772E-2</v>
+        <f t="shared" si="18"/>
+        <v>1.34843</v>
       </c>
       <c r="K36" s="2"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2">
+        <f>_xlfn.STDEV.P(B23:B32)</f>
+        <v>9.9474631418057582E-3</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" ref="C37:I37" si="19">_xlfn.STDEV.P(C23:C32)</f>
+        <v>8.5449813137914027E-3</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="19"/>
+        <v>1.0417951232483286E-2</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="19"/>
+        <v>1.1208962902962964E-2</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="19"/>
+        <v>3.6949696935157664E-2</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="19"/>
+        <v>1.1066802609606772E-2</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="2">
-        <v>7.2041859999999999E-2</v>
-      </c>
-      <c r="C42" s="2">
-        <v>4.0023969999999999E-2</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.17308499999999999</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.28573799999999999</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0.83005799999999996</v>
-      </c>
-      <c r="I42" s="2">
-        <v>2.7700300000000002</v>
-      </c>
-      <c r="K42" s="2"/>
-      <c r="M42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2">
-        <v>5.2445930000000002E-2</v>
+        <v>7.2041859999999999E-2</v>
       </c>
       <c r="C43" s="2">
-        <v>1.764429E-2</v>
+        <v>4.0023969999999999E-2</v>
       </c>
       <c r="D43" s="2">
-        <v>0.19839899999999999</v>
+        <v>0.17308499999999999</v>
       </c>
       <c r="E43" s="2">
-        <v>0.27193899999999999</v>
+        <v>0.28573799999999999</v>
       </c>
       <c r="G43" s="2">
-        <v>0.82374899999999995</v>
+        <v>0.83005799999999996</v>
       </c>
       <c r="I43" s="2">
-        <v>2.7398600000000002</v>
+        <v>2.7700300000000002</v>
       </c>
       <c r="K43" s="2"/>
       <c r="M43" s="2"/>
@@ -2081,22 +2059,22 @@
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2">
-        <v>7.4952640000000001E-2</v>
+        <v>5.2445930000000002E-2</v>
       </c>
       <c r="C44" s="2">
-        <v>4.3591709999999999E-2</v>
+        <v>1.764429E-2</v>
       </c>
       <c r="D44" s="2">
-        <v>0.19333700000000001</v>
+        <v>0.19839899999999999</v>
       </c>
       <c r="E44" s="2">
-        <v>0.28915600000000002</v>
+        <v>0.27193899999999999</v>
       </c>
       <c r="G44" s="2">
-        <v>0.80301900000000004</v>
+        <v>0.82374899999999995</v>
       </c>
       <c r="I44" s="2">
-        <v>2.77671</v>
+        <v>2.7398600000000002</v>
       </c>
       <c r="K44" s="2"/>
       <c r="M44" s="2"/>
@@ -2104,22 +2082,22 @@
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2">
-        <v>7.2751430000000006E-2</v>
+        <v>7.4952640000000001E-2</v>
       </c>
       <c r="C45" s="2">
-        <v>3.9400369999999997E-2</v>
+        <v>4.3591709999999999E-2</v>
       </c>
       <c r="D45" s="2">
-        <v>0.192636</v>
+        <v>0.19333700000000001</v>
       </c>
       <c r="E45" s="2">
-        <v>0.28279399999999999</v>
-      </c>
-      <c r="G45">
-        <v>0.84062099999999995</v>
+        <v>0.28915600000000002</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.80301900000000004</v>
       </c>
       <c r="I45" s="2">
-        <v>2.7493799999999999</v>
+        <v>2.77671</v>
       </c>
       <c r="K45" s="2"/>
       <c r="M45" s="2"/>
@@ -2127,22 +2105,22 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2">
-        <v>7.2371619999999998E-2</v>
+        <v>7.2751430000000006E-2</v>
       </c>
       <c r="C46" s="2">
-        <v>4.0634099999999999E-2</v>
+        <v>3.9400369999999997E-2</v>
       </c>
       <c r="D46" s="2">
         <v>0.192636</v>
       </c>
       <c r="E46" s="2">
-        <v>0.30924600000000002</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0.80660699999999996</v>
+        <v>0.28279399999999999</v>
+      </c>
+      <c r="G46">
+        <v>0.84062099999999995</v>
       </c>
       <c r="I46" s="2">
-        <v>2.7599399999999998</v>
+        <v>2.7493799999999999</v>
       </c>
       <c r="K46" s="2"/>
       <c r="M46" s="2"/>
@@ -2150,25 +2128,33 @@
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2">
-        <v>7.2689199999999995E-2</v>
+        <v>7.2371619999999998E-2</v>
       </c>
       <c r="C47" s="2">
-        <v>3.6535140000000001E-2</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="I47" s="2"/>
+        <v>4.0634099999999999E-2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.192636</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.30924600000000002</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.80660699999999996</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2.7599399999999998</v>
+      </c>
       <c r="K47" s="2"/>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2">
-        <v>4.8488759999999999E-2</v>
+        <v>7.2689199999999995E-2</v>
       </c>
       <c r="C48" s="2">
-        <v>3.9424109999999998E-2</v>
+        <v>3.6535140000000001E-2</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2180,10 +2166,10 @@
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
-        <v>7.4415010000000004E-2</v>
+        <v>4.8488759999999999E-2</v>
       </c>
       <c r="C49" s="2">
-        <v>3.8635620000000002E-2</v>
+        <v>3.9424109999999998E-2</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2195,10 +2181,10 @@
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
-        <v>5.6783550000000002E-2</v>
+        <v>7.4415010000000004E-2</v>
       </c>
       <c r="C50" s="2">
-        <v>1.9983440000000002E-2</v>
+        <v>3.8635620000000002E-2</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2210,10 +2196,10 @@
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2">
-        <v>7.6697050000000003E-2</v>
+        <v>5.6783550000000002E-2</v>
       </c>
       <c r="C51" s="2">
-        <v>3.9596689999999997E-2</v>
+        <v>1.9983440000000002E-2</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2224,8 +2210,12 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="B52" s="2">
+        <v>7.6697050000000003E-2</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3.9596689999999997E-2</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="G52" s="2"/>
@@ -2234,202 +2224,213 @@
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2">
-        <v>10</v>
-      </c>
-      <c r="E53" s="2">
-        <v>12</v>
-      </c>
-      <c r="F53" s="2">
-        <v>13</v>
-      </c>
-      <c r="G53" s="2">
-        <v>14</v>
-      </c>
-      <c r="H53" s="2">
-        <v>15</v>
-      </c>
-      <c r="I53" s="2">
-        <v>16</v>
-      </c>
-      <c r="J53" s="2">
-        <v>17</v>
-      </c>
-      <c r="K53" s="2">
-        <v>18</v>
-      </c>
-      <c r="L53" s="2">
-        <v>19</v>
-      </c>
-      <c r="M53" s="2">
-        <v>20</v>
-      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2">
         <v>10</v>
       </c>
-      <c r="B54" s="2">
+      <c r="E54" s="2">
+        <v>12</v>
+      </c>
+      <c r="F54" s="2">
+        <v>13</v>
+      </c>
+      <c r="G54" s="2">
+        <v>14</v>
+      </c>
+      <c r="H54" s="2">
+        <v>15</v>
+      </c>
+      <c r="I54" s="2">
+        <v>16</v>
+      </c>
+      <c r="J54" s="2">
+        <v>17</v>
+      </c>
+      <c r="K54" s="2">
+        <v>18</v>
+      </c>
+      <c r="L54" s="2">
+        <v>19</v>
+      </c>
+      <c r="M54" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="2">
         <v>100</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C55" s="2">
         <v>100</v>
       </c>
-      <c r="D54" s="3">
-        <f>2^D53</f>
+      <c r="D55" s="3">
+        <f>2^D54</f>
         <v>1024</v>
       </c>
-      <c r="E54" s="3">
-        <f t="shared" ref="E54" si="24">2^E53</f>
+      <c r="E55" s="3">
+        <f t="shared" ref="E55" si="20">2^E54</f>
         <v>4096</v>
       </c>
-      <c r="F54" s="3">
-        <f t="shared" ref="F54" si="25">2^F53</f>
+      <c r="F55" s="3">
+        <f t="shared" ref="F55" si="21">2^F54</f>
         <v>8192</v>
       </c>
-      <c r="G54" s="3">
-        <f t="shared" ref="G54" si="26">2^G53</f>
+      <c r="G55" s="3">
+        <f t="shared" ref="G55" si="22">2^G54</f>
         <v>16384</v>
       </c>
-      <c r="H54" s="3">
-        <f t="shared" ref="H54" si="27">2^H53</f>
+      <c r="H55" s="3">
+        <f t="shared" ref="H55" si="23">2^H54</f>
         <v>32768</v>
       </c>
-      <c r="I54" s="3">
-        <f t="shared" ref="I54" si="28">2^I53</f>
+      <c r="I55" s="3">
+        <f t="shared" ref="I55" si="24">2^I54</f>
         <v>65536</v>
       </c>
-      <c r="J54" s="3">
-        <f t="shared" ref="J54" si="29">2^J53</f>
+      <c r="J55" s="3">
+        <f t="shared" ref="J55" si="25">2^J54</f>
         <v>131072</v>
       </c>
-      <c r="K54" s="3">
-        <f t="shared" ref="K54" si="30">2^K53</f>
+      <c r="K55" s="3">
+        <f t="shared" ref="K55" si="26">2^K54</f>
         <v>262144</v>
       </c>
-      <c r="L54" s="3">
-        <f t="shared" ref="L54" si="31">2^L53</f>
+      <c r="L55" s="3">
+        <f t="shared" ref="L55" si="27">2^L54</f>
         <v>524288</v>
       </c>
-      <c r="M54" s="3">
-        <f t="shared" ref="M54" si="32">2^M53</f>
+      <c r="M55" s="3">
+        <f t="shared" ref="M55" si="28">2^M54</f>
         <v>1048576</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="3">
-        <f>D54*10</f>
+      <c r="D56" s="3">
+        <f>D55*10</f>
         <v>10240</v>
       </c>
-      <c r="E55" s="3">
-        <f t="shared" ref="E55:M55" si="33">E54*10</f>
+      <c r="E56" s="3">
+        <f t="shared" ref="E56:M56" si="29">E55*10</f>
         <v>40960</v>
       </c>
-      <c r="F55" s="3">
-        <f t="shared" si="33"/>
+      <c r="F56" s="3">
+        <f t="shared" si="29"/>
         <v>81920</v>
       </c>
-      <c r="G55" s="3">
-        <f t="shared" si="33"/>
+      <c r="G56" s="3">
+        <f t="shared" si="29"/>
         <v>163840</v>
       </c>
-      <c r="H55" s="3">
-        <f t="shared" si="33"/>
+      <c r="H56" s="3">
+        <f t="shared" si="29"/>
         <v>327680</v>
       </c>
-      <c r="I55" s="3">
-        <f t="shared" si="33"/>
+      <c r="I56" s="3">
+        <f t="shared" si="29"/>
         <v>655360</v>
       </c>
-      <c r="J55" s="3">
-        <f t="shared" si="33"/>
+      <c r="J56" s="3">
+        <f t="shared" si="29"/>
         <v>1310720</v>
       </c>
-      <c r="K55" s="3">
-        <f t="shared" si="33"/>
+      <c r="K56" s="3">
+        <f t="shared" si="29"/>
         <v>2621440</v>
       </c>
-      <c r="L55" s="3">
-        <f t="shared" si="33"/>
+      <c r="L56" s="3">
+        <f t="shared" si="29"/>
         <v>5242880</v>
       </c>
-      <c r="M55" s="3">
-        <f t="shared" si="33"/>
+      <c r="M56" s="3">
+        <f t="shared" si="29"/>
         <v>10485760</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="2">
-        <f>AVERAGE(B42:B51)</f>
-        <v>6.736370500000001E-2</v>
-      </c>
-      <c r="C56" s="2">
-        <f t="shared" ref="C56:M56" si="34">AVERAGE(C42:C51)</f>
-        <v>3.5546943999999997E-2</v>
-      </c>
-      <c r="D56" s="2">
-        <f t="shared" si="34"/>
-        <v>0.19001860000000001</v>
-      </c>
-      <c r="E56" s="2">
-        <f t="shared" si="34"/>
-        <v>0.28777459999999999</v>
-      </c>
-      <c r="G56" s="2">
-        <f t="shared" ref="G56:M56" si="35">AVERAGE(G42:G51)</f>
-        <v>0.82081079999999995</v>
-      </c>
-      <c r="I56" s="2">
-        <f t="shared" ref="I56:M56" si="36">AVERAGE(I42:I51)</f>
-        <v>2.7591840000000003</v>
-      </c>
-      <c r="K56" s="2"/>
-      <c r="M56" s="2"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" s="2">
-        <f>_xlfn.STDEV.P(B42:B51)</f>
-        <v>9.9474631418057582E-3</v>
+        <f>AVERAGE(B43:B52)</f>
+        <v>6.736370500000001E-2</v>
       </c>
       <c r="C57" s="2">
-        <f t="shared" ref="C57:M57" si="37">_xlfn.STDEV.P(C42:C51)</f>
-        <v>8.5449813137914027E-3</v>
+        <f t="shared" ref="C57:M57" si="30">AVERAGE(C43:C52)</f>
+        <v>3.5546943999999997E-2</v>
       </c>
       <c r="D57" s="2">
-        <f t="shared" si="37"/>
-        <v>8.7371763997300678E-3</v>
+        <f t="shared" si="30"/>
+        <v>0.19001860000000001</v>
       </c>
       <c r="E57" s="2">
-        <f t="shared" si="37"/>
-        <v>1.2187285400777332E-2</v>
+        <f t="shared" si="30"/>
+        <v>0.28777459999999999</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" ref="G57:M57" si="38">_xlfn.STDEV.P(G42:G51)</f>
-        <v>1.4176627474826281E-2</v>
+        <f t="shared" ref="G57:M57" si="31">AVERAGE(G43:G52)</f>
+        <v>0.82081079999999995</v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" ref="I57:M57" si="39">_xlfn.STDEV.P(I42:I51)</f>
-        <v>1.3378365520496135E-2</v>
+        <f t="shared" ref="I57:M57" si="32">AVERAGE(I43:I52)</f>
+        <v>2.7591840000000003</v>
       </c>
       <c r="K57" s="2"/>
       <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="2">
+        <f>_xlfn.STDEV.P(B43:B52)</f>
+        <v>9.9474631418057582E-3</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" ref="C58:M58" si="33">_xlfn.STDEV.P(C43:C52)</f>
+        <v>8.5449813137914027E-3</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="33"/>
+        <v>8.7371763997300678E-3</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="33"/>
+        <v>1.2187285400777332E-2</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" ref="G58:M58" si="34">_xlfn.STDEV.P(G43:G52)</f>
+        <v>1.4176627474826281E-2</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" ref="I58:M58" si="35">_xlfn.STDEV.P(I43:I52)</f>
+        <v>1.3378365520496135E-2</v>
+      </c>
+      <c r="K58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>24</v>
       </c>
     </row>
